--- a/kinit-api/scripts/initialize/data/init.xlsx
+++ b/kinit-api/scripts/initialize/data/init.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ktianc\project\kinit-pro\kinit-api\scripts\initialize\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ktianc\project\kinit\kinit-api\scripts\initialize\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C384B16-CC30-4C34-AA8D-E07273BF45AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37594167-0BEB-4347-944D-667853CD8C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12885" yWindow="2985" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vadmin_auth_menu" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="238">
   <si>
     <t>id</t>
   </si>
@@ -455,9 +455,6 @@
     <t>web_logo</t>
   </si>
   <si>
-    <t>/static/system/2022-11-03/166745879717640d3f.png</t>
-  </si>
-  <si>
     <t>系统描述</t>
   </si>
   <si>
@@ -471,9 +468,6 @@
   </si>
   <si>
     <t>web_ico</t>
-  </si>
-  <si>
-    <t>/static/system/favicon.ico</t>
   </si>
   <si>
     <t>备案号</t>
@@ -741,6 +735,74 @@
       <t>ole_id</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>media</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/system/2022-11-03/166745879717640d3f.png</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>media</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/system/favicon.ico</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证方式</t>
+  </si>
+  <si>
+    <t>sys_vadmin_login_method</t>
+  </si>
+  <si>
+    <t>登录平台</t>
+  </si>
+  <si>
+    <t>sys_vadmin_platform</t>
+  </si>
+  <si>
+    <t>密码登录</t>
+  </si>
+  <si>
+    <t>短信登录</t>
+  </si>
+  <si>
+    <t>PC端管理系统</t>
+  </si>
+  <si>
+    <t>移动端管理系统</t>
   </si>
 </sst>
 </file>
@@ -2818,10 +2880,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F47309-94A5-41A8-A36C-9E64A431B54E}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2900,6 +2962,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44898.991770833338</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44898.991770833338</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44898.992488425931</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44898.992488425931</v>
+      </c>
+      <c r="D5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2908,19 +3010,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02B016F-92B9-46EF-B145-5D0DE5E66E4A}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3127,6 +3225,122 @@
       </c>
       <c r="J7" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44898.992048611115</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44898.992048611115</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44898.992210648154</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44898.992210648154</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44898.992638888893</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44898.992638888893</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>236</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44898.992835648154</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44898.992835648154</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>237</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3169,16 +3383,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J1" t="s">
         <v>12</v>
@@ -3198,16 +3412,16 @@
         <v>64</v>
       </c>
       <c r="F2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" t="s">
         <v>212</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" t="s">
-        <v>214</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -3227,16 +3441,16 @@
         <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3256,16 +3470,16 @@
         <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3285,16 +3499,16 @@
         <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -3314,16 +3528,16 @@
         <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3340,19 +3554,19 @@
         <v>44873.393229166664</v>
       </c>
       <c r="E7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
         <v>219</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>220</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>221</v>
-      </c>
-      <c r="I7" t="s">
-        <v>222</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -3369,19 +3583,19 @@
         <v>44873.393449074072</v>
       </c>
       <c r="E8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>219</v>
       </c>
-      <c r="F8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>221</v>
-      </c>
       <c r="I8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3398,7 +3612,7 @@
         <v>44882.803460648145</v>
       </c>
       <c r="E9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
         <v>41</v>
@@ -3410,7 +3624,7 @@
         <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3427,7 +3641,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3513,8 +3727,8 @@
       <c r="F3" t="s">
         <v>141</v>
       </c>
-      <c r="G3" t="s">
-        <v>142</v>
+      <c r="G3" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3534,13 +3748,13 @@
         <v>44880.640439814815</v>
       </c>
       <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
         <v>143</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>144</v>
-      </c>
-      <c r="G4" t="s">
-        <v>145</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -3560,13 +3774,13 @@
         <v>44867.911736111113</v>
       </c>
       <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
         <v>146</v>
       </c>
-      <c r="F5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" t="s">
-        <v>148</v>
+      <c r="G5" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -3586,13 +3800,13 @@
         <v>44880.640439814815</v>
       </c>
       <c r="E6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" t="s">
         <v>149</v>
-      </c>
-      <c r="F6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" t="s">
-        <v>151</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -3612,13 +3826,13 @@
         <v>44880.640439814815</v>
       </c>
       <c r="E7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" t="s">
         <v>152</v>
-      </c>
-      <c r="F7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" t="s">
-        <v>154</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -3638,13 +3852,13 @@
         <v>44887.691469907404</v>
       </c>
       <c r="E8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" t="s">
         <v>155</v>
-      </c>
-      <c r="F8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8" t="s">
-        <v>157</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -3664,13 +3878,13 @@
         <v>44869.679756944439</v>
       </c>
       <c r="E9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" t="s">
         <v>158</v>
-      </c>
-      <c r="F9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" t="s">
-        <v>160</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -3690,13 +3904,13 @@
         <v>44869.679618055547</v>
       </c>
       <c r="E10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" t="s">
         <v>161</v>
-      </c>
-      <c r="F10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" t="s">
-        <v>163</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -3716,10 +3930,10 @@
         <v>44873.394305555557</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -3739,10 +3953,10 @@
         <v>44873.394861111112</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -3762,13 +3976,13 @@
         <v>44873.397835648146</v>
       </c>
       <c r="E13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" t="s">
         <v>168</v>
-      </c>
-      <c r="F13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H13" t="s">
-        <v>170</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -3788,13 +4002,13 @@
         <v>44873.404872685191</v>
       </c>
       <c r="E14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" t="s">
         <v>171</v>
-      </c>
-      <c r="F14" t="s">
-        <v>172</v>
-      </c>
-      <c r="H14" t="s">
-        <v>173</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -3814,13 +4028,13 @@
         <v>44873.948194444441</v>
       </c>
       <c r="E15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" t="s">
         <v>174</v>
-      </c>
-      <c r="F15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G15" t="s">
-        <v>176</v>
       </c>
       <c r="I15">
         <v>6</v>
@@ -3840,13 +4054,13 @@
         <v>44873.948611111111</v>
       </c>
       <c r="E16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" t="s">
         <v>177</v>
-      </c>
-      <c r="F16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" t="s">
-        <v>179</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -3866,13 +4080,13 @@
         <v>44880.94017361111</v>
       </c>
       <c r="E17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" t="s">
         <v>180</v>
-      </c>
-      <c r="F17" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" t="s">
-        <v>182</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -3892,13 +4106,13 @@
         <v>44880.941412037035</v>
       </c>
       <c r="E18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" t="s">
         <v>183</v>
-      </c>
-      <c r="F18" t="s">
-        <v>184</v>
-      </c>
-      <c r="H18" t="s">
-        <v>185</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -3918,13 +4132,13 @@
         <v>44882.804421296292</v>
       </c>
       <c r="E19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H19" t="s">
         <v>186</v>
-      </c>
-      <c r="F19" t="s">
-        <v>187</v>
-      </c>
-      <c r="H19" t="s">
-        <v>188</v>
       </c>
       <c r="I19">
         <v>8</v>
@@ -3944,16 +4158,16 @@
         <v>44882.805381944439</v>
       </c>
       <c r="E20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
         <v>189</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>190</v>
-      </c>
-      <c r="G20" t="s">
-        <v>191</v>
-      </c>
-      <c r="H20" t="s">
-        <v>192</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -3973,16 +4187,16 @@
         <v>44882.80574074074</v>
       </c>
       <c r="E21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
         <v>193</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>194</v>
-      </c>
-      <c r="G21" t="s">
-        <v>195</v>
-      </c>
-      <c r="H21" t="s">
-        <v>196</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -4002,16 +4216,16 @@
         <v>44882.81459490741</v>
       </c>
       <c r="E22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
         <v>197</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>198</v>
-      </c>
-      <c r="G22" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" t="s">
-        <v>200</v>
       </c>
       <c r="I22">
         <v>8</v>
@@ -4031,16 +4245,16 @@
         <v>44882.815324074072</v>
       </c>
       <c r="E23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
         <v>201</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>202</v>
-      </c>
-      <c r="G23" t="s">
-        <v>203</v>
-      </c>
-      <c r="H23" t="s">
-        <v>204</v>
       </c>
       <c r="I23">
         <v>8</v>
@@ -4060,16 +4274,16 @@
         <v>44882.816689814812</v>
       </c>
       <c r="E24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" t="s">
         <v>205</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>206</v>
-      </c>
-      <c r="G24" t="s">
-        <v>207</v>
-      </c>
-      <c r="H24" t="s">
-        <v>208</v>
       </c>
       <c r="I24">
         <v>8</v>
@@ -4089,7 +4303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496D97A3-A290-423F-9C84-FF24B6E811C2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4097,13 +4311,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/kinit-api/scripts/initialize/data/init.xlsx
+++ b/kinit-api/scripts/initialize/data/init.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ktianc\project\kinit\kinit-api\scripts\initialize\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37594167-0BEB-4347-944D-667853CD8C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12885" yWindow="2985" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="vadmin_auth_menu" sheetId="1" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="237">
   <si>
     <t>id</t>
   </si>
@@ -401,6 +395,18 @@
     <t>sys_vadmin_menu_type</t>
   </si>
   <si>
+    <t>认证方式</t>
+  </si>
+  <si>
+    <t>sys_vadmin_login_method</t>
+  </si>
+  <si>
+    <t>登录平台</t>
+  </si>
+  <si>
+    <t>sys_vadmin_platform</t>
+  </si>
+  <si>
     <t>is_default</t>
   </si>
   <si>
@@ -428,6 +434,84 @@
     <t>按钮</t>
   </si>
   <si>
+    <t>密码登录</t>
+  </si>
+  <si>
+    <t>短信登录</t>
+  </si>
+  <si>
+    <t>PC端管理系统</t>
+  </si>
+  <si>
+    <t>移动端管理系统</t>
+  </si>
+  <si>
+    <t>tab_label</t>
+  </si>
+  <si>
+    <t>classify</t>
+  </si>
+  <si>
+    <t>tab_name</t>
+  </si>
+  <si>
+    <t>基础配置</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>web_basic</t>
+  </si>
+  <si>
+    <t>百度统计</t>
+  </si>
+  <si>
+    <t>web_baidu</t>
+  </si>
+  <si>
+    <t>关于我们</t>
+  </si>
+  <si>
+    <t>web_about</t>
+  </si>
+  <si>
+    <t>隐私政策</t>
+  </si>
+  <si>
+    <t>web_privacy</t>
+  </si>
+  <si>
+    <t>用户协议</t>
+  </si>
+  <si>
+    <t>web_agreement</t>
+  </si>
+  <si>
+    <t>阿里云配置</t>
+  </si>
+  <si>
+    <t>短信配置</t>
+  </si>
+  <si>
+    <t>aliyun</t>
+  </si>
+  <si>
+    <t>aliyun_sms</t>
+  </si>
+  <si>
+    <t>对象存储</t>
+  </si>
+  <si>
+    <t>aliyun_oss</t>
+  </si>
+  <si>
+    <t>地图配置</t>
+  </si>
+  <si>
+    <t>map_distribution</t>
+  </si>
+  <si>
     <t>config_label</t>
   </si>
   <si>
@@ -455,6 +539,9 @@
     <t>web_logo</t>
   </si>
   <si>
+    <t>/media/system/logo.png</t>
+  </si>
+  <si>
     <t>系统描述</t>
   </si>
   <si>
@@ -470,6 +557,32 @@
     <t>web_ico</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>media</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/system/favicon.ico</t>
+    </r>
+  </si>
+  <si>
     <t>备案号</t>
   </si>
   <si>
@@ -491,25 +604,2911 @@
     <t>百度统计代码</t>
   </si>
   <si>
-    <t>web_baidu</t>
-  </si>
-  <si>
     <t>（当前无法生效，已停用该配置）不包含&lt;script&gt;标签，只需要复制&lt;script&gt;标签内的内容即可</t>
   </si>
   <si>
     <t>隐私协议</t>
   </si>
   <si>
-    <t>web_privacy</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;更新日期：XXXX年XX月XX日&lt;/p&gt;&lt;p&gt;生效日期：XXXX年XX月XX日&lt;/p&gt;&lt;p&gt;【公司名称】（以下简称“我们”或“XXX”） 非常重视您的隐私和个人信息保护，我们将按业界成熟的安全标准，采取相应的安全保护措施来保护您的个人信息。&lt;/p&gt;&lt;p&gt;本《隐私政策》适用于XXX的产品及服务（包括未设独立隐私政策的的产品/服务）。这些产品/服务包括但不限于XXXX网站、移动应用、客户端、相关微信开放平台帐号或小程序以及供第三方网站和应用程序使用的我们软件开发工具包（SDK）和应用程序编程接口（API）。&lt;/p&gt;&lt;p&gt;您在使用我们的产品或服务时，我们可能会收集和使用您的相关信息。我们希望通过本《隐私政策》向您说明，在使用我们的产品或服务时，我们如何收集、使用、储存、分享和保护这些信息，以及我们为您提供的了解、更新、控制和保护这些信息的方式。 &lt;/p&gt;&lt;p&gt;本隐私政策将帮助您了解以下内容：&lt;/p&gt;&lt;p&gt;一、个人信息定义及范围&lt;/p&gt;&lt;p&gt;二、我们可能如何收集和使用您的个人信息&lt;/p&gt;&lt;p&gt;三、我们可能如何使用 Cookies 和同类技术&lt;/p&gt;&lt;p&gt;四、我们可能如何共享、转让、公开披露您的个人信息&lt;/p&gt;&lt;p&gt;五、我们可能如何保护和保存您的个人信息&lt;/p&gt;&lt;p&gt;六、您的权利&lt;/p&gt;&lt;p&gt;七、我们如何处理儿童的个人信息&lt;/p&gt;&lt;p&gt;八、本隐私政策如何更新&lt;/p&gt;&lt;p&gt;九、如何联系我们&lt;/p&gt;&lt;p&gt;一、个人信息定义及范围&lt;/p&gt;&lt;p&gt; 1、个人信息：指以电子或者其他方式记录的能够单独或者与其他信息结合识别特定自然人身份或者反映特定自然人活动情况的各种信息。本隐私政策中涉及的个人信息包括自然人的基本资料（包括姓名、性别、电话号码）、网络身份标识信息（包括系统账号、IP地址以）、个人财产信息（包括交易和消费记录、虚拟货币、虚拟交易等虚拟财产信息）、个人常用设备信息（包括硬件序列号、硬件型号、设备MAC地址、操作系统类型、软件列表、唯一设备标识符）、个人位置信息（包括大概地理位置信息）。我们实际具体收集的个人信息种类以下文描述为准。&lt;/p&gt;&lt;p&gt;2、个人敏感信息：指一旦泄露、非法提供或滥用可能危害人身和财产安全，极易导致个人名誉、身心健康受到损害或歧视性待遇等的个人信息。本隐私政策中涉及的个人敏感信息包括您的个人身份信息、网络身份标识信息。我们实际具体收集的个人敏感信息种类以下文描述为准。您同意您的个人敏感信息按本政策所述的目的和方式来处理。&lt;/p&gt;&lt;p&gt;二、我们可能如何收集和使用您的个人信息&lt;/p&gt;&lt;p&gt;1.账号注册&lt;/p&gt;&lt;p&gt;创建账号时，您需要提供手机号码（个人敏感信息，用于接受验证码匹配个人身份）。您只有提供真实准确的上述信息，才能成功注册账号并使用产品和/或服务的核心功能。如果您选择不提供上述为实现核心产品功能的必备信息，或将导致我们无法为您提供该核心产品功能。我们的产品支持您使用第三方平台的账号（微信账号）进行登录，如您使用第三方平台的账号登录的，我们将根据您的授权获取该第三方账号下的相关信息（包括：用户名、昵称、头像等）以及身份验证信息（个人敏感信息）。我们承诺，收集上述信息是用于为您提供账号注册、登录服务以及保障您的账号安全，防范安全风险。如您拒绝授权此类信息，则您将无法使用第三方平台的账号登录我们平台，但不影响我们提供的其他产品和服务的正常使用。&lt;/p&gt;&lt;p&gt;同时，您需理解，手机号码的验证码匹配结果属于您的个人敏感信息，我们收集该类信息是基于法律法规的相关要求，如您拒绝提供可能导致您无法注册账号并使用相关产品功能，请您谨慎考虑后再选择是否提供。&lt;/p&gt;&lt;p&gt;2、搜课报班&lt;/p&gt;&lt;p&gt;您在购买我们的产品或服务中准备消费支付时，需要使用到支付功能。在支付过程中，您需要向我们提供一些与完成交易相关联的信息，包括如下：购买的课程或服务信息、收货人信息（收货人姓名、收货地址及其联系电话）（个人敏感信息）。我们收集这些信息是为了帮助您顺利完成交易、保障您的交易安全、查询订单信息、提供客户服务等。您可以选择我们合作的第三方支付机构（如微信支付、支付宝）所提供的支付服务。支付功能本身并不收集您的个人信息，但我们需要将您的订单信息及对账信息与这些支付机构共享以确认您的支付指令并完成支付。&lt;/p&gt;&lt;p&gt;3、上课&lt;/p&gt;&lt;p&gt;为了您可以观看已经购买的课程的直播和回放视频，以及直播过程中参与授课老师的互动教学，例如跟读、语音/视频上麦，我们需要获取您的麦克风、摄像头权限。&lt;/p&gt;&lt;p&gt;4、信息发布&lt;/p&gt;&lt;p&gt;您主动对我们的产品/服务进行评价或发布其他内容（如发表评论信息）时，我们将收集您发布的信息，并展示您的昵称、头像和发布内容。您还可以通过主动上传图片、视频等方式授权我们访问您的相机、照片和麦克风，以便于您通过拍照、拍视频、上传照片或上传视频等方式发布内容。当您需要关闭该功能时，大多数移动设备都会支持您的这项需求，具体方法请参考或联系您移动设备的服务商或生产商。&lt;/p&gt;&lt;p&gt;5、客服售后&lt;/p&gt;&lt;p&gt;当您在使用我们的客服、产品或服务的售后功能时，为了保障您的账号与系统安全，我们可能需要您先行向我们提供账号信息，并与您之前的个人信息相匹配以验证您的用户身份。同时，为了方便与您联系或帮助您解决问题，我们可能还需要您提供姓名、手机号码、电子邮件及其他联系方式等个人信息。另外，我们还会收集您与我们的沟通信息（包括文字/图片/音视频/通话记录形式）、与您的需求相关联的其他必要信息。我们收集这些信息是为了帮助您解决问题，如您拒绝提供上述信息，我们可能无法向您及时反馈投诉、申诉或咨询结果。&lt;/p&gt;&lt;p&gt;6、邮寄&lt;/p&gt;&lt;p&gt;当您使用邮寄（例如邮寄课程随材）服务时，您需要提供收件人的姓名、手机号码、通信地址（个人敏感信息），以便于您的订单能够安全准确送达。&lt;/p&gt;&lt;p&gt;8、个性化营销&lt;/p&gt;&lt;p&gt;在您事先同意的情况下，我们会要求您提供个人信息，包括职业、教育、年龄、性别信息，以便提升我们的产品、服务、宣传 成效。我们可能会利用此类个人信息，来制作有关用户群的整体报告，此类个人信息及整体报告皆为不具名形式，不会包含能识别您的内容。&lt;/p&gt;&lt;p&gt;9、日志信息&lt;/p&gt;&lt;p&gt;当您使用平台的网站或客户端提供的产品或服务时，平台会自动收集您对平台服务的详细使用情况，作为有关网络日志保存（您的搜索查询内容、IP地址、浏览器的类型、电信运营商、使用的语言、访问日期和时间、您访问的网页记录、通话状态信息）。&lt;/p&gt;&lt;p&gt;请注意，单独的设备信息、日志信息等是无法识别特定自然人身份的信息。如果平台将这类非个人信息与其他信息结合用于识别特定自然人身份，或者将其与个人信息结合使用，则在结合使用期间，这类非个人信息将被视为个人信息，除取得您授权或法律法规另有规定外，平台会将该类个人信息做匿名化处理。&lt;/p&gt;&lt;p&gt;10、为向您提供平台相应功能，平台需获取的权限包括如下：&lt;/p&gt;&lt;p&gt;读取及写入存储器权限：当您进入本平台，为了正常使用应用内运行所需资源、图片、视频、文件、资料、讲义下载/图片预览/图片扫描/文件上传/日志缓存/磁盘空间判断，以及使用课程下载、资料上传功能，平台需要获取您的读取及写入存储器权限。如不开启权限，您将不能使用与此权限相关的特定功能，但不影响您使用我们平台提供的其他服务。&lt;/p&gt;&lt;p&gt;位置信息权限：当您使用地区选择课程等功能时，为了基于所在地点位置接受服务推荐，平台需要获取您的位置信息权限。如不开启权限，平台将不能基于您所在地点位置进行服务推荐，但不影响您使用平台提供的其他服务。您也可以在平台手动设置城市信息，以便您查看对应的城市服务推荐内容。&lt;/p&gt;&lt;p&gt;摄像头权限及相册权限：当您使用头像图片设置、拍照搜题、直播视频连麦、题目纠错传图等功能时，为了您进行实时拍摄或图片/视频上传，平台需要获取您的摄像头权限和/或相册权限。如不开启权限，您将无法使用与实时拍摄或图片/视频上传相关的特定功能，但不影响您使用我们平台提供的其他服务。&lt;/p&gt;&lt;p&gt;麦克风权限：当您使用直播连麦、自习室等功能时，为了使用麦克风设备进行语音输入，平台需要获取您的麦克风权限。如不开启权限，您将无法使用与语音输入相关的特定功能，但不影响您使用我们平台提供的其他服务。&lt;/p&gt;&lt;p&gt;我们仅会出于以下目的，收集和使用您的个人信息：&lt;/p&gt;&lt;p&gt;1. 为您提供相关产品或服务所必要的信息；&lt;/p&gt;&lt;p&gt;2. 在提供产品或服务时，用于安全验证、身份认证、安全防范、诈骗检测、存档和备份的必要信息，以确保产品和服务的安全性；&lt;/p&gt;&lt;p&gt;3. 帮助我们设计新产品或服务，改善我们现有产品或服务；&lt;/p&gt;&lt;p&gt;4. 向您提供与您更加相关的广告以替代普遍投放的广告；&lt;/p&gt;&lt;p&gt;5. 评估我们服务中的广告和其他促销及推广活动的效果，并加以改善；&lt;/p&gt;&lt;p&gt;6. 软件认证或管理软件升级；让你参与有关我们产品和服务的调查；&lt;/p&gt;&lt;p&gt;7. 设备权限调用&lt;/p&gt;&lt;p&gt;您在产品使用过程中，可能会需要您的一些设备授权。以下是可能调用的权限及对应的业务功能、目的及调用前向您询问的情况。您可以在设备的设置功能中选择关闭部分或全部权限，但可能会影响到部分功能使用。在不同设备中，权限显示方式及关闭方式可能有所不同，具体请参考设备及系统开发方说明或指引。&lt;/p&gt;&lt;p&gt;为了向您提供更好的服务，我们的产品可能会更新和变化，当我们可能将您的隐私信息用于本隐私政策未载明的其它用途时，我们会事先征求您的明示同意，例如：通过界面提示、邮件等方式向您详细说明信息收集的目的、方式、范围，并征求您的同意。若您不同意提供前述信息，您可能无法使用特定的产品或服务。&lt;/p&gt;&lt;p&gt;三、我们可能如何使用Cookie类数据&lt;/p&gt;&lt;p&gt;为确保网站正常高效运转、为您获得更轻松的访问体验、向您推荐您可能感兴趣的内容，我们可能会在您的设备上存储Cookie类数据。Cookie通常包含标识符、站点名称以及一些号码等字符。借助于此类数据，产品能够存储您的偏好或身份等数据,以便提供更好的持续性的、针对性的功能或服务，我们不会将此类数据用于本政策所述目的之外的任何用途。您可根据自己的偏好管理或删除 Cookie。您可以清除计算机或移动设备上保存的所有 Cookie，您有权接受或拒绝Cookie。大多数浏览器会自动接受Cookie，但您通常可根据自己的需要来修改浏览器的设置以拒绝Cookie;另外，您也可以清除软件内保存的所有Cookie。但您可能因此无法完全体验我们某些便捷性和安全性的服务功能。&lt;/p&gt;&lt;p&gt;四、我们可能如何共享、转让、公开披露您的个人信息&lt;/p&gt;&lt;p&gt;（一）共享&lt;/p&gt;&lt;p&gt;为了更好的给您提供服务，我们以及我们的关联公司，可能将您的个人信息与我们的关联公司、合作伙伴及第三方服务供应商、承包商及代理分享，具体说明如下：&lt;/p&gt;&lt;p&gt;1、在获取明确同意的情况下共享：获得您的明确同意后，我们会与其他方共享您的个人信息。&lt;/p&gt;&lt;p&gt;2、我们可能会根据法律法规规定，或按政府主管部门的强制性要求，对外共享您的个人信息。&lt;/p&gt;&lt;p&gt;3、与授权合作伙伴共享：仅为实现本隐私政策中声明的目的，我们的某些服务将由授权合作伙伴提供。我可能会与合作伙伴共享您的某些个人信息，以提供更好的客户服务和用户体验。例如，我们聘请来提供第三方数据统计和分析服务的公司可能需要采集和访问个人数据以进行数据统计和分析。在这种情况下，这些公司必须遵守我们的数据隐私和安全要求。我们仅会出于合法、正当、必要、特定、明确的目的共享您的个人信息，并且只会共享提供服务所必要的个人信息。&lt;/p&gt;&lt;p&gt;4、对我们与之共享个人信息的公司、组织和个人，我们会与其签署严格的保密协定，要求他们按照我们的说明、本隐私政策以及其他任何相关的保密和安全措施来处理个人信息。&lt;/p&gt;&lt;p&gt;5、如我们或我们的关联公司与任何第三方（详见附录）分享您的个人信息，我们将确保该第三方在使用您的个人信息时遵守本《隐私政策》及我们要求其遵守的其他适当的保密和安全措施。&lt;/p&gt;&lt;p&gt;（二）转让&lt;/p&gt;&lt;p&gt;我们不会将您的个人信息转让给任何公司、组织和个人，但以下情况除外：&lt;/p&gt;&lt;p&gt;1、在获取明确同意的情况下转让：获得您的明确同意后，我们会向其他方转让您的个人信息；&lt;/p&gt;&lt;p&gt;2、在涉及合并、收购或破产清算时，如涉及到个人信息转让，我们会在要求新的持有您个人信息的公司、组织继续受此隐私政策的约束，否则我们将要求该公司、组织重新向您征求授权同意。&lt;/p&gt;&lt;p&gt;（三）公开披露&lt;/p&gt;&lt;p&gt;根据相关法律法规及国家标准，在以下情形中，我们可能会依法收集并使用您的个人信息并且无需征得您的同意:&lt;/p&gt;&lt;p&gt;1、与国家安全、国防安全直接相关的；&lt;/p&gt;&lt;p&gt;2、与公共安全、公共卫生、重大公共利益直接相关的；&lt;/p&gt;&lt;p&gt;3、与犯罪侦查、起诉、审判和判决执行等直接相关的；&lt;/p&gt;&lt;p&gt;4、出于维护您或他人的生命、财产等重大合法权益但又很难得到您本人同意的；&lt;/p&gt;&lt;p&gt;5、所收集的个人信息是您自行向社会公众公开的；&lt;/p&gt;&lt;p&gt;6、从合法公开披露的信息中收集个人信息，例如：合法的新闻报道、政府信息公开等渠道；&lt;/p&gt;&lt;p&gt;7、根据您的要求签订和履行合同所必需的；&lt;/p&gt;&lt;p&gt;8、用于维护所提供的服务的安全稳定运行所必需的，例如：发现、处置产品或服务的故障；&lt;/p&gt;&lt;p&gt;9、为合法的新闻报道所必需的；&lt;/p&gt;&lt;p&gt;10、学术研究机构基于公共利益开展统计或学术研究所必要，且对外提供学术研究或描述的结果时，对结果中所包含的个人信息进行去标识化处理的；&lt;/p&gt;&lt;p&gt;11、法律法规规定的其他情形。&lt;/p&gt;&lt;p&gt;五、我们可能如何保护和保存您的个人信息&lt;/p&gt;&lt;p&gt;（一）我们使用符合业界标准的安全防护措施保护您提供的个人信息，防止数据遭到未经授权访问、公开披露、使用、修改、损坏或丢失。我们会采取合理可行的措施，保护您的个人信息。例如：使用加密技术确保“客户端”与“服务”之间数据交换时的保密性；对数据流转的各个环节所涉及的设备、文件、人员等进行严格控制；举办安全和隐私保护培训课程。&lt;/p&gt;&lt;p&gt;（二）我们会采取合理可行的措施，确保收集的个人信息,只在达成本政策所述目的所需的期限内保留，除非需要延长保留期或受到法律的允许。&lt;/p&gt;&lt;p&gt;（三）互联网内很多通讯工具都并非足够安全，我们强烈建议您不要通过此类工具发送个人的隐私信息和安全信息，使用复杂密码，以保证您的账号安全。&lt;/p&gt;&lt;p&gt;（四）我们将尽力确保您发送给我们的信息的相关安全性。如果我们的物理、技术或管理防护设施遭到破坏，导致信息被非授权访问、公开披露、篡改、或毁坏，导致您的合法权益受损，我们将承担相应的法律责任。&lt;/p&gt;&lt;p&gt;（五）如果不幸的发生了个人信息安全事件，我们将按照法律法规的要求，及时向您告知：安全事件的基本情况和可能的影响、我们已采取或将要采取的处置措施、您可自主防范和降低风险的建议、对您的补救措施等。我们将及时将事件相关情况以邮件、信函、电话、推送通知等方式告知您，难以逐一告知个人信息主体时，我们会采取合理、有效的方式发布公告。同时，我们还将按照监管部门要求，主动上报个人信息安全事件的处置情况。&lt;/p&gt;&lt;p&gt;（六）个人信息的保存：&lt;/p&gt;&lt;p&gt;1、您的个人信息将存储于中华人民共和国境内。&lt;/p&gt;&lt;p&gt;2、在您使用我们的产品服务期间，您的个人信息将在为了实现本政策所述目的之期限内保存，同时将结合法律有强制的留存要求期限的规定确定，如《中华人民共和国电子商务法》要求商品和服务信息、交易信息保存时间自交易完成之日起不少于三年。在超出保存期间后，根据适用法律的要求,我们会可能删除您的个人信息。&lt;/p&gt;&lt;p&gt;3、如果我们终止服务或运营，我们会至少提前三十日向您通知，并在终止服务或运营后对您的个人信息进行删除处理。&lt;/p&gt;&lt;p&gt;六、您的权利&lt;/p&gt;&lt;p&gt;按照中国相关的法律、法规、标准，以及其他国家、地区的通行做法，您有权对自己的个人信息行使以下权利：&lt;/p&gt;&lt;p&gt;（一）访问或修改&lt;/p&gt;&lt;p&gt;您可以通过登录我们产品使用相关功能，访问或控制您个人的隐私信息，例如：个人资料信息修改、密码更改等；其它与您的权益重要相关，或者服务正常运行必须依赖的隐私信息,例如:学习记录、订单记录、交易记录等，如果需要访问、修正、回收，请发送电子邮件至XXXXX，我们将在30天内回复您的请求。&lt;/p&gt;&lt;p&gt;（二）删除&lt;/p&gt;&lt;p&gt;在以下情形中，您可以向我们提出删除个人信息的请求：&lt;/p&gt;&lt;p&gt;1、如果我们处理个人信息的行为违反法律法规；&lt;/p&gt;&lt;p&gt;2、如果我们收集、使用您的个人信息，却未征得您的同意；&lt;/p&gt;&lt;p&gt;3、如果我们处理个人信息的行为违反了与您的约定；&lt;/p&gt;&lt;p&gt;4、如果您不再使用我们的产品或服务，或您注销了账号；&lt;/p&gt;&lt;p&gt;5、如果我们不再为您提供产品或服务。&lt;/p&gt;&lt;p&gt;若我们决定响应您的删除请求，我们还将同时通知从我们获得您的个人信息的实体，要求其及时删除，除非法律法规另有规定，或这些实体获得您的独立授权。&lt;/p&gt;&lt;p&gt;当您的信息被执行删除后，我们将不再使用该数据，但可能会为了适应必要的相关法律政策要求，或为了保障服务正常运行所必须的数据完整性，我们可能无法立即删除，在必要的时段内存储或备份，但在该时间段后及时删除这些数据。&lt;/p&gt;&lt;p&gt;（三）约束信息系统自动决策&lt;/p&gt;&lt;p&gt;在某些业务功能中，我们可能会依据信息系统、算法等在内的非人工自动决策机制做出决定。如果这些决定影响您的合法权益，您有权要求我们做出解释或处理。&lt;/p&gt;&lt;p&gt;（四）上述请求响应&lt;/p&gt;&lt;p&gt;为保障隐私数据的安全，必要情况下，我们可能会先要求您验证自己的身份，然后再处理您的请求。例如：需要您提供书面请求或以其他方式证明您的身份。&lt;/p&gt;&lt;p&gt;一般情况我们不会收取费用，对于某些请求处理可能涉及到不能忽略的成本，我们会出示合理合法的依据，需要您承担相应的费用。对于某些请求，可能不适用法律、或涉及处理成本过高、或给他人合法权益带来风险等，我们可能会拒绝处理或不能及时处理。&lt;/p&gt;&lt;p&gt;按照法律法规要求，我们可能将无法响应以下请求：&lt;/p&gt;&lt;p&gt;1、与国家安全、国防安全有关的；&lt;/p&gt;&lt;p&gt;2、与公共安全、公共卫生、重大公共利益有关的；&lt;/p&gt;&lt;p&gt;3、与犯罪侦查、起诉和审判等有关的；&lt;/p&gt;&lt;p&gt;4、有充分证据表明您存在主观恶意或滥用权利的；&lt;/p&gt;&lt;p&gt;5、响应您的请求将导致您或其他个人、组织的合法权益受到严重损害的。&lt;/p&gt;&lt;p&gt;七、本隐私政策如何更新&lt;/p&gt;&lt;p&gt;本隐私政策可能变更。&lt;/p&gt;&lt;p&gt;我们通常会在我们官网发布通告或声明的形式发布对本政策所做的任何变更。如果您不同意相关变更，应立即停止使用相关服务；否则，自该隐私政策生效日期起，若您继续登录、查看或以其他形式使用我们的产品或服务，即表示您同意接受修订后的隐私政策约束，对于争执，原则上我们会保留您的合法权益。&lt;/p&gt;&lt;p&gt;八、如何联系我们&lt;/p&gt;&lt;p&gt;如果您对本隐私政策有任何疑问、意见或建议，可以随时通过拨打客服电话、登录产品等各种方式与我们联系，我们会积极进行查证、处理并尽快答复。&lt;/p&gt;&lt;p&gt;个人信息保护负责人邮箱XXXXXX&lt;/p&gt;&lt;p&gt;本隐私政策版本更新日期为XXXX年XX月XX日，将于XXXX年XX月XX日正式生效。&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>用户协议</t>
-  </si>
-  <si>
-    <t>web_agreement</t>
+    <r>
+      <t>&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XXXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生效日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XXXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【公司名称】（以下简称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“XXX”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非常重视您的隐私和个人信息保护，我们将按业界成熟的安全标准，采取相应的安全保护措施来保护您的个人信息。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本《隐私政策》适用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的产品及服务（包括未设独立隐私政策的的产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务）。这些产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务包括但不限于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XXXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站、移动应用、客户端、相关微信开放平台帐号或小程序以及供第三方网站和应用程序使用的我们软件开发工具包（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SDK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）和应用程序编程接口（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您在使用我们的产品或服务时，我们可能会收集和使用您的相关信息。我们希望通过本《隐私政策》向您说明，在使用我们的产品或服务时，我们如何收集、使用、储存、分享和保护这些信息，以及我们为您提供的了解、更新、控制和保护这些信息的方式。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本隐私政策将帮助您了解以下内容：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一、个人信息定义及范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二、我们可能如何收集和使用您的个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三、我们可能如何使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Cookies </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和同类技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四、我们可能如何共享、转让、公开披露您的个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>五、我们可能如何保护和保存您的个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>六、您的权利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>七、我们如何处理儿童的个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>八、本隐私政策如何更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>九、如何联系我们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一、个人信息定义及范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt; 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、个人信息：指以电子或者其他方式记录的能够单独或者与其他信息结合识别特定自然人身份或者反映特定自然人活动情况的各种信息。本隐私政策中涉及的个人信息包括自然人的基本资料（包括姓名、性别、电话号码）、网络身份标识信息（包括系统账号、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址以）、个人财产信息（包括交易和消费记录、虚拟货币、虚拟交易等虚拟财产信息）、个人常用设备信息（包括硬件序列号、硬件型号、设备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址、操作系统类型、软件列表、唯一设备标识符）、个人位置信息（包括大概地理位置信息）。我们实际具体收集的个人信息种类以下文描述为准。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、个人敏感信息：指一旦泄露、非法提供或滥用可能危害人身和财产安全，极易导致个人名誉、身心健康受到损害或歧视性待遇等的个人信息。本隐私政策中涉及的个人敏感信息包括您的个人身份信息、网络身份标识信息。我们实际具体收集的个人敏感信息种类以下文描述为准。您同意您的个人敏感信息按本政策所述的目的和方式来处理。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二、我们可能如何收集和使用您的个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建账号时，您需要提供手机号码（个人敏感信息，用于接受验证码匹配个人身份）。您只有提供真实准确的上述信息，才能成功注册账号并使用产品和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或服务的核心功能。如果您选择不提供上述为实现核心产品功能的必备信息，或将导致我们无法为您提供该核心产品功能。我们的产品支持您使用第三方平台的账号（微信账号）进行登录，如您使用第三方平台的账号登录的，我们将根据您的授权获取该第三方账号下的相关信息（包括：用户名、昵称、头像等）以及身份验证信息（个人敏感信息）。我们承诺，收集上述信息是用于为您提供账号注册、登录服务以及保障您的账号安全，防范安全风险。如您拒绝授权此类信息，则您将无法使用第三方平台的账号登录我们平台，但不影响我们提供的其他产品和服务的正常使用。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同时，您需理解，手机号码的验证码匹配结果属于您的个人敏感信息，我们收集该类信息是基于法律法规的相关要求，如您拒绝提供可能导致您无法注册账号并使用相关产品功能，请您谨慎考虑后再选择是否提供。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、搜课报班</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您在购买我们的产品或服务中准备消费支付时，需要使用到支付功能。在支付过程中，您需要向我们提供一些与完成交易相关联的信息，包括如下：购买的课程或服务信息、收货人信息（收货人姓名、收货地址及其联系电话）（个人敏感信息）。我们收集这些信息是为了帮助您顺利完成交易、保障您的交易安全、查询订单信息、提供客户服务等。您可以选择我们合作的第三方支付机构（如微信支付、支付宝）所提供的支付服务。支付功能本身并不收集您的个人信息，但我们需要将您的订单信息及对账信息与这些支付机构共享以确认您的支付指令并完成支付。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、上课</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为了您可以观看已经购买的课程的直播和回放视频，以及直播过程中参与授课老师的互动教学，例如跟读、语音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频上麦，我们需要获取您的麦克风、摄像头权限。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、信息发布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您主动对我们的产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务进行评价或发布其他内容（如发表评论信息）时，我们将收集您发布的信息，并展示您的昵称、头像和发布内容。您还可以通过主动上传图片、视频等方式授权我们访问您的相机、照片和麦克风，以便于您通过拍照、拍视频、上传照片或上传视频等方式发布内容。当您需要关闭该功能时，大多数移动设备都会支持您的这项需求，具体方法请参考或联系您移动设备的服务商或生产商。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、客服售后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当您在使用我们的客服、产品或服务的售后功能时，为了保障您的账号与系统安全，我们可能需要您先行向我们提供账号信息，并与您之前的个人信息相匹配以验证您的用户身份。同时，为了方便与您联系或帮助您解决问题，我们可能还需要您提供姓名、手机号码、电子邮件及其他联系方式等个人信息。另外，我们还会收集您与我们的沟通信息（包括文字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>音视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通话记录形式）、与您的需求相关联的其他必要信息。我们收集这些信息是为了帮助您解决问题，如您拒绝提供上述信息，我们可能无法向您及时反馈投诉、申诉或咨询结果。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、邮寄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当您使用邮寄（例如邮寄课程随材）服务时，您需要提供收件人的姓名、手机号码、通信地址（个人敏感信息），以便于您的订单能够安全准确送达。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、个性化营销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在您事先同意的情况下，我们会要求您提供个人信息，包括职业、教育、年龄、性别信息，以便提升我们的产品、服务、宣传</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成效。我们可能会利用此类个人信息，来制作有关用户群的整体报告，此类个人信息及整体报告皆为不具名形式，不会包含能识别您的内容。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、日志信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当您使用平台的网站或客户端提供的产品或服务时，平台会自动收集您对平台服务的详细使用情况，作为有关网络日志保存（您的搜索查询内容、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址、浏览器的类型、电信运营商、使用的语言、访问日期和时间、您访问的网页记录、通话状态信息）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请注意，单独的设备信息、日志信息等是无法识别特定自然人身份的信息。如果平台将这类非个人信息与其他信息结合用于识别特定自然人身份，或者将其与个人信息结合使用，则在结合使用期间，这类非个人信息将被视为个人信息，除取得您授权或法律法规另有规定外，平台会将该类个人信息做匿名化处理。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、为向您提供平台相应功能，平台需获取的权限包括如下：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读取及写入存储器权限：当您进入本平台，为了正常使用应用内运行所需资源、图片、视频、文件、资料、讲义下载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图片预览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图片扫描</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件上传</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日志缓存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>磁盘空间判断，以及使用课程下载、资料上传功能，平台需要获取您的读取及写入存储器权限。如不开启权限，您将不能使用与此权限相关的特定功能，但不影响您使用我们平台提供的其他服务。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位置信息权限：当您使用地区选择课程等功能时，为了基于所在地点位置接受服务推荐，平台需要获取您的位置信息权限。如不开启权限，平台将不能基于您所在地点位置进行服务推荐，但不影响您使用平台提供的其他服务。您也可以在平台手动设置城市信息，以便您查看对应的城市服务推荐内容。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摄像头权限及相册权限：当您使用头像图片设置、拍照搜题、直播视频连麦、题目纠错传图等功能时，为了您进行实时拍摄或图片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频上传，平台需要获取您的摄像头权限和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或相册权限。如不开启权限，您将无法使用与实时拍摄或图片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频上传相关的特定功能，但不影响您使用我们平台提供的其他服务。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>麦克风权限：当您使用直播连麦、自习室等功能时，为了使用麦克风设备进行语音输入，平台需要获取您的麦克风权限。如不开启权限，您将无法使用与语音输入相关的特定功能，但不影响您使用我们平台提供的其他服务。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们仅会出于以下目的，收集和使用您的个人信息：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;&lt;p&gt;1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为您提供相关产品或服务所必要的信息；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;&lt;p&gt;2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在提供产品或服务时，用于安全验证、身份认证、安全防范、诈骗检测、存档和备份的必要信息，以确保产品和服务的安全性；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;&lt;p&gt;3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>帮助我们设计新产品或服务，改善我们现有产品或服务；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;&lt;p&gt;4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向您提供与您更加相关的广告以替代普遍投放的广告；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;&lt;p&gt;5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评估我们服务中的广告和其他促销及推广活动的效果，并加以改善；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;&lt;p&gt;6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件认证或管理软件升级；让你参与有关我们产品和服务的调查；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;&lt;p&gt;7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备权限调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您在产品使用过程中，可能会需要您的一些设备授权。以下是可能调用的权限及对应的业务功能、目的及调用前向您询问的情况。您可以在设备的设置功能中选择关闭部分或全部权限，但可能会影响到部分功能使用。在不同设备中，权限显示方式及关闭方式可能有所不同，具体请参考设备及系统开发方说明或指引。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为了向您提供更好的服务，我们的产品可能会更新和变化，当我们可能将您的隐私信息用于本隐私政策未载明的其它用途时，我们会事先征求您的明示同意，例如：通过界面提示、邮件等方式向您详细说明信息收集的目的、方式、范围，并征求您的同意。若您不同意提供前述信息，您可能无法使用特定的产品或服务。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三、我们可能如何使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为确保网站正常高效运转、为您获得更轻松的访问体验、向您推荐您可能感兴趣的内容，我们可能会在您的设备上存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类数据。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通常包含标识符、站点名称以及一些号码等字符。借助于此类数据，产品能够存储您的偏好或身份等数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以便提供更好的持续性的、针对性的功能或服务，我们不会将此类数据用于本政策所述目的之外的任何用途。您可根据自己的偏好管理或删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。您可以清除计算机或移动设备上保存的所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，您有权接受或拒绝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。大多数浏览器会自动接受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，但您通常可根据自己的需要来修改浏览器的设置以拒绝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cookie;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>另外，您也可以清除软件内保存的所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。但您可能因此无法完全体验我们某些便捷性和安全性的服务功能。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四、我们可能如何共享、转让、公开披露您的个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（一）共享</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为了更好的给您提供服务，我们以及我们的关联公司，可能将您的个人信息与我们的关联公司、合作伙伴及第三方服务供应商、承包商及代理分享，具体说明如下：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、在获取明确同意的情况下共享：获得您的明确同意后，我们会与其他方共享您的个人信息。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、我们可能会根据法律法规规定，或按政府主管部门的强制性要求，对外共享您的个人信息。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、与授权合作伙伴共享：仅为实现本隐私政策中声明的目的，我们的某些服务将由授权合作伙伴提供。我可能会与合作伙伴共享您的某些个人信息，以提供更好的客户服务和用户体验。例如，我们聘请来提供第三方数据统计和分析服务的公司可能需要采集和访问个人数据以进行数据统计和分析。在这种情况下，这些公司必须遵守我们的数据隐私和安全要求。我们仅会出于合法、正当、必要、特定、明确的目的共享您的个人信息，并且只会共享提供服务所必要的个人信息。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、对我们与之共享个人信息的公司、组织和个人，我们会与其签署严格的保密协定，要求他们按照我们的说明、本隐私政策以及其他任何相关的保密和安全措施来处理个人信息。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、如我们或我们的关联公司与任何第三方（详见附录）分享您的个人信息，我们将确保该第三方在使用您的个人信息时遵守本《隐私政策》及我们要求其遵守的其他适当的保密和安全措施。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（二）转让</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们不会将您的个人信息转让给任何公司、组织和个人，但以下情况除外：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、在获取明确同意的情况下转让：获得您的明确同意后，我们会向其他方转让您的个人信息；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、在涉及合并、收购或破产清算时，如涉及到个人信息转让，我们会在要求新的持有您个人信息的公司、组织继续受此隐私政策的约束，否则我们将要求该公司、组织重新向您征求授权同意。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（三）公开披露</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据相关法律法规及国家标准，在以下情形中，我们可能会依法收集并使用您的个人信息并且无需征得您的同意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:&lt;/p&gt;&lt;p&gt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、与国家安全、国防安全直接相关的；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、与公共安全、公共卫生、重大公共利益直接相关的；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、与犯罪侦查、起诉、审判和判决执行等直接相关的；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、出于维护您或他人的生命、财产等重大合法权益但又很难得到您本人同意的；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、所收集的个人信息是您自行向社会公众公开的；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、从合法公开披露的信息中收集个人信息，例如：合法的新闻报道、政府信息公开等渠道；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、根据您的要求签订和履行合同所必需的；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、用于维护所提供的服务的安全稳定运行所必需的，例如：发现、处置产品或服务的故障；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、为合法的新闻报道所必需的；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、学术研究机构基于公共利益开展统计或学术研究所必要，且对外提供学术研究或描述的结果时，对结果中所包含的个人信息进行去标识化处理的；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、法律法规规定的其他情形。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>五、我们可能如何保护和保存您的个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（一）我们使用符合业界标准的安全防护措施保护您提供的个人信息，防止数据遭到未经授权访问、公开披露、使用、修改、损坏或丢失。我们会采取合理可行的措施，保护您的个人信息。例如：使用加密技术确保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之间数据交换时的保密性；对数据流转的各个环节所涉及的设备、文件、人员等进行严格控制；举办安全和隐私保护培训课程。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（二）我们会采取合理可行的措施，确保收集的个人信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只在达成本政策所述目的所需的期限内保留，除非需要延长保留期或受到法律的允许。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（三）互联网内很多通讯工具都并非足够安全，我们强烈建议您不要通过此类工具发送个人的隐私信息和安全信息，使用复杂密码，以保证您的账号安全。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（四）我们将尽力确保您发送给我们的信息的相关安全性。如果我们的物理、技术或管理防护设施遭到破坏，导致信息被非授权访问、公开披露、篡改、或毁坏，导致您的合法权益受损，我们将承担相应的法律责任。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（五）如果不幸的发生了个人信息安全事件，我们将按照法律法规的要求，及时向您告知：安全事件的基本情况和可能的影响、我们已采取或将要采取的处置措施、您可自主防范和降低风险的建议、对您的补救措施等。我们将及时将事件相关情况以邮件、信函、电话、推送通知等方式告知您，难以逐一告知个人信息主体时，我们会采取合理、有效的方式发布公告。同时，我们还将按照监管部门要求，主动上报个人信息安全事件的处置情况。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（六）个人信息的保存：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、您的个人信息将存储于中华人民共和国境内。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、在您使用我们的产品服务期间，您的个人信息将在为了实现本政策所述目的之期限内保存，同时将结合法律有强制的留存要求期限的规定确定，如《中华人民共和国电子商务法》要求商品和服务信息、交易信息保存时间自交易完成之日起不少于三年。在超出保存期间后，根据适用法律的要求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们会可能删除您的个人信息。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、如果我们终止服务或运营，我们会至少提前三十日向您通知，并在终止服务或运营后对您的个人信息进行删除处理。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>六、您的权利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按照中国相关的法律、法规、标准，以及其他国家、地区的通行做法，您有权对自己的个人信息行使以下权利：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（一）访问或修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您可以通过登录我们产品使用相关功能，访问或控制您个人的隐私信息，例如：个人资料信息修改、密码更改等；其它与您的权益重要相关，或者服务正常运行必须依赖的隐私信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习记录、订单记录、交易记录等，如果需要访问、修正、回收，请发送电子邮件至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XXXXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，我们将在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天内回复您的请求。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（二）删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在以下情形中，您可以向我们提出删除个人信息的请求：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、如果我们处理个人信息的行为违反法律法规；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、如果我们收集、使用您的个人信息，却未征得您的同意；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、如果我们处理个人信息的行为违反了与您的约定；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、如果您不再使用我们的产品或服务，或您注销了账号；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、如果我们不再为您提供产品或服务。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若我们决定响应您的删除请求，我们还将同时通知从我们获得您的个人信息的实体，要求其及时删除，除非法律法规另有规定，或这些实体获得您的独立授权。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当您的信息被执行删除后，我们将不再使用该数据，但可能会为了适应必要的相关法律政策要求，或为了保障服务正常运行所必须的数据完整性，我们可能无法立即删除，在必要的时段内存储或备份，但在该时间段后及时删除这些数据。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（三）约束信息系统自动决策</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在某些业务功能中，我们可能会依据信息系统、算法等在内的非人工自动决策机制做出决定。如果这些决定影响您的合法权益，您有权要求我们做出解释或处理。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（四）上述请求响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为保障隐私数据的安全，必要情况下，我们可能会先要求您验证自己的身份，然后再处理您的请求。例如：需要您提供书面请求或以其他方式证明您的身份。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一般情况我们不会收取费用，对于某些请求处理可能涉及到不能忽略的成本，我们会出示合理合法的依据，需要您承担相应的费用。对于某些请求，可能不适用法律、或涉及处理成本过高、或给他人合法权益带来风险等，我们可能会拒绝处理或不能及时处理。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按照法律法规要求，我们可能将无法响应以下请求：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、与国家安全、国防安全有关的；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、与公共安全、公共卫生、重大公共利益有关的；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、与犯罪侦查、起诉和审判等有关的；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、有充分证据表明您存在主观恶意或滥用权利的；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、响应您的请求将导致您或其他个人、组织的合法权益受到严重损害的。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>七、本隐私政策如何更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本隐私政策可能变更。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们通常会在我们官网发布通告或声明的形式发布对本政策所做的任何变更。如果您不同意相关变更，应立即停止使用相关服务；否则，自该隐私政策生效日期起，若您继续登录、查看或以其他形式使用我们的产品或服务，即表示您同意接受修订后的隐私政策约束，对于争执，原则上我们会保留您的合法权益。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>八、如何联系我们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果您对本隐私政策有任何疑问、意见或建议，可以随时通过拨打客服电话、登录产品等各种方式与我们联系，我们会积极进行查证、处理并尽快答复。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个人信息保护负责人邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XXXXXX&lt;/p&gt;&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本隐私政策版本更新日期为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XXXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日，将于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XXXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日正式生效。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
   </si>
   <si>
     <t>&lt;p&gt;《用户注册协议》（以下简称“本协议”）是由您与XXXXXXX（以下简称“XXX”）以数据电文形式共同缔结的协议，请您务必审慎阅读、充分理解各条款内容，限制、免责条款可能以黑体加粗形式提示您注意。当您在线点击/勾选“同意”或“接受”键后，视为您已详细阅读并同意遵守本协议，本协议生效，则XXX根据本协议为您提供网上服务。因此，除非您已阅读并接受本协议所有条款，否则您无权使用XXX网上服务。&lt;/p&gt;&lt;p&gt;若您未满18周岁，请在法定监护人的陪同下阅读本协议，并特别注意未成年人使用条款。&lt;/p&gt;&lt;p&gt;XXX有权在必要时更新协议内容并以通知、公告、声明或其它形式通知您。若您不同意修改内容，应立即停止使用相关服务；否则，您的任何对相关服务的登录、查看、使用等行为将被视为您对修改内容的理解和接受。&lt;/p&gt;&lt;p&gt;1.定义&lt;/p&gt;&lt;p&gt;如无特别说明，下列术语在本协议中的含义为：&lt;/p&gt;&lt;p&gt;1.1.您：指注册成功并使用XXX网上服务的完全民事行为能力人，又称“学员”或“用户”。&lt;/p&gt;&lt;p&gt;1.2.XXX：是“XXXX公司名称”在本协议中的简称。&lt;/p&gt;&lt;p&gt;1.3.网上服务：指由XXX运营的、通过计算机客户端、网页端、移动端等端口向您提供的各项网上服务的统称，服务内容包括但不限于考试资讯，资料中心，模考系统，公开课，付费课。&lt;/p&gt;&lt;p&gt;1.4.XXX网络平台：是指XXX借以向您提供各项网上服务的综合服务系统。&lt;/p&gt;&lt;p&gt;1.5.XXX组成元素：指XXX各端口页面所包含的及与XXX相关的软件、文字、图片、音频、视频、图标、标识、界面设计、版面框架、编排方式、有关数据或电子文档等内容和信息。&lt;/p&gt;&lt;p&gt;1.6.本协议：指《用户注册协议》正文及其修订版本。上述内容一经正式发布，即为本协议不可分割的组成部分。&lt;/p&gt;&lt;p&gt;2.注册账号&lt;/p&gt;&lt;p&gt;2.1.您将在完成注册程序后获得XXX网上服务的账号。您享有该账号的使用权。XXX享有该账号的所有权。XXX有权对账号的权限设计进行调整。&lt;/p&gt;&lt;p&gt;2.2.XXX有理由认为该账号下的所有行为都是您的真实意思表示。您享有该账号下行为产生的所有权利，同时应承担该账号下所有行为及事件产生的义务及责任。若您账号下的行为对您、XXX或第三方造成的损害，您将负全部责任。&lt;/p&gt;&lt;p&gt;若该账号通过XXX网上服务展示任何违法、不道德或XXX认为不合适的资料；或者XXX有理由怀疑该资料属于程序或恶意操作，XXX有权暂停或终止您的帐号，并拒绝您于现在和未来使用本服务之全部或任何部分。&lt;/p&gt;&lt;p&gt;2.3.账号的取得&lt;/p&gt;&lt;p&gt;2.3.1.您应当按照XXX网络平台注册页面的要求完成注册程序，并保证填写的个人信息与您的身份信息一致，否则XXX有权拒绝向您提供相关服务或承担任何义务。&lt;/p&gt;&lt;p&gt;2.3.2.除非您在个人信息中填写真实身份信息，否则您无权购买XXX提供的网上付费服务（例如购买课程、题库等）。&lt;/p&gt;&lt;p&gt;2.3.3.XXX有权核实您注册账号时所提供的身份信息是否真实、有效。若您违反注册要求，未使用您本人的真实身份信息进行注册，XXX有权随时关闭您的账号。&lt;/p&gt;&lt;p&gt;2.3.4.XXX有权采取技术与管理等合理措施保障您账号的安全、有效。&lt;/p&gt;&lt;p&gt;2.4.授权协助注册&lt;/p&gt;&lt;p&gt;若您在注册过程中主动向XXX或其工作人员寻求支持和帮助，则您提出要求及指示的行为即视为您对XXX协助您注册账号的委托授权，因此产生的后果及责任由您承担。&lt;/p&gt;&lt;p&gt;2.5.注册信息的修改&lt;/p&gt;&lt;p&gt;若您在注册成功并获得XXX网络平台的账号后，需要修改注册信息，请按照XXX出于安全考虑设置的相关修改程序操作。若XXX有合理理由怀疑您提交的相关资料或信息属于恶意程序或恶意操作，则XXX有权关闭您的账号，并有权拒绝您于现在和将来使用XXX所提供服务之全部或任何部分。&lt;/p&gt;&lt;p&gt;2.6.账号的使用和保管&lt;/p&gt;&lt;p&gt;2.6.1.您有义务妥善保管并安全使用您的账号及密码并承担相关责任。若您未保管好自己的帐号和密码，因此而产生的任何损失或损害，XXX无法也不承担任何责任。&lt;/p&gt;&lt;p&gt;2.6.2.若您发现您的账号使用出现异常（被他人盗用等任何安全问题），应立即通知XXX并提供您的个人有效身份信息以供核实账户身份。经核实身份一致的，XXX应当及时采取措施暂停该账号的登录和使用；身份不一致或者您拒绝提供个人有效身份证明的，XXX有权拒绝您提出的关于该账号的管理请求。&lt;/p&gt;&lt;p&gt;2.6.3.您在XXX注册的账号，仅限您个人使用，不得将账号与第三人共享或将账号转让、赠与他人等。否则，XXX有权关闭您的账号。&lt;/p&gt;&lt;p&gt;2.7.若XXX发现您的帐号存在异常状况(包括但不限于异地登陆、IP地址异常变动、发送注册信息变更请求等)，XXX则有权依据其合理判断采取相应措施(包括但不限于要求用户进行手机实名认证、进行面部识别等)以保护帐号安全。&lt;/p&gt;&lt;p&gt;3.服务内容&lt;/p&gt;&lt;p&gt;3.1.基于自身的经营自主权，XXX有权自主决定通过互联网提供的服务（产品）类型及内容。&lt;/p&gt;&lt;p&gt;XXX网上服务目前包含以下内容：&lt;/p&gt;&lt;p&gt;3.1.1.基础服务：即XXX网络平台上提供的非付费的网上服务，包括：免费考试相关网上咨询；免费发布考试资讯，免费提供部分考试资料，免费提供部分考试的在线模考系统，免费提供部分直播视频公开课，免费提供部分视频公开课等非付费网上服务。&lt;/p&gt;&lt;p&gt;3.1.2.增值服务：即付费服务，是XXX为有需要的用户提供的、用户可以依据相关产品协议在网络平台上购买并享受的服务（产品）。例如，XXX网络平台的网上付费课程。&lt;/p&gt;&lt;p&gt;3.1.3.其他服务：XXX通过网络平台为您提供的其他服务。&lt;/p&gt;&lt;p&gt;3.2.XXX网上服务的具体内容以XXX在您使用时实际提供给您的情况和版本为准。&lt;/p&gt;&lt;p&gt;3.3.XXX在此许可您依本协议而获得XXX网上服务之基础服务的使用权。&lt;/p&gt;&lt;p&gt;3.4.除非另有其它明示规定，XXX网络平台内所增加或强化的任何新功能，包括所推出的新产品，均受到本使用协议之规范。&lt;/p&gt;&lt;p&gt;3.5.XXX提供的资讯信息类服务，例如与培训课程有关的报名、考试信息等资讯服务，其内容均应以有权主管部门公布的信息为准。XXX及其代表不提供对报名、考试信息的任何形式的承诺或保证，也不存在任何形式的保过、密题、内幕信息或类似承诺。用户应独立收集信息并进行判断，并承担相关后果。如因与相关培训课程有关的报名、考试信息发生变动而造成用户学习成本上升、丧失考试资格等损失，XXX及格XXX网络平台不负有任何责任。&lt;/p&gt;&lt;p&gt;3.6.XXX有随时调整各项服务费用收取标准的权利，但已完成支付的订单不受影响；您有权自主决定是否购买XXX提供的网上增值服务（产品）。&lt;/p&gt;&lt;p&gt;3.7.针对增值服务(付费类课程产品和服务)的特别约定&lt;/p&gt;&lt;p&gt;用户可根据自身实际需求选择免费服务（产品）或有偿、付费服务（产品）。针对有偿课程服务（产品），用户请注意下述特别事项：&lt;/p&gt;&lt;p&gt;3.7.1.您可通过XXX的计算机客户端、网页端、移动端等端口购买XXX提供的有偿服务（产品）。根据您所订购产品的具体信息(以订购当时XXX官网公示为准)，包括但不限于课程内容、课程安排、价格、退款政策等，在您支付完成后，将由XXX系统后台生成1份电子订单，该电子订单系本协议之有效组成部分，是确定用户与XXX各自权利义务的有效依据。支付完成后您即可根据所购买课程享受XXX提供的各项服务。XXX针对部分课程，可能会需要向您邮寄提供教材、讲义等课程资料，因此请您在提交订单前务必仔细核对收货人、收货地址及联系电话等信息。收货人与用户本人不一致的，收货人的行为和意思表示即视为用户的行为和意思表示，用户应对收货人的行为及意思表示的法律后果承担连带责任。&lt;/p&gt;&lt;p&gt;3.7.2.XXX的任何一个帐号都只能由同一个用户使用，禁止多个用户使用同一个帐号。若XXX有合理理由认为您的账号可能存在用户帐号被盗取、被盗用情形的，则XXX有权将此帐号暂时或永久作无效处理并保留追究法律责任的权利。若您将帐号借给他人使用，您应承担由此产生的全部责任，并与实际使用人承担连带责任。&lt;/p&gt;&lt;p&gt;3.7.3.您应在享受课程服务过程中自觉维护课堂秩序，不得作出、参与任何影响课堂正常秩序的行为。否则，XXX保留追究您责任的权利。情节严重者，XXX有权关闭其账号且不承担任何责任。&lt;/p&gt;&lt;p&gt;4.双方权利义务&lt;/p&gt;&lt;p&gt;4.1.XXX仅负责通过网络平台向您提供网上服务，除此之外与相关网络服务有关的设备(如个人电脑、手机、及其他与接入互联网或移动网有关的装置)及所需的费用(如为接入互联网而支付的电话费及上网费、为使用移动网而支付的手机费)均应由您自行负担。&lt;/p&gt;&lt;p&gt;4.2.您在XXX网络平台享有的部分网上服务（包括但不限于付费课程）可能受到有效期的限制，一旦有效期届满，该服务将会自动失效。请您在付费前仔细阅读相关条款。&lt;/p&gt;&lt;p&gt;4.3.您可以选择购买XXX提供的增值（付费）服务。您应当在付费前仔细阅读并同意关于该付费服务的相关条款，包括但不限于按照XXX的要求进行实名认证并同意将所填写的信息交由第三方机构进行校验。您应保证您所提供的资料和信息是真实、完整、有效的。&lt;/p&gt;&lt;p&gt;4.4.若您选择通过第三方支付平台等方式进行费用支付，在支付过程中因您自身原因或第三方支付平台原因造成的异常使您的帐号无法正常使用或遭受损失的，XXX对此概不负责。&lt;/p&gt;&lt;p&gt;4.5.XXX对于其通过网络平台所提供的网上服务的种类及内容拥有自主权。XXX有权随时更改经营模式、管理应用程序及内部功能。&lt;/p&gt;&lt;p&gt;4.5.1.由于考试大纲变化、师资变动等原因，XXX有权调整培训内容、授课老师。&lt;/p&gt;&lt;p&gt;4.5.2.XXX有权根据实际情况的变化调整课程设置，也有权调整服务提供流程 (包括但不限于退课、换课、赠课流程等)。&lt;/p&gt;&lt;p&gt;4.6.XXX可能会通过应用官方网站、客服电话、管理员、或者其他的途径，向您提供诸如课程说明、课程锁定或解除锁定、帐号申诉等客户服务，以上服务的提供应建立在以下前提条件之上：&lt;/p&gt;&lt;p&gt;(1)您应通过XXX客服官方网站或者提供的其他途径了解这些客户服务的内容、要求以及资费，谨慎选择是否需要享受相应的客户服务，向XXX真实地准确地表达您的需求；&lt;/p&gt;&lt;p&gt;(2)您应同意并接受XXX关于该等客户服务的专门协议或条款。&lt;/p&gt;&lt;p&gt;4.7.为高效利用服务器资源，若您长期未使用账号登录XXX网站，XXX有权视需要，在提前通知的情况下，对该账号及其账号下的数据及相关信息采取删除等处置措施，上述处置可能导致您对该账号下相关权益的丧失，对此XXX不承担任何责任。&lt;/p&gt;&lt;p&gt;4.8.您充分理解并同意接受XXX通过短信或其他方式向您发送XXX的相关商业信息。如您希望停止接收相关信息，可通过XXX官方网站公布的联系方式与XXX联系，XXX将在核实您的身份后取消推送。&lt;/p&gt;&lt;p&gt;5.用户行为规范&lt;/p&gt;&lt;p&gt;5.1.您除了可以按照本协议的约定使用XXX网上服务之外，不得进行任何侵犯XXX及组成元素相关的知识产权的行为，也不得进行任何其他有损于XXX或其他第三方合法权益的行为。&lt;/p&gt;&lt;p&gt;5.2.您仅可为非商业目的使用XXX网上服务，包括但不限于接收、下载、安装、启动、升级、登录、显示、运行和/或截屏XXX网站服务。&lt;/p&gt;&lt;p&gt;5.3.您不得以任何形式公开XXX提供的网上课程（包括但不限于向任何第三方透露学习课程、与他人共享账号、将自己的账号提供给第三方使用、将学习课程公开播放或以任何方式供多人同时使用）。上述情况一经发现，XXX有权立即关闭相应账号的学习权限，同时XXX会进一步追究您违规使用账号引起的法律责任。&lt;/p&gt;&lt;p&gt;5.4.在使用XXX网上服务的过程中，您必须遵守相关服务的具体使用规则，同时遵守以下基本行为规范，否则，XXX有权立即关闭相应账号的学习权限，并进一步追究您行为的法律责任。&lt;/p&gt;&lt;p&gt;(1)不得为任何非法目的而使用网络服务系统；&lt;/p&gt;&lt;p&gt;(2)遵守所有与网络服务有关的网络协议、规定和程序；&lt;/p&gt;&lt;p&gt;(3)不得利用XXX网络平台进行任何可能对互联网的正常运转造成不利影响的行为；&lt;/p&gt;&lt;p&gt;(4)不得利用XXX网络平台进行任何对该平台不利的行为。&lt;/p&gt;&lt;p&gt;5.5.您应当保证对您所发表或者上传于XXX网络平台的所有信息(即属于《中华人民共和国著作权法》规定的作品，包括但不限于文字、图片、音乐、电影、表演和录音录像制品和电脑程序等)均享有完整的知识产权，或者已经得到相关权利人的合法授权；若您违反本条规定造成本公司被第三人索赔的，您应全额补偿本公司一切费用(包括但不限于各种赔偿费、诉讼代理费及为此支出的其它合理费用)；当第三方认为您发表或者上传于XXX网络平台的信息侵犯其权利，并根据《信息网络传播权保护条例》或者相关法律规定向本公司发送权利通知书时，您同意本公司可以自行判断决定删除涉嫌侵权信息，除非您提交书面证据材料排除侵权的可能性，本公司将不会自动恢复上述删除的信息。&lt;/p&gt;&lt;p&gt;5.6.若因您违反本协议或相关服务条款的规定，导致或产生第三方主张的任何索赔、要求或损失，您应当独立承担责任；XXX因此遭受损失的，您也应当一并赔偿。&lt;/p&gt;&lt;p&gt;5.7.您必须严格遵守中华人民共和国相关法律法规，包括但不限于《中华人民共和国计算机信息系统安全保护条例》、《计算机软件保护条例》、《最高人民法院关于审理涉及计算机网络著作权纠纷案件适用法律若干问题的解释(法释[2004]1号)》、《全国人大常委会关于维护互联网安全的决定》、《互联网电子公告服务管理规定》、《互联网新闻信息服务管理规定》、《互联网著作权行政保护办法》和《信息网络传播权保护条例》等有关计算机互联网规定和知识产权的法律和法规、实施办法。&lt;/p&gt;&lt;p&gt;5.8.您不得在使用XXX网上服务的过程中在XXX网络平台的任何页面发布、转载、传送含有下列内容之一的信息：&lt;/p&gt;&lt;p&gt;（1）危害国家安全，泄露国家秘密，颠覆国家政权，破坏国家统一的；&lt;/p&gt;&lt;p&gt;（2）损害国家荣誉和利益的；&lt;/p&gt;&lt;p&gt;（3）煽动民族仇恨、民族歧视、破坏民族团结的；&lt;/p&gt;&lt;p&gt;（4）破坏国家宗教政策，宣扬邪教和封建迷信的；&lt;/p&gt;&lt;p&gt;（5）散布谣言、淫秽、色情、赌博、暴力、凶杀、恐怖或者教唆犯罪的；&lt;/p&gt;&lt;p&gt;（6）侮辱、诽谤他人，或侵害他人合法权利的；&lt;/p&gt;&lt;p&gt;（7）煽动非法集会、结社、游行、示威、聚众扰乱社会秩序的；&lt;/p&gt;&lt;p&gt;（8）其他违反法律、法规、规章、条例以及社会道德规范所限制或禁止的内容的。&lt;/p&gt;&lt;p&gt;5.9.若您在使用XXX网上服务的过程中违反上述任何规定，则XXX有权要求您改正或直接采取一切必要的措施(包括但不限于警告、限制或禁止使用全部或部分功能、账号封禁直至注销)以减轻不当行为而造成的影响，并公告处理结果；对于违反法律法规的行为，XXX有权向有关部门报告，您应独自承担由此产生的一切法律责任。因此导致的您账号下数据及相关信息被删除以及相关权益丧失的，该损失由您自行承担，对此XXX不承担任何责任。&lt;/p&gt;&lt;p&gt;5.10.您必须承担一切因您个人行为而直接或间接导致的法律责任。若您的行为给XXX造成损失的，应承担赔偿责任。&lt;/p&gt;&lt;p&gt;6.权利声明&lt;/p&gt;&lt;p&gt;6.1.所有XXX网络平台上的及XXX在提供网上服务的过程中使用的组成元素均属于XXX所有，并受版权、商标、专利和其它财产所有权法律的保护。严禁任何个人或单位在未经XXX许可的情况下对上述内容进行翻版、复制、转载、篡改等一切侵权行为。您只有在本公司授权下才能为自用目的合理使用这些内容，而不能擅自复制、再造这些内容、或创造与这些内容有关的衍生作品或产品，否则，将承担法律责任。&lt;/p&gt;&lt;p&gt;6.2.XXX对其专有内容、原创内容和其他通过授权取得的独占或者独家内容享有知识产权。未经XXX书面许可，任何单位和个人不得私自予以转载、传播或者有任何其他侵犯XXX知识产权的行为。否则，将承担法律责任。&lt;/p&gt;&lt;p&gt;6.3.若您使用XXX网络平台的任何内容，均应注明其“来源于XXX”并署上作者姓名，且与此相关的一切法律责任由您独立承担。XXX对所有作品享有用于其它用途的优先权，包括但不限于网站、电子杂志、平面出版等，但在使用前会通知作者，并按同行业的标准支付稿酬。您将该账号在任何时间段发表的任何形式的内容的著作财产权无偿授权给XXX使用，同时许可XXX有权就任何主体侵权而单独提起诉讼，并获得赔偿。本协议已经构成《著作权法》第二十五条所规定的书面协议，其效力及于您在XXX网站发布的任何受著作权法保护的内容。&lt;/p&gt;&lt;p&gt;6.4.您应保证您是在XXX上传或发表内容的著作权人或已取得合法授权，并且该内容不会侵犯任何第三方的合法权益。若第三方提出关于著作权的异议，XXX有权根据实际情况删除相关的内容，且有权追究您的法律责任。您的上述行为给XXX或任何第三方造成损失的，应负责全额赔偿。&lt;/p&gt;&lt;p&gt;6.5.为营造公平、健康的网络环境，在您使用XXX网上服务的过程中，XXX有权通过技术手段了解您的相关终端设备信息。一经发现有任何未经授权、危害XXX网上服务正常运营的相关程序，XXX将收集所有与此有关的信息并采取合理措施予以打击。&lt;/p&gt;&lt;p&gt;6.6.本站所有内容仅代表作者自己的立场和观点，与本站无关，由作者本人承担一切法律责任。恶意转载XXX网络平台上内容的，本站保留将其诉诸法律的权利。&lt;/p&gt;&lt;p&gt;6.7.“XXX”为XXX及其关联公司的注册商标，受中国法律保护。 对于“XXX”等商标，任何人不得擅自使用。违反上述声明而给XXX造成损失的，XXX将依法追究其法律责任。&lt;/p&gt;&lt;p&gt;7.免责声明&lt;/p&gt;&lt;p&gt;7.1.由于互联网各个环节存在不稳定因素，XXX无法保证其提供的网络服务一定能满足用户的要求，也不保证网络服务的及时性、安全性、准确性。&lt;/p&gt;&lt;p&gt;7.2.为方便用户，XXX网络平台可能会提供其他国际互联网网站或资源的链接，但XXX不保证前述网站或资源是否可以利用，亦不保证外部链接的准确性和完整性。同时，对于该等外部链接指向的不由XXX实际控制的任何网页上的内容，XXX不承担任何责任。若您因使用或依赖上述网站或资源受到损失或损害，XXX及XXX网络平台不承担任何责任。&lt;/p&gt;&lt;p&gt;7.3.对于因不可抗力或XXX不能控制的原因造成的网络服务中断或其它缺陷造成的损失，XXX不承担任何责任。由于地震、台风、洪水、火灾、战争、政府禁令以及其他不能预见并且对其发生和后果不能防止或避免的不可抗力原因，或互联网上的黑客攻击事件、计算机病毒、电信管制、停电，用户操作不当等非XXX原因，导致本服务条款不能履行或不能完全履行，XXX不承担责任。&lt;/p&gt;&lt;p&gt;7.4.XXX有权于任何时间暂时或永久修改或终止部分或全部非付费服务，而无论其通知与否，XXX对您和任何第三人均无需承担任何责任。&lt;/p&gt;&lt;p&gt;7.5.XXX可根据知悉或掌握的信息独立决定随时变更、终止、中止您对任何XXX网上服务的使用，无须向您发出任何提前通知，但根据法律法规规定、本协议或具体服务规则需要提前通知的除外。XXX无需向您承担与此相关的任何责任，且有权要求您承担相应责任。&lt;/p&gt;&lt;p&gt;7.6.XXX网上服务可能因软件漏洞、缺陷、版本更新缺陷、第三方病毒攻击、互联网连接或其他任何因素导致您的账号数据发生异常。在数据异常的原因未得到查明前，XXX有权暂时冻结账号，且XXX无须向您承担任何责任。&lt;/p&gt;&lt;p&gt;7.7.XXX不对您与第三方交易的行为负责，包括但不限于您通过购买、接受赠与或者其他的方式从任何第三方获得产品、服务等，并且不受理因任何第三方交易发生纠纷而带来的申诉。&lt;/p&gt;&lt;p&gt;7.8.在您使用XXX网上服务期间所存在的风险及一切后果将完全由用户本人承担。XXX对此不承担任何责任。&lt;/p&gt;&lt;p&gt;7.8.1.在使用本协议项下服务的过程中，您可能会遇到网络信息或其他用户行为带来的风险，XXX不对任何信息的真实性、适用性、合法性承担责任，也不对因侵权行为给用户造成的损害负责。这些风险包括但不限于：来自他人匿名或冒名的含有威胁、诽谤、令人反感或非法内容的信息；遭受他人误导、欺骗或其他导致或可能导致的任何心理、生理上的伤害以及经济上的损失；其他因网络信息或用户行为引起的风险。&lt;/p&gt;&lt;p&gt;7.8.2.您经由XXX网络平台与广告商进行通讯联系或商业往来或参与促销活动的行为，完全属于您与广告商之间的行为，与XXX及XXX网络平台没有任何关系。若您因上述行为受到任何损害或损失，XXX或XXX网络平台不承担任何责任。&lt;/p&gt;&lt;p&gt;8.隐私政策&lt;/p&gt;&lt;p&gt;8.1.个人信息的范围包括但不限于：&lt;/p&gt;&lt;p&gt;(1)您在注册、报名或以其他形式使用XXX的网上服务时，根据XXX的要求提供的个人信息；&lt;/p&gt;&lt;p&gt;(2) 您在使用XXX网上服务、参加XXX活动或访问XXX网络平台时，XXX网络平台自动采集的技术信息，包括但不限于IP地址信息、位置信息、设备及软件信息等；&lt;/p&gt;&lt;p&gt;(3)XXX收集到的您使用XXX网络平台服务的有关数据，包括但不限于购买培训课程、参加培训课程、通过XXX网络平台分享的信息等；&lt;/p&gt;&lt;p&gt;(4)XXX通过其它合法途径获得的个人数据。&lt;/p&gt;&lt;p&gt;8.2.个人信息使用规则&lt;/p&gt;&lt;p&gt;8.3.您同意并授权XXX为履行本协议之目的收集和使用您的个人信息。XXX可能基于以下目的使用用户的个人信息：&lt;/p&gt;&lt;p&gt;(1)为提供服务的要求所必须；&lt;/p&gt;&lt;p&gt;(2)改进产品或服务；&lt;/p&gt;&lt;p&gt;(3)提供或推广XXX及其合作伙伴的产品和服务。&lt;/p&gt;&lt;p&gt;8.4.XXX承诺对您的注册资料严格保密，不以任何形式公开、透露注册用户的真实姓名、地址、电子邮箱等信息，但以下情况除外：&lt;/p&gt;&lt;p&gt;(1)事先获得用户的明确授权；&lt;/p&gt;&lt;p&gt;(2)为提供本协议项下的服务所必须；&lt;/p&gt;&lt;p&gt;(3)适用法律、法规、司法机关命令、法律程序或政府机关要求；&lt;/p&gt;&lt;p&gt;(4)因XXX自身合并、收购、资产转让或类似的交易导致用户信息转移；&lt;/p&gt;&lt;p&gt;(5)与XXX关联公司、合作方、为提供服务所必需的供应商分享。&lt;/p&gt;&lt;p&gt;(6)为维护社会公众的利益。&lt;/p&gt;&lt;p&gt;8.5.XXX不允许任何第三方以任何手段收集、编辑、出售或者无偿传播用户的个人信息。任何用户若从事上述活动，一经发现，XXX有权立即终止与该用户的服务协议，查封其账号。&lt;/p&gt;&lt;p&gt;8.6.XXX在对应用程序更新的过程中，可能自动调取、收集您的客户端软件版本信息等信息进行替换、修改、删除和/或补充。此种行为是软件更新的所必须的一种操作或步骤，若您不同意进行此种操作，请您不要进行更新；您的使用行为即视为您同意XXX进行此种操作。&lt;/p&gt;&lt;p&gt;8.7.XXX可能会与第三方合作向用户提供相关的网络服务，在此情况下，若该第三方同意承担与XXX同等的保护用户隐私的责任，则XXX有权将用户的注册资料等提供给该第三方。&lt;/p&gt;&lt;p&gt;9.管辖与法律适用&lt;/p&gt;&lt;p&gt;9.1.本协议的签订地为中华人民共和国湖南省长沙市。&lt;/p&gt;&lt;p&gt;9.2.出现本协议引起或与本协议有关争议时，双方应首先通过友好协商解决争议；协商不成的，可以向合同签订地人民法院提起诉讼。&lt;/p&gt;&lt;p&gt;9.3.本协议条款无论因何种原因部分无效或不具有执行力，其余条款仍有效并具有约束力。&lt;/p&gt;&lt;p&gt;9.4.本公司不行使、未能及时行使或者未充分行使本协议或者按照法律规定所享有的权利，不应被视为放弃该权利，也不影响本公司在将来行使该权利。&lt;/p&gt;&lt;p&gt;9.5.本协议根据现行中华人民共和国法律法规制定。如发生协议条款与中华人民共和国法律法规相抵触时，则这些条款将完全按法律法规的规定重新解释，但本协议的其它条款仍对XXX和用户具有法律约束力。&lt;/p&gt;&lt;p&gt;9.6.本协议解释权及修订权归XXX公司所有。&lt;/p&gt;&lt;p&gt;XXX有限公司&lt;/p&gt;&lt;p&gt;XXXX年XX月XX日&lt;/p&gt;</t>
@@ -651,193 +3650,416 @@
     <t>地图初始俯仰角度，有效范围 0 度- 83 度</t>
   </si>
   <si>
-    <t>tab_label</t>
-  </si>
-  <si>
-    <t>classify</t>
-  </si>
-  <si>
-    <t>tab_name</t>
-  </si>
-  <si>
-    <t>基础配置</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>web_basic</t>
-  </si>
-  <si>
-    <t>百度统计</t>
-  </si>
-  <si>
-    <t>关于我们</t>
-  </si>
-  <si>
-    <t>web_about</t>
-  </si>
-  <si>
-    <t>隐私政策</t>
-  </si>
-  <si>
-    <t>阿里云配置</t>
-  </si>
-  <si>
-    <t>短信配置</t>
-  </si>
-  <si>
-    <t>aliyun</t>
-  </si>
-  <si>
-    <t>aliyun_sms</t>
-  </si>
-  <si>
-    <t>对象存储</t>
-  </si>
-  <si>
-    <t>aliyun_oss</t>
-  </si>
-  <si>
-    <t>地图配置</t>
-  </si>
-  <si>
-    <t>map_distribution</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>u</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ser_id</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>r</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ole_id</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>media</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/system/2022-11-03/166745879717640d3f.png</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>media</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/system/favicon.ico</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证方式</t>
-  </si>
-  <si>
-    <t>sys_vadmin_login_method</t>
-  </si>
-  <si>
-    <t>登录平台</t>
-  </si>
-  <si>
-    <t>sys_vadmin_platform</t>
-  </si>
-  <si>
-    <t>密码登录</t>
-  </si>
-  <si>
-    <t>短信登录</t>
-  </si>
-  <si>
-    <t>PC端管理系统</t>
-  </si>
-  <si>
-    <t>移动端管理系统</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -845,26 +4067,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1122,12 +4631,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1136,23 +4645,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
     <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="47.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="19.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="47.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="11.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="19.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="10.1428571428571" customWidth="1"/>
+    <col min="11" max="11" width="23.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="12.5714285714286" customWidth="1"/>
+    <col min="14" max="14" width="23.1428571428571" customWidth="1"/>
+    <col min="15" max="15" width="12.5714285714286" customWidth="1"/>
+    <col min="17" max="17" width="19.8571428571429" customWidth="1"/>
+    <col min="18" max="18" width="17.4285714285714" customWidth="1"/>
+    <col min="19" max="19" width="12.7142857142857" customWidth="1"/>
+    <col min="20" max="20" width="17.4285714285714" customWidth="1"/>
+    <col min="21" max="21" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -1224,11 +4733,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>44786.455925925897</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44883.434317129599</v>
+      <c r="B2" s="2">
+        <v>44786.4559259259</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44883.4343171296</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -1280,11 +4789,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>44826.954074074099</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44883.434606481504</v>
+      <c r="B3" s="2">
+        <v>44826.9540740741</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44883.4346064815</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1336,11 +4845,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>44838.873819444401</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44862.894594907397</v>
+      <c r="B4" s="2">
+        <v>44838.8738194444</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44862.8945949074</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
@@ -1389,11 +4898,11 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>44846.707951388897</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44883.434432870403</v>
+      <c r="B5" s="2">
+        <v>44846.7079513889</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44883.4344328704</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -1442,11 +4951,11 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>44870.538877314801</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44880.808692129598</v>
+      <c r="B6" s="2">
+        <v>44870.5388773148</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44880.8086921296</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -1495,11 +5004,11 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>44881.777280092603</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44882.864988425899</v>
+      <c r="B7" s="2">
+        <v>44881.7772800926</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44882.8649884259</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
@@ -1548,10 +5057,10 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>44826.723263888904</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="2">
+        <v>44826.7232638889</v>
+      </c>
+      <c r="C8" s="2">
         <v>44883.4352083333</v>
       </c>
       <c r="E8" t="s">
@@ -1601,11 +5110,11 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>44826.723263888904</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44883.435370370396</v>
+      <c r="B9" s="2">
+        <v>44826.7232638889</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44883.4353703704</v>
       </c>
       <c r="E9" t="s">
         <v>47</v>
@@ -1654,10 +5163,10 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>44826.723263888904</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="2">
+        <v>44826.7232638889</v>
+      </c>
+      <c r="C10" s="2">
         <v>44883.4355208333</v>
       </c>
       <c r="E10" t="s">
@@ -1707,11 +5216,11 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>44838.877025463</v>
       </c>
-      <c r="C11" s="1">
-        <v>44864.733287037001</v>
+      <c r="C11" s="2">
+        <v>44864.733287037</v>
       </c>
       <c r="E11" t="s">
         <v>53</v>
@@ -1760,11 +5269,11 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>44839.934328703697</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44862.924189814803</v>
+      <c r="B12" s="2">
+        <v>44839.9343287037</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44862.9241898148</v>
       </c>
       <c r="E12" t="s">
         <v>56</v>
@@ -1813,10 +5322,10 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>44844.410787036999</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="2">
+        <v>44844.410787037</v>
+      </c>
+      <c r="C13" s="2">
         <v>44862.9241203704</v>
       </c>
       <c r="E13" t="s">
@@ -1866,11 +5375,11 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>44862.895787037</v>
       </c>
-      <c r="C14" s="1">
-        <v>44870.493113425902</v>
+      <c r="C14" s="2">
+        <v>44870.4931134259</v>
       </c>
       <c r="E14" t="s">
         <v>62</v>
@@ -1919,11 +5428,11 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>44864.733217592599</v>
-      </c>
-      <c r="C15" s="1">
-        <v>44864.733217592599</v>
+      <c r="B15" s="2">
+        <v>44864.7332175926</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44864.7332175926</v>
       </c>
       <c r="E15" t="s">
         <v>64</v>
@@ -1972,10 +5481,10 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>44862.8991550926</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>44862.9000578704</v>
       </c>
       <c r="E16" t="s">
@@ -2025,11 +5534,11 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>44862.925173611096</v>
-      </c>
-      <c r="C17" s="1">
-        <v>44863.569282407399</v>
+      <c r="B17" s="2">
+        <v>44862.9251736111</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44863.5692824074</v>
       </c>
       <c r="E17" t="s">
         <v>70</v>
@@ -2078,11 +5587,11 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>44883.598217592596</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44883.604062500002</v>
+      <c r="B18" s="2">
+        <v>44883.5982175926</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44883.6040625</v>
       </c>
       <c r="E18" t="s">
         <v>73</v>
@@ -2128,10 +5637,10 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>44883.6410300926</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>44883.6410300926</v>
       </c>
       <c r="E19" t="s">
@@ -2178,11 +5687,11 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>44883.641284722202</v>
-      </c>
-      <c r="C20" s="1">
-        <v>44883.641284722202</v>
+      <c r="B20" s="2">
+        <v>44883.6412847222</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44883.6412847222</v>
       </c>
       <c r="E20" t="s">
         <v>78</v>
@@ -2228,11 +5737,11 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>44883.633275462998</v>
-      </c>
-      <c r="C21" s="1">
-        <v>44883.633275462998</v>
+      <c r="B21" s="2">
+        <v>44883.633275463</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44883.633275463</v>
       </c>
       <c r="E21" t="s">
         <v>80</v>
@@ -2278,11 +5787,11 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>44883.641620370399</v>
-      </c>
-      <c r="C22" s="1">
-        <v>44883.641620370399</v>
+      <c r="B22" s="2">
+        <v>44883.6416203704</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44883.6416203704</v>
       </c>
       <c r="E22" t="s">
         <v>82</v>
@@ -2328,10 +5837,10 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>44883.6417939815</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>44883.6417939815</v>
       </c>
       <c r="E23" t="s">
@@ -2378,11 +5887,11 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>44883.643275463</v>
       </c>
-      <c r="C24" s="1">
-        <v>44883.646527777797</v>
+      <c r="C24" s="2">
+        <v>44883.6465277778</v>
       </c>
       <c r="E24" t="s">
         <v>85</v>
@@ -2428,11 +5937,11 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>44883.643530092602</v>
-      </c>
-      <c r="C25" s="1">
-        <v>44883.643530092602</v>
+      <c r="B25" s="2">
+        <v>44883.6435300926</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44883.6435300926</v>
       </c>
       <c r="E25" t="s">
         <v>87</v>
@@ -2478,11 +5987,11 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>44883.643819444398</v>
-      </c>
-      <c r="C26" s="1">
-        <v>44883.643819444398</v>
+      <c r="B26" s="2">
+        <v>44883.6438194444</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44883.6438194444</v>
       </c>
       <c r="E26" t="s">
         <v>89</v>
@@ -2528,11 +6037,11 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>44883.644166666701</v>
-      </c>
-      <c r="C27" s="1">
-        <v>44883.644166666701</v>
+      <c r="B27" s="2">
+        <v>44883.6441666667</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44883.6441666667</v>
       </c>
       <c r="E27" t="s">
         <v>91</v>
@@ -2578,11 +6087,11 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>44883.644386574102</v>
-      </c>
-      <c r="C28" s="1">
-        <v>44883.644386574102</v>
+      <c r="B28" s="2">
+        <v>44883.6443865741</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44883.6443865741</v>
       </c>
       <c r="E28" t="s">
         <v>93</v>
@@ -2628,11 +6137,11 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>44883.644884259302</v>
-      </c>
-      <c r="C29" s="1">
-        <v>44883.644884259302</v>
+      <c r="B29" s="2">
+        <v>44883.6448842593</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44883.6448842593</v>
       </c>
       <c r="E29" t="s">
         <v>95</v>
@@ -2675,28 +6184,29 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U29">
+  <sortState ref="A2:U29">
     <sortCondition ref="J2"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" activeCellId="1" sqref="F17 C37"/>
+      <selection activeCell="C37" sqref="F17 C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="9.28571428571429" customWidth="1"/>
+    <col min="10" max="10" width="17.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2731,15 +6241,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>44786.457152777803</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44843.627476851798</v>
+      <c r="B2" s="2">
+        <v>44786.4571527778</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44843.6274768518</v>
       </c>
       <c r="D2" t="s">
         <v>101</v>
@@ -2758,32 +6268,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3F6503-9EA4-4879-8389-6E7E6D1BEDDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="7" max="7" width="72.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="9.42857142857143" customWidth="1"/>
+    <col min="11" max="11" width="9.71428571428571" customWidth="1"/>
+    <col min="12" max="12" width="19.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="9.42857142857143" customWidth="1"/>
+    <col min="14" max="14" width="20.1428571428571" customWidth="1"/>
+    <col min="15" max="15" width="17.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2833,15 +6344,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>44784.845185185193</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44888.896111111113</v>
+      <c r="B2" s="2">
+        <v>44784.8451851852</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44888.8961111111</v>
       </c>
       <c r="D2" t="s">
         <v>113</v>
@@ -2870,30 +6381,31 @@
       <c r="M2" t="s">
         <v>116</v>
       </c>
-      <c r="N2" s="1"/>
+      <c r="N2" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F47309-94A5-41A8-A36C-9E64A431B54E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42857142857143" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="24.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="9.28571428571429" customWidth="1"/>
+    <col min="8" max="8" width="17.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2922,15 +6434,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>44839.919247685182</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44842.58143518518</v>
+      <c r="B2" s="2">
+        <v>44839.9192476852</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44842.5814351852</v>
       </c>
       <c r="D2" t="s">
         <v>120</v>
@@ -2942,15 +6454,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>44842.581620370365</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44842.581620370365</v>
+      <c r="B3" s="2">
+        <v>44842.5816203704</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44842.5816203704</v>
       </c>
       <c r="D3" t="s">
         <v>122</v>
@@ -2962,63 +6474,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>44898.991770833338</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44898.991770833338</v>
+      <c r="B4" s="2">
+        <v>44898.9917708333</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44898.9917708333</v>
       </c>
       <c r="D4" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>125</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>44898.992488425931</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44898.992488425931</v>
+      <c r="B5" s="2">
+        <v>44898.9924884259</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44898.9924884259</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>127</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02B016F-92B9-46EF-B145-5D0DE5E66E4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3032,10 +6545,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
         <v>119</v>
@@ -3047,24 +6560,24 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>44841.503692129627</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44841.503692129627</v>
+      <c r="B2" s="2">
+        <v>44841.5036921296</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44841.5036921296</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3076,21 +6589,21 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>44841.505358796298</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44841.505578703705</v>
+      <c r="B3" s="2">
+        <v>44841.5053587963</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44841.5055787037</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3105,21 +6618,21 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>44842.580231481479</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44842.580231481479</v>
+      <c r="B4" s="2">
+        <v>44842.5802314815</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44842.5802314815</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3134,21 +6647,21 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>44842.586979166663</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44842.587245370371</v>
+      <c r="B5" s="2">
+        <v>44842.5869791667</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44842.5872453704</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3163,21 +6676,21 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>44842.587083333332</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44842.587083333332</v>
+      <c r="B6" s="2">
+        <v>44842.5870833333</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44842.5870833333</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3192,21 +6705,21 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <v>44842.587175925924</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44842.587175925924</v>
+      <c r="B7" s="2">
+        <v>44842.5871759259</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44842.5871759259</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3221,21 +6734,21 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>44898.992048611115</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44898.992048611115</v>
+      <c r="B8" s="2">
+        <v>44898.9920486111</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44898.9920486111</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3250,21 +6763,21 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>234</v>
+        <v>137</v>
       </c>
       <c r="J8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <v>44898.992210648154</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44898.992210648154</v>
+      <c r="B9" s="2">
+        <v>44898.9922106482</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44898.9922106482</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3279,21 +6792,21 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="J9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
-        <v>44898.992638888893</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44898.992638888893</v>
+      <c r="B10" s="2">
+        <v>44898.9926388889</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44898.9926388889</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3308,21 +6821,21 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>236</v>
+        <v>139</v>
       </c>
       <c r="J10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
-        <v>44898.992835648154</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44898.992835648154</v>
+      <c r="B11" s="2">
+        <v>44898.9928356482</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44898.9928356482</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3337,33 +6850,34 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA785F0B-46B3-4E0C-9F07-A75B09C41D53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="12.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="10.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="8.14285714285714" customWidth="1"/>
+    <col min="9" max="9" width="17.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3383,16 +6897,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="I1" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="J1" t="s">
         <v>12</v>
@@ -3402,26 +6916,26 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>44865.828298611108</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44865.828298611108</v>
+      <c r="B2" s="2">
+        <v>44865.8282986111</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44865.8282986111</v>
       </c>
       <c r="E2" t="s">
         <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -3431,26 +6945,26 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>44865.828298611108</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44865.828298611108</v>
+      <c r="B3" s="2">
+        <v>44865.8282986111</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44865.8282986111</v>
       </c>
       <c r="E3" t="s">
         <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3460,26 +6974,26 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>44865.828298611108</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44865.828298611108</v>
+      <c r="B4" s="2">
+        <v>44865.8282986111</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44865.8282986111</v>
       </c>
       <c r="E4" t="s">
         <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="I4" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3489,26 +7003,26 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>44865.828298611108</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44865.828298611108</v>
+      <c r="B5" s="2">
+        <v>44865.8282986111</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44865.8282986111</v>
       </c>
       <c r="E5" t="s">
         <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="I5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -3518,26 +7032,26 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>44865.828298611108</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44865.828298611108</v>
+      <c r="B6" s="2">
+        <v>44865.8282986111</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44865.8282986111</v>
       </c>
       <c r="E6" t="s">
         <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3547,26 +7061,26 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>44873.393229166664</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44873.393229166664</v>
+      <c r="B7" s="2">
+        <v>44873.3932291667</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44873.3932291667</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="I7" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -3576,26 +7090,26 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>44873.393449074072</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44873.393449074072</v>
+      <c r="B8" s="2">
+        <v>44873.3934490741</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44873.3934490741</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="I8" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3605,14 +7119,14 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>44882.803460648145</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44882.803460648145</v>
+      <c r="B9" s="2">
+        <v>44882.8034606481</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44882.8034606481</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
         <v>41</v>
@@ -3624,33 +7138,34 @@
         <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC18651-817D-4649-9E17-6D32006E1DF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.140625" customWidth="1"/>
-    <col min="8" max="8" width="98" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="17.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="23.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="43.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="98" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3667,19 +7182,19 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="G1" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="H1" t="s">
         <v>119</v>
       </c>
       <c r="I1" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="J1" t="s">
         <v>12</v>
@@ -3689,20 +7204,20 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>44865.866469907407</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44880.640439814815</v>
+      <c r="B2" s="2">
+        <v>44865.8664699074</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44880.6404398148</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -3715,20 +7230,20 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>44865.866469907407</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44880.640439814815</v>
+      <c r="B3" s="2">
+        <v>44865.8664699074</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44880.6404398148</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>228</v>
+        <v>171</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3741,20 +7256,20 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>44865.866469907407</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44880.640439814815</v>
+      <c r="B4" s="2">
+        <v>44865.8664699074</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44880.6404398148</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -3767,20 +7282,20 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>44865.866469907407</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44867.911736111113</v>
+      <c r="B5" s="2">
+        <v>44865.8664699074</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44867.9117361111</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>229</v>
+        <v>177</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -3793,20 +7308,20 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>44865.866469907407</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44880.640439814815</v>
+      <c r="B6" s="2">
+        <v>44865.8664699074</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44880.6404398148</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -3819,20 +7334,20 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>44865.866469907407</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44880.640439814815</v>
+      <c r="B7" s="2">
+        <v>44865.8664699074</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44880.6404398148</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="F7" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="G7" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -3845,20 +7360,20 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>44865.868032407408</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44887.691469907404</v>
+      <c r="B8" s="2">
+        <v>44865.8680324074</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44887.6914699074</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="F8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -3871,20 +7386,20 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>44869.576631944437</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44869.679756944439</v>
+      <c r="B9" s="2">
+        <v>44869.5766319444</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44869.6797569444</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" t="s">
-        <v>158</v>
+        <v>152</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -3897,20 +7412,20 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>44869.57703703703</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44869.679618055547</v>
+      <c r="B10" s="2">
+        <v>44869.577037037</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44869.6796180555</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G10" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -3923,17 +7438,17 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>44873.394305555557</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44873.394305555557</v>
+      <c r="B11" s="2">
+        <v>44873.3943055556</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44873.3943055556</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -3946,17 +7461,17 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>44873.394861111112</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44873.394861111112</v>
+      <c r="B12" s="2">
+        <v>44873.3948611111</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44873.3948611111</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="F12" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -3969,20 +7484,20 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>44873.397835648146</v>
-      </c>
-      <c r="C13" s="1">
-        <v>44873.397835648146</v>
+      <c r="B13" s="2">
+        <v>44873.3978356481</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44873.3978356481</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="H13" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -3995,20 +7510,20 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>44873.404872685191</v>
-      </c>
-      <c r="C14" s="1">
-        <v>44873.404872685191</v>
+      <c r="B14" s="2">
+        <v>44873.4048726852</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44873.4048726852</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="H14" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -4021,20 +7536,20 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>44873.948194444441</v>
-      </c>
-      <c r="C15" s="1">
-        <v>44873.948194444441</v>
+      <c r="B15" s="2">
+        <v>44873.9481944444</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44873.9481944444</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="I15">
         <v>6</v>
@@ -4047,20 +7562,20 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>44873.948611111111</v>
-      </c>
-      <c r="C16" s="1">
-        <v>44873.948611111111</v>
+      <c r="B16" s="2">
+        <v>44873.9486111111</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44873.9486111111</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="G16" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -4073,20 +7588,20 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>44880.94017361111</v>
-      </c>
-      <c r="C17" s="1">
-        <v>44880.94017361111</v>
+      <c r="B17" s="2">
+        <v>44880.9401736111</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44880.9401736111</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="H17" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -4099,20 +7614,20 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>44880.941412037035</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44880.941412037035</v>
+      <c r="B18" s="2">
+        <v>44880.941412037</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44880.941412037</v>
       </c>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="H18" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -4125,20 +7640,20 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>44882.804421296292</v>
-      </c>
-      <c r="C19" s="1">
-        <v>44882.804421296292</v>
+      <c r="B19" s="2">
+        <v>44882.8044212963</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44882.8044212963</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="H19" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="I19">
         <v>8</v>
@@ -4151,23 +7666,23 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>44882.805381944439</v>
-      </c>
-      <c r="C20" s="1">
-        <v>44882.805381944439</v>
+      <c r="B20" s="2">
+        <v>44882.8053819444</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44882.8053819444</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="G20" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="H20" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -4180,23 +7695,23 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>44882.80574074074</v>
-      </c>
-      <c r="C21" s="1">
-        <v>44882.80574074074</v>
+      <c r="B21" s="2">
+        <v>44882.8057407407</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44882.8057407407</v>
       </c>
       <c r="E21" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="G21" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="H21" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -4209,23 +7724,23 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>44882.81459490741</v>
-      </c>
-      <c r="C22" s="1">
-        <v>44882.81459490741</v>
+      <c r="B22" s="2">
+        <v>44882.8145949074</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44882.8145949074</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="G22" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="H22" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="I22">
         <v>8</v>
@@ -4238,23 +7753,23 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>44882.815324074072</v>
-      </c>
-      <c r="C23" s="1">
-        <v>44882.815324074072</v>
+      <c r="B23" s="2">
+        <v>44882.8153240741</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44882.8153240741</v>
       </c>
       <c r="E23" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="H23" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="I23">
         <v>8</v>
@@ -4267,23 +7782,23 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>44882.816689814812</v>
-      </c>
-      <c r="C24" s="1">
-        <v>44882.816689814812</v>
+      <c r="B24" s="2">
+        <v>44882.8166898148</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44882.8166898148</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="G24" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="H24" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="I24">
         <v>8</v>
@@ -4293,31 +7808,32 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496D97A3-A290-423F-9C84-FF24B6E811C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>227</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4332,8 +7848,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/kinit-api/scripts/initialize/data/init.xlsx
+++ b/kinit-api/scripts/initialize/data/init.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\ktianc\project\kinit\kinit-api\scripts\initialize\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49830B14-762F-448F-95FC-F453FB225F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="887" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="887" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vadmin_auth_menu" sheetId="1" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="285">
   <si>
     <t>id</t>
   </si>
@@ -438,7 +444,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>u</t>
     </r>
@@ -446,7 +452,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ser_id</t>
     </r>
@@ -456,7 +462,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>r</t>
     </r>
@@ -464,7 +470,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ole_id</t>
     </r>
@@ -868,20 +874,59 @@
   </si>
   <si>
     <t>wx_server_app_secret</t>
+  </si>
+  <si>
+    <t>系统配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>web</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱账号</t>
+  </si>
+  <si>
+    <t>email_access</t>
+  </si>
+  <si>
+    <t>邮箱口令</t>
+  </si>
+  <si>
+    <t>email_password</t>
+  </si>
+  <si>
+    <t>邮箱服务器</t>
+  </si>
+  <si>
+    <t>email_server</t>
+  </si>
+  <si>
+    <t>smtp.163.com</t>
+  </si>
+  <si>
+    <t>邮箱端口</t>
+  </si>
+  <si>
+    <t>email_port</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -890,355 +935,37 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1246,312 +973,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1809,12 +1257,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1823,22 +1271,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="28.2857142857143" customWidth="1"/>
-    <col min="5" max="6" width="47.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="11.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="19.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="10.1428571428571" customWidth="1"/>
-    <col min="11" max="11" width="23.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="12.5714285714286" customWidth="1"/>
-    <col min="14" max="14" width="23.1428571428571" customWidth="1"/>
-    <col min="15" max="15" width="12.5714285714286" customWidth="1"/>
-    <col min="17" max="17" width="19.8571428571429" customWidth="1"/>
-    <col min="18" max="18" width="17.4285714285714" customWidth="1"/>
-    <col min="19" max="19" width="12.7142857142857" customWidth="1"/>
-    <col min="20" max="20" width="17.4285714285714" customWidth="1"/>
-    <col min="21" max="21" width="12.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="6" width="47.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -1914,10 +1362,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44786.4559259259</v>
+        <v>44786.455925925897</v>
       </c>
       <c r="C2" s="1">
-        <v>44883.4343171296</v>
+        <v>44883.434317129599</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1973,10 +1421,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44826.9540740741</v>
+        <v>44826.954074074099</v>
       </c>
       <c r="C3" s="1">
-        <v>44883.4346064815</v>
+        <v>44883.434606481504</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -2032,10 +1480,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44838.8738194444</v>
+        <v>44838.873819444401</v>
       </c>
       <c r="C4" s="1">
-        <v>44862.8945949074</v>
+        <v>44862.894594907397</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -2088,10 +1536,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>44846.7079513889</v>
+        <v>44846.707951388897</v>
       </c>
       <c r="C5" s="1">
-        <v>44883.4344328704</v>
+        <v>44883.434432870403</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
@@ -2144,10 +1592,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>44870.5388773148</v>
+        <v>44870.538877314801</v>
       </c>
       <c r="C6" s="1">
-        <v>44880.8086921296</v>
+        <v>44880.808692129598</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -2200,10 +1648,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44881.7772800926</v>
+        <v>44881.777280092603</v>
       </c>
       <c r="C7" s="1">
-        <v>44882.8649884259</v>
+        <v>44882.864988425899</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
@@ -2256,7 +1704,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44826.7232638889</v>
+        <v>44826.723263888904</v>
       </c>
       <c r="C8" s="1">
         <v>44883.4352083333</v>
@@ -2312,10 +1760,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44826.7232638889</v>
+        <v>44826.723263888904</v>
       </c>
       <c r="C9" s="1">
-        <v>44883.4353703704</v>
+        <v>44883.435370370396</v>
       </c>
       <c r="E9" t="s">
         <v>48</v>
@@ -2368,7 +1816,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44826.7232638889</v>
+        <v>44826.723263888904</v>
       </c>
       <c r="C10" s="1">
         <v>44883.4355208333</v>
@@ -2427,7 +1875,7 @@
         <v>44838.877025463</v>
       </c>
       <c r="C11" s="1">
-        <v>44864.733287037</v>
+        <v>44864.733287037001</v>
       </c>
       <c r="E11" t="s">
         <v>54</v>
@@ -2480,10 +1928,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>44839.9343287037</v>
+        <v>44839.934328703697</v>
       </c>
       <c r="C12" s="1">
-        <v>44862.9241898148</v>
+        <v>44862.924189814803</v>
       </c>
       <c r="E12" t="s">
         <v>57</v>
@@ -2536,7 +1984,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>44844.410787037</v>
+        <v>44844.410787036999</v>
       </c>
       <c r="C13" s="1">
         <v>44862.9241203704</v>
@@ -2595,7 +2043,7 @@
         <v>44862.895787037</v>
       </c>
       <c r="C14" s="1">
-        <v>44870.4931134259</v>
+        <v>44870.493113425902</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
@@ -2648,10 +2096,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>44864.7332175926</v>
+        <v>44864.733217592599</v>
       </c>
       <c r="C15" s="1">
-        <v>44864.7332175926</v>
+        <v>44864.733217592599</v>
       </c>
       <c r="E15" t="s">
         <v>65</v>
@@ -2760,10 +2208,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>44862.9251736111</v>
+        <v>44862.925173611096</v>
       </c>
       <c r="C17" s="1">
-        <v>44863.5692824074</v>
+        <v>44863.569282407399</v>
       </c>
       <c r="E17" t="s">
         <v>71</v>
@@ -2816,10 +2264,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>44883.5982175926</v>
+        <v>44883.598217592596</v>
       </c>
       <c r="C18" s="1">
-        <v>44883.6040625</v>
+        <v>44883.604062500002</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2922,10 +2370,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>44883.6412847222</v>
+        <v>44883.641284722202</v>
       </c>
       <c r="C20" s="1">
-        <v>44883.6412847222</v>
+        <v>44883.641284722202</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2975,10 +2423,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>44883.633275463</v>
+        <v>44883.633275462998</v>
       </c>
       <c r="C21" s="1">
-        <v>44883.633275463</v>
+        <v>44883.633275462998</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3028,10 +2476,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>44883.6416203704</v>
+        <v>44883.641620370399</v>
       </c>
       <c r="C22" s="1">
-        <v>44883.6416203704</v>
+        <v>44883.641620370399</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3137,7 +2585,7 @@
         <v>44883.643275463</v>
       </c>
       <c r="C24" s="1">
-        <v>44883.6465277778</v>
+        <v>44883.646527777797</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3187,10 +2635,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>44883.6435300926</v>
+        <v>44883.643530092602</v>
       </c>
       <c r="C25" s="1">
-        <v>44883.6435300926</v>
+        <v>44883.643530092602</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3240,10 +2688,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>44883.6438194444</v>
+        <v>44883.643819444398</v>
       </c>
       <c r="C26" s="1">
-        <v>44883.6438194444</v>
+        <v>44883.643819444398</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3293,10 +2741,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>44883.6441666667</v>
+        <v>44883.644166666701</v>
       </c>
       <c r="C27" s="1">
-        <v>44883.6441666667</v>
+        <v>44883.644166666701</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3346,10 +2794,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>44883.6443865741</v>
+        <v>44883.644386574102</v>
       </c>
       <c r="C28" s="1">
-        <v>44883.6443865741</v>
+        <v>44883.644386574102</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3399,10 +2847,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>44883.6448842593</v>
+        <v>44883.644884259302</v>
       </c>
       <c r="C29" s="1">
-        <v>44883.6448842593</v>
+        <v>44883.644884259302</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3455,7 +2903,7 @@
         <v>44973.6896180556</v>
       </c>
       <c r="C30" s="1">
-        <v>44973.6909722222</v>
+        <v>44973.690972222197</v>
       </c>
       <c r="D30" t="s">
         <v>98</v>
@@ -3508,10 +2956,10 @@
         <v>39</v>
       </c>
       <c r="B31" s="1">
-        <v>44973.6902777778</v>
+        <v>44973.690277777801</v>
       </c>
       <c r="C31" s="1">
-        <v>44973.691400463</v>
+        <v>44973.691400463002</v>
       </c>
       <c r="E31" t="s">
         <v>101</v>
@@ -3564,10 +3012,10 @@
         <v>40</v>
       </c>
       <c r="B32" s="1">
-        <v>44973.7172800926</v>
+        <v>44973.717280092598</v>
       </c>
       <c r="C32" s="1">
-        <v>44973.7199305556</v>
+        <v>44973.719930555599</v>
       </c>
       <c r="E32" t="s">
         <v>104</v>
@@ -3620,10 +3068,10 @@
         <v>42</v>
       </c>
       <c r="B33" s="1">
-        <v>44978.9870833333</v>
+        <v>44978.987083333297</v>
       </c>
       <c r="C33" s="1">
-        <v>44978.9870833333</v>
+        <v>44978.987083333297</v>
       </c>
       <c r="E33" t="s">
         <v>107</v>
@@ -3676,10 +3124,10 @@
         <v>68</v>
       </c>
       <c r="B34" s="1">
-        <v>44889.6301273148</v>
+        <v>44889.630127314798</v>
       </c>
       <c r="C34" s="1">
-        <v>44889.6412847222</v>
+        <v>44889.641284722202</v>
       </c>
       <c r="D34" t="s">
         <v>110</v>
@@ -3732,10 +3180,10 @@
         <v>69</v>
       </c>
       <c r="B35" s="1">
-        <v>44889.6306597222</v>
+        <v>44889.630659722199</v>
       </c>
       <c r="C35" s="1">
-        <v>44889.6411111111</v>
+        <v>44889.641111111101</v>
       </c>
       <c r="E35" t="s">
         <v>114</v>
@@ -3784,26 +3232,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="10.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="9.28571428571429" customWidth="1"/>
-    <col min="10" max="10" width="17.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3846,10 +3293,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44786.4571527778</v>
+        <v>44786.457152777803</v>
       </c>
       <c r="C2" s="1">
-        <v>44843.6274768518</v>
+        <v>44843.627476851798</v>
       </c>
       <c r="D2" t="s">
         <v>121</v>
@@ -3871,33 +3318,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="7" max="7" width="72.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="72.28515625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="9.42857142857143" customWidth="1"/>
-    <col min="11" max="11" width="9.71428571428571" customWidth="1"/>
-    <col min="12" max="12" width="19.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="9.42857142857143" customWidth="1"/>
-    <col min="14" max="14" width="20.1428571428571" customWidth="1"/>
-    <col min="15" max="15" width="17.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3955,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44784.8451851852</v>
+        <v>44784.845185185201</v>
       </c>
       <c r="C2" s="1">
-        <v>44888.8961111111</v>
+        <v>44888.896111111098</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
@@ -3993,21 +3439,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
@@ -4032,29 +3477,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42857142857143" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="11.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="24.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="9.28571428571429" customWidth="1"/>
-    <col min="8" max="8" width="17.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4091,10 +3535,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44839.9192476852</v>
+        <v>44839.919247685197</v>
       </c>
       <c r="C2" s="1">
-        <v>44842.5814351852</v>
+        <v>44842.581435185202</v>
       </c>
       <c r="D2" t="s">
         <v>142</v>
@@ -4114,10 +3558,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44842.5816203704</v>
+        <v>44842.581620370402</v>
       </c>
       <c r="C3" s="1">
-        <v>44842.5816203704</v>
+        <v>44842.581620370402</v>
       </c>
       <c r="D3" t="s">
         <v>144</v>
@@ -4137,10 +3581,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44898.9917708333</v>
+        <v>44898.991770833301</v>
       </c>
       <c r="C4" s="1">
-        <v>44898.9917708333</v>
+        <v>44898.991770833301</v>
       </c>
       <c r="D4" t="s">
         <v>146</v>
@@ -4160,10 +3604,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>44898.9924884259</v>
+        <v>44898.992488425902</v>
       </c>
       <c r="C5" s="1">
-        <v>44898.9924884259</v>
+        <v>44898.992488425902</v>
       </c>
       <c r="D5" t="s">
         <v>148</v>
@@ -4179,14 +3623,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4195,11 +3638,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42857142857143" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="10.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="9" max="9" width="17.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4245,10 +3688,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44841.5036921296</v>
+        <v>44841.503692129598</v>
       </c>
       <c r="C2" s="1">
-        <v>44841.5036921296</v>
+        <v>44841.503692129598</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4274,10 +3717,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44841.5053587963</v>
+        <v>44841.505358796298</v>
       </c>
       <c r="C3" s="1">
-        <v>44841.5055787037</v>
+        <v>44841.505578703698</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4306,10 +3749,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>44842.5802314815</v>
+        <v>44842.580231481501</v>
       </c>
       <c r="C4" s="1">
-        <v>44842.5802314815</v>
+        <v>44842.580231481501</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4338,7 +3781,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>44842.5869791667</v>
+        <v>44842.586979166699</v>
       </c>
       <c r="C5" s="1">
         <v>44842.5872453704</v>
@@ -4370,10 +3813,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>44842.5870833333</v>
+        <v>44842.587083333303</v>
       </c>
       <c r="C6" s="1">
-        <v>44842.5870833333</v>
+        <v>44842.587083333303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4402,10 +3845,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>44842.5871759259</v>
+        <v>44842.587175925903</v>
       </c>
       <c r="C7" s="1">
-        <v>44842.5871759259</v>
+        <v>44842.587175925903</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4466,10 +3909,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>44898.9922106482</v>
+        <v>44898.992210648197</v>
       </c>
       <c r="C9" s="1">
-        <v>44898.9922106482</v>
+        <v>44898.992210648197</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4530,10 +3973,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>44898.9928356482</v>
+        <v>44898.992835648198</v>
       </c>
       <c r="C11" s="1">
-        <v>44898.9928356482</v>
+        <v>44898.992835648198</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4562,10 +4005,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>44980.9506597222</v>
+        <v>44980.950659722199</v>
       </c>
       <c r="C12" s="1">
-        <v>44980.9537731481</v>
+        <v>44980.953773148103</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4590,29 +4033,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="12.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="10.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="8.14285714285714" customWidth="1"/>
-    <col min="9" max="9" width="17.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4655,10 +4097,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="C2" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
@@ -4687,10 +4129,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="C3" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
@@ -4719,10 +4161,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="C4" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="E4" t="s">
         <v>67</v>
@@ -4751,10 +4193,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="C5" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="E5" t="s">
         <v>67</v>
@@ -4783,10 +4225,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="C6" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
@@ -4815,10 +4257,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44873.3932291667</v>
+        <v>44873.393229166701</v>
       </c>
       <c r="C7" s="1">
-        <v>44873.3932291667</v>
+        <v>44873.393229166701</v>
       </c>
       <c r="E7" t="s">
         <v>178</v>
@@ -4847,10 +4289,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44873.3934490741</v>
+        <v>44873.393449074101</v>
       </c>
       <c r="C8" s="1">
-        <v>44873.3934490741</v>
+        <v>44873.393449074101</v>
       </c>
       <c r="E8" t="s">
         <v>178</v>
@@ -4879,10 +4321,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44882.8034606481</v>
+        <v>44882.803460648101</v>
       </c>
       <c r="C9" s="1">
-        <v>44882.8034606481</v>
+        <v>44882.803460648101</v>
       </c>
       <c r="E9" t="s">
         <v>184</v>
@@ -4911,10 +4353,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44971.9536805556</v>
+        <v>44971.953680555598</v>
       </c>
       <c r="C10" s="1">
-        <v>44971.9536805556</v>
+        <v>44971.953680555598</v>
       </c>
       <c r="E10" t="s">
         <v>67</v>
@@ -4938,27 +4380,58 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44971.953680555598</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44971.953680555598</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="20.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="17.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="23.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="43.1428571428571" customWidth="1"/>
+    <col min="2" max="3" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" customWidth="1"/>
     <col min="8" max="8" width="98" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5005,7 +4478,7 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C2" s="1">
-        <v>44984.4000810185</v>
+        <v>44984.400081018503</v>
       </c>
       <c r="E2" t="s">
         <v>192</v>
@@ -5034,7 +4507,7 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C3" s="1">
-        <v>44984.4000810185</v>
+        <v>44984.400081018503</v>
       </c>
       <c r="E3" t="s">
         <v>195</v>
@@ -5063,7 +4536,7 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C4" s="1">
-        <v>44984.4000810185</v>
+        <v>44984.400081018503</v>
       </c>
       <c r="E4" t="s">
         <v>198</v>
@@ -5092,7 +4565,7 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C5" s="1">
-        <v>44942.757025463</v>
+        <v>44942.757025462997</v>
       </c>
       <c r="E5" t="s">
         <v>201</v>
@@ -5121,7 +4594,7 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C6" s="1">
-        <v>44984.4000810185</v>
+        <v>44984.400081018503</v>
       </c>
       <c r="E6" t="s">
         <v>204</v>
@@ -5150,7 +4623,7 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C7" s="1">
-        <v>44984.4000810185</v>
+        <v>44984.400081018503</v>
       </c>
       <c r="E7" t="s">
         <v>207</v>
@@ -5176,10 +4649,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44865.8680324074</v>
+        <v>44865.868032407401</v>
       </c>
       <c r="C8" s="1">
-        <v>44887.6914699074</v>
+        <v>44887.691469907397</v>
       </c>
       <c r="E8" t="s">
         <v>210</v>
@@ -5205,10 +4678,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44869.5766319444</v>
+        <v>44869.576631944401</v>
       </c>
       <c r="C9" s="1">
-        <v>44965.4520138889</v>
+        <v>44965.452013888898</v>
       </c>
       <c r="E9" t="s">
         <v>212</v>
@@ -5234,10 +4707,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44869.577037037</v>
+        <v>44869.577037037001</v>
       </c>
       <c r="C10" s="1">
-        <v>44869.6796180555</v>
+        <v>44869.679618055503</v>
       </c>
       <c r="E10" t="s">
         <v>176</v>
@@ -5263,10 +4736,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>44873.3943055556</v>
+        <v>44873.394305555601</v>
       </c>
       <c r="C11" s="1">
-        <v>44873.3943055556</v>
+        <v>44873.394305555601</v>
       </c>
       <c r="E11" t="s">
         <v>215</v>
@@ -5274,7 +4747,6 @@
       <c r="F11" t="s">
         <v>216</v>
       </c>
-      <c r="G11"/>
       <c r="I11">
         <v>6</v>
       </c>
@@ -5290,10 +4762,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>44873.3948611111</v>
+        <v>44873.394861111097</v>
       </c>
       <c r="C12" s="1">
-        <v>44873.3948611111</v>
+        <v>44873.394861111097</v>
       </c>
       <c r="E12" t="s">
         <v>217</v>
@@ -5301,7 +4773,6 @@
       <c r="F12" t="s">
         <v>218</v>
       </c>
-      <c r="G12"/>
       <c r="I12">
         <v>6</v>
       </c>
@@ -5317,10 +4788,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>44873.3978356481</v>
+        <v>44873.397835648102</v>
       </c>
       <c r="C13" s="1">
-        <v>44873.3978356481</v>
+        <v>44873.397835648102</v>
       </c>
       <c r="E13" t="s">
         <v>219</v>
@@ -5328,7 +4799,6 @@
       <c r="F13" t="s">
         <v>220</v>
       </c>
-      <c r="G13"/>
       <c r="H13" t="s">
         <v>221</v>
       </c>
@@ -5347,10 +4817,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>44873.4048726852</v>
+        <v>44873.404872685198</v>
       </c>
       <c r="C14" s="1">
-        <v>44873.4048726852</v>
+        <v>44873.404872685198</v>
       </c>
       <c r="E14" t="s">
         <v>222</v>
@@ -5358,7 +4828,6 @@
       <c r="F14" t="s">
         <v>223</v>
       </c>
-      <c r="G14"/>
       <c r="H14" t="s">
         <v>224</v>
       </c>
@@ -5377,10 +4846,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>44873.9481944444</v>
+        <v>44873.948194444398</v>
       </c>
       <c r="C15" s="1">
-        <v>44873.9481944444</v>
+        <v>44873.948194444398</v>
       </c>
       <c r="E15" t="s">
         <v>225</v>
@@ -5406,10 +4875,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>44873.9486111111</v>
+        <v>44873.948611111096</v>
       </c>
       <c r="C16" s="1">
-        <v>44873.9486111111</v>
+        <v>44873.948611111096</v>
       </c>
       <c r="E16" t="s">
         <v>228</v>
@@ -5435,10 +4904,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>44880.9401736111</v>
+        <v>44880.940173611103</v>
       </c>
       <c r="C17" s="1">
-        <v>44880.9401736111</v>
+        <v>44880.940173611103</v>
       </c>
       <c r="E17" t="s">
         <v>231</v>
@@ -5446,7 +4915,6 @@
       <c r="F17" t="s">
         <v>232</v>
       </c>
-      <c r="G17"/>
       <c r="H17" t="s">
         <v>233</v>
       </c>
@@ -5465,10 +4933,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>44880.941412037</v>
+        <v>44880.941412036998</v>
       </c>
       <c r="C18" s="1">
-        <v>44880.941412037</v>
+        <v>44880.941412036998</v>
       </c>
       <c r="E18" t="s">
         <v>234</v>
@@ -5476,7 +4944,6 @@
       <c r="F18" t="s">
         <v>235</v>
       </c>
-      <c r="G18"/>
       <c r="H18" t="s">
         <v>236</v>
       </c>
@@ -5506,7 +4973,6 @@
       <c r="F19" t="s">
         <v>238</v>
       </c>
-      <c r="G19"/>
       <c r="H19" t="s">
         <v>239</v>
       </c>
@@ -5525,10 +4991,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>44882.8053819444</v>
+        <v>44882.805381944403</v>
       </c>
       <c r="C20" s="1">
-        <v>44882.8053819444</v>
+        <v>44882.805381944403</v>
       </c>
       <c r="E20" t="s">
         <v>240</v>
@@ -5557,10 +5023,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>44882.8057407407</v>
+        <v>44882.805740740703</v>
       </c>
       <c r="C21" s="1">
-        <v>44882.8057407407</v>
+        <v>44882.805740740703</v>
       </c>
       <c r="E21" t="s">
         <v>244</v>
@@ -5589,10 +5055,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>44882.8145949074</v>
+        <v>44882.814594907402</v>
       </c>
       <c r="C22" s="1">
-        <v>44882.8145949074</v>
+        <v>44882.814594907402</v>
       </c>
       <c r="E22" t="s">
         <v>248</v>
@@ -5621,10 +5087,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>44882.8153240741</v>
+        <v>44882.815324074101</v>
       </c>
       <c r="C23" s="1">
-        <v>44882.8153240741</v>
+        <v>44882.815324074101</v>
       </c>
       <c r="E23" t="s">
         <v>252</v>
@@ -5653,10 +5119,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>44882.8166898148</v>
+        <v>44882.816689814797</v>
       </c>
       <c r="C24" s="1">
-        <v>44882.8166898148</v>
+        <v>44882.816689814797</v>
       </c>
       <c r="E24" t="s">
         <v>256</v>
@@ -5685,10 +5151,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>44971.9549652778</v>
+        <v>44971.954965277801</v>
       </c>
       <c r="C25" s="1">
-        <v>44984.4097453704</v>
+        <v>44984.409745370402</v>
       </c>
       <c r="E25" t="s">
         <v>260</v>
@@ -5714,10 +5180,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>44971.9555208333</v>
+        <v>44971.955520833297</v>
       </c>
       <c r="C26" s="1">
-        <v>44984.4097453704</v>
+        <v>44984.409745370402</v>
       </c>
       <c r="E26" t="s">
         <v>263</v>
@@ -5725,7 +5191,6 @@
       <c r="F26" t="s">
         <v>264</v>
       </c>
-      <c r="G26"/>
       <c r="I26">
         <v>9</v>
       </c>
@@ -5741,10 +5206,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>44971.9560763889</v>
+        <v>44971.956076388902</v>
       </c>
       <c r="C27" s="1">
-        <v>44984.4097453704</v>
+        <v>44984.409745370402</v>
       </c>
       <c r="E27" t="s">
         <v>265</v>
@@ -5770,10 +5235,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>44983.9175810185</v>
+        <v>44983.917581018497</v>
       </c>
       <c r="C28" s="1">
-        <v>44984.4097453704</v>
+        <v>44984.409745370402</v>
       </c>
       <c r="E28" t="s">
         <v>268</v>
@@ -5781,7 +5246,6 @@
       <c r="F28" t="s">
         <v>269</v>
       </c>
-      <c r="G28"/>
       <c r="I28">
         <v>9</v>
       </c>
@@ -5797,10 +5261,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>44983.9178935185</v>
+        <v>44983.917893518497</v>
       </c>
       <c r="C29" s="1">
-        <v>44984.4097453704</v>
+        <v>44984.409745370402</v>
       </c>
       <c r="E29" t="s">
         <v>270</v>
@@ -5808,7 +5272,6 @@
       <c r="F29" t="s">
         <v>271</v>
       </c>
-      <c r="G29"/>
       <c r="I29">
         <v>9</v>
       </c>
@@ -5819,9 +5282,121 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44983.917893518497</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44984.409745370402</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F30" t="s">
+        <v>277</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44983.917893518497</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44984.409745370402</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44983.917893518497</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44984.409745370402</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44983.917893518497</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44984.409745370402</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F33" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" s="5">
+        <v>25</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/kinit-api/scripts/initialize/data/init.xlsx
+++ b/kinit-api/scripts/initialize/data/init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\ktianc\project\kinit\kinit-api\scripts\initialize\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49830B14-762F-448F-95FC-F453FB225F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D6067A-7389-425D-8B8F-E43EC5B91431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="887" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="887" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vadmin_auth_menu" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="284">
   <si>
     <t>id</t>
   </si>
@@ -414,9 +414,6 @@
   </si>
   <si>
     <t>is_active</t>
-  </si>
-  <si>
-    <t>is_cancel</t>
   </si>
   <si>
     <t>is_reset_password</t>
@@ -924,7 +921,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -982,7 +979,7 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
@@ -3325,10 +3322,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3339,14 +3336,13 @@
     <col min="7" max="7" width="72.28515625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3387,16 +3383,13 @@
         <v>131</v>
       </c>
       <c r="N1" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="O1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3407,16 +3400,16 @@
         <v>44888.896111111098</v>
       </c>
       <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
         <v>133</v>
-      </c>
-      <c r="E2" t="s">
-        <v>134</v>
       </c>
       <c r="F2" t="s">
         <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
         <v>37</v>
@@ -3425,16 +3418,13 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>136</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="O2">
         <v>0</v>
       </c>
     </row>
@@ -3459,10 +3449,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3512,13 +3502,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
         <v>139</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>140</v>
-      </c>
-      <c r="F1" t="s">
-        <v>141</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -3541,10 +3531,10 @@
         <v>44842.581435185202</v>
       </c>
       <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
         <v>142</v>
-      </c>
-      <c r="E2" t="s">
-        <v>143</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3564,10 +3554,10 @@
         <v>44842.581620370402</v>
       </c>
       <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
         <v>144</v>
-      </c>
-      <c r="E3" t="s">
-        <v>145</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3587,10 +3577,10 @@
         <v>44898.991770833301</v>
       </c>
       <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" t="s">
         <v>146</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3610,10 +3600,10 @@
         <v>44898.992488425902</v>
       </c>
       <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
         <v>148</v>
-      </c>
-      <c r="E5" t="s">
-        <v>149</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3656,13 +3646,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" t="s">
-        <v>151</v>
-      </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -3671,10 +3661,10 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" t="s">
         <v>152</v>
-      </c>
-      <c r="J1" t="s">
-        <v>153</v>
       </c>
       <c r="K1" t="s">
         <v>19</v>
@@ -3703,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J2" t="s">
         <v>25</v>
@@ -3735,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
@@ -3767,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J4" t="s">
         <v>37</v>
@@ -3799,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
@@ -3831,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J6" t="s">
         <v>37</v>
@@ -3863,7 +3853,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J7" t="s">
         <v>74</v>
@@ -3895,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J8" t="s">
         <v>25</v>
@@ -3927,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J9" t="s">
         <v>37</v>
@@ -3959,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J10" t="s">
         <v>25</v>
@@ -3991,7 +3981,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J11" t="s">
         <v>37</v>
@@ -4023,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J12" t="s">
         <v>74</v>
@@ -4074,16 +4064,16 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" t="s">
         <v>165</v>
-      </c>
-      <c r="I1" t="s">
-        <v>166</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -4106,16 +4096,16 @@
         <v>67</v>
       </c>
       <c r="F2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>167</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>168</v>
-      </c>
-      <c r="I2" t="s">
-        <v>169</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4138,16 +4128,16 @@
         <v>67</v>
       </c>
       <c r="F3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" t="s">
         <v>170</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" t="s">
-        <v>171</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4170,16 +4160,16 @@
         <v>67</v>
       </c>
       <c r="F4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" t="s">
         <v>172</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I4" t="s">
-        <v>173</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -4202,16 +4192,16 @@
         <v>67</v>
       </c>
       <c r="F5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" t="s">
         <v>174</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I5" t="s">
-        <v>175</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4234,16 +4224,16 @@
         <v>67</v>
       </c>
       <c r="F6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" t="s">
         <v>176</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I6" t="s">
-        <v>177</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -4263,19 +4253,19 @@
         <v>44873.393229166701</v>
       </c>
       <c r="E7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" t="s">
         <v>178</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
         <v>179</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>180</v>
-      </c>
-      <c r="I7" t="s">
-        <v>181</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -4295,19 +4285,19 @@
         <v>44873.393449074101</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" t="s">
         <v>182</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I8" t="s">
-        <v>183</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -4327,7 +4317,7 @@
         <v>44882.803460648101</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9" t="s">
         <v>44</v>
@@ -4339,7 +4329,7 @@
         <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4362,16 +4352,16 @@
         <v>67</v>
       </c>
       <c r="F10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" t="s">
         <v>186</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>168</v>
-      </c>
-      <c r="I10" t="s">
-        <v>187</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -4391,19 +4381,19 @@
         <v>44971.953680555598</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4422,7 +4412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -4449,19 +4439,19 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" t="s">
         <v>188</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>189</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
         <v>190</v>
-      </c>
-      <c r="H1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" t="s">
-        <v>191</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -4481,13 +4471,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" t="s">
         <v>192</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>193</v>
-      </c>
-      <c r="G2" t="s">
-        <v>194</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -4510,13 +4500,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" t="s">
         <v>195</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>196</v>
-      </c>
-      <c r="G3" t="s">
-        <v>197</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -4539,13 +4529,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" t="s">
         <v>198</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>199</v>
-      </c>
-      <c r="G4" t="s">
-        <v>200</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -4568,13 +4558,13 @@
         <v>44942.757025462997</v>
       </c>
       <c r="E5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
         <v>201</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>202</v>
-      </c>
-      <c r="G5" t="s">
-        <v>203</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -4597,13 +4587,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" t="s">
         <v>204</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>205</v>
-      </c>
-      <c r="G6" t="s">
-        <v>206</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -4626,13 +4616,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" t="s">
         <v>207</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>208</v>
-      </c>
-      <c r="G7" t="s">
-        <v>209</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -4655,13 +4645,13 @@
         <v>44887.691469907397</v>
       </c>
       <c r="E8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" t="s">
         <v>210</v>
-      </c>
-      <c r="F8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" t="s">
-        <v>211</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -4684,13 +4674,13 @@
         <v>44965.452013888898</v>
       </c>
       <c r="E9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" t="s">
         <v>212</v>
-      </c>
-      <c r="F9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" t="s">
-        <v>213</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -4713,13 +4703,13 @@
         <v>44869.679618055503</v>
       </c>
       <c r="E10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
         <v>176</v>
       </c>
-      <c r="F10" t="s">
-        <v>177</v>
-      </c>
       <c r="G10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -4742,10 +4732,10 @@
         <v>44873.394305555601</v>
       </c>
       <c r="E11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" t="s">
         <v>215</v>
-      </c>
-      <c r="F11" t="s">
-        <v>216</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -4768,10 +4758,10 @@
         <v>44873.394861111097</v>
       </c>
       <c r="E12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" t="s">
         <v>217</v>
-      </c>
-      <c r="F12" t="s">
-        <v>218</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -4794,13 +4784,13 @@
         <v>44873.397835648102</v>
       </c>
       <c r="E13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" t="s">
         <v>219</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>220</v>
-      </c>
-      <c r="H13" t="s">
-        <v>221</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -4823,13 +4813,13 @@
         <v>44873.404872685198</v>
       </c>
       <c r="E14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" t="s">
         <v>222</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>223</v>
-      </c>
-      <c r="H14" t="s">
-        <v>224</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -4852,13 +4842,13 @@
         <v>44873.948194444398</v>
       </c>
       <c r="E15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" t="s">
         <v>225</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>226</v>
-      </c>
-      <c r="G15" t="s">
-        <v>227</v>
       </c>
       <c r="I15">
         <v>6</v>
@@ -4881,13 +4871,13 @@
         <v>44873.948611111096</v>
       </c>
       <c r="E16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" t="s">
         <v>228</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>229</v>
-      </c>
-      <c r="G16" t="s">
-        <v>230</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -4910,13 +4900,13 @@
         <v>44880.940173611103</v>
       </c>
       <c r="E17" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" t="s">
         <v>231</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>232</v>
-      </c>
-      <c r="H17" t="s">
-        <v>233</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -4939,13 +4929,13 @@
         <v>44880.941412036998</v>
       </c>
       <c r="E18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" t="s">
         <v>234</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>235</v>
-      </c>
-      <c r="H18" t="s">
-        <v>236</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -4968,13 +4958,13 @@
         <v>44882.8044212963</v>
       </c>
       <c r="E19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" t="s">
         <v>237</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>238</v>
-      </c>
-      <c r="H19" t="s">
-        <v>239</v>
       </c>
       <c r="I19">
         <v>8</v>
@@ -4997,16 +4987,16 @@
         <v>44882.805381944403</v>
       </c>
       <c r="E20" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" t="s">
         <v>240</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>241</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>242</v>
-      </c>
-      <c r="H20" t="s">
-        <v>243</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -5029,16 +5019,16 @@
         <v>44882.805740740703</v>
       </c>
       <c r="E21" t="s">
+        <v>243</v>
+      </c>
+      <c r="F21" t="s">
         <v>244</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>245</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>246</v>
-      </c>
-      <c r="H21" t="s">
-        <v>247</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -5061,16 +5051,16 @@
         <v>44882.814594907402</v>
       </c>
       <c r="E22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" t="s">
         <v>248</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>249</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>250</v>
-      </c>
-      <c r="H22" t="s">
-        <v>251</v>
       </c>
       <c r="I22">
         <v>8</v>
@@ -5093,16 +5083,16 @@
         <v>44882.815324074101</v>
       </c>
       <c r="E23" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" t="s">
         <v>252</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>253</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>254</v>
-      </c>
-      <c r="H23" t="s">
-        <v>255</v>
       </c>
       <c r="I23">
         <v>8</v>
@@ -5125,16 +5115,16 @@
         <v>44882.816689814797</v>
       </c>
       <c r="E24" t="s">
+        <v>255</v>
+      </c>
+      <c r="F24" t="s">
         <v>256</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>257</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>258</v>
-      </c>
-      <c r="H24" t="s">
-        <v>259</v>
       </c>
       <c r="I24">
         <v>8</v>
@@ -5157,13 +5147,13 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E25" t="s">
+        <v>259</v>
+      </c>
+      <c r="F25" t="s">
         <v>260</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>261</v>
-      </c>
-      <c r="G25" t="s">
-        <v>262</v>
       </c>
       <c r="I25">
         <v>9</v>
@@ -5186,10 +5176,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E26" t="s">
+        <v>262</v>
+      </c>
+      <c r="F26" t="s">
         <v>263</v>
-      </c>
-      <c r="F26" t="s">
-        <v>264</v>
       </c>
       <c r="I26">
         <v>9</v>
@@ -5212,13 +5202,13 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E27" t="s">
+        <v>264</v>
+      </c>
+      <c r="F27" t="s">
         <v>265</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>266</v>
-      </c>
-      <c r="G27" t="s">
-        <v>267</v>
       </c>
       <c r="I27">
         <v>9</v>
@@ -5241,10 +5231,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E28" t="s">
+        <v>267</v>
+      </c>
+      <c r="F28" t="s">
         <v>268</v>
-      </c>
-      <c r="F28" t="s">
-        <v>269</v>
       </c>
       <c r="I28">
         <v>9</v>
@@ -5267,10 +5257,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29" t="s">
         <v>270</v>
-      </c>
-      <c r="F29" t="s">
-        <v>271</v>
       </c>
       <c r="I29">
         <v>9</v>
@@ -5293,10 +5283,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F30" t="s">
         <v>276</v>
-      </c>
-      <c r="F30" t="s">
-        <v>277</v>
       </c>
       <c r="G30" s="4"/>
       <c r="I30">
@@ -5320,10 +5310,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F31" t="s">
         <v>278</v>
-      </c>
-      <c r="F31" t="s">
-        <v>279</v>
       </c>
       <c r="G31" s="5"/>
       <c r="I31">
@@ -5347,13 +5337,13 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" t="s">
         <v>280</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="I32">
         <v>10</v>
@@ -5376,10 +5366,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F33" t="s">
         <v>283</v>
-      </c>
-      <c r="F33" t="s">
-        <v>284</v>
       </c>
       <c r="G33" s="5">
         <v>25</v>

--- a/kinit-api/scripts/initialize/data/init.xlsx
+++ b/kinit-api/scripts/initialize/data/init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\ktianc\project\kinit\kinit-api\scripts\initialize\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D6067A-7389-425D-8B8F-E43EC5B91431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899D9564-86AE-4C56-9DE1-7AF3B4575B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="887" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="285">
   <si>
     <t>id</t>
   </si>
@@ -914,6 +914,10 @@
   </si>
   <si>
     <t>email_port</t>
+  </si>
+  <si>
+    <t>is_staff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3322,10 +3326,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3342,7 +3346,7 @@
     <col min="14" max="14" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3388,8 +3392,11 @@
       <c r="O1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3426,6 +3433,9 @@
       <c r="M2" s="1"/>
       <c r="O2">
         <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/kinit-api/scripts/initialize/data/init.xlsx
+++ b/kinit-api/scripts/initialize/data/init.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\ktianc\project\kinit\kinit-api\scripts\initialize\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899D9564-86AE-4C56-9DE1-7AF3B4575B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="887" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="887" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="vadmin_auth_menu" sheetId="1" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="297">
   <si>
     <t>id</t>
   </si>
@@ -380,6 +374,21 @@
     <t>空气质量</t>
   </si>
   <si>
+    <t>views/vadmin/system/task/index</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>views/vadmin/system/record/task/index</t>
+  </si>
+  <si>
+    <t>调度日志</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -423,6 +432,9 @@
   </si>
   <si>
     <t>last_login</t>
+  </si>
+  <si>
+    <t>is_staff</t>
   </si>
   <si>
     <t>15020221010</t>
@@ -441,7 +453,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>u</t>
     </r>
@@ -449,7 +461,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ser_id</t>
     </r>
@@ -459,7 +471,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>r</t>
     </r>
@@ -467,7 +479,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ole_id</t>
     </r>
@@ -506,6 +518,15 @@
     <t>sys_vadmin_platform</t>
   </si>
   <si>
+    <t>定时任务执行策略</t>
+  </si>
+  <si>
+    <t>vadmin_system_task_exec_strategy</t>
+  </si>
+  <si>
+    <t>与定时任务中有约定，请勿随意更改</t>
+  </si>
+  <si>
     <t>is_default</t>
   </si>
   <si>
@@ -548,6 +569,24 @@
     <t>微信一键登录</t>
   </si>
   <si>
+    <t>时间间隔(interval)</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>Cron 表达式</t>
+  </si>
+  <si>
+    <t>cron</t>
+  </si>
+  <si>
+    <t>指定日期时间(date)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>tab_label</t>
   </si>
   <si>
@@ -618,6 +657,12 @@
   </si>
   <si>
     <t>wx_server</t>
+  </si>
+  <si>
+    <t>邮箱配置</t>
+  </si>
+  <si>
+    <t>web_email</t>
   </si>
   <si>
     <t>config_label</t>
@@ -873,22 +918,6 @@
     <t>wx_server_app_secret</t>
   </si>
   <si>
-    <t>系统配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>web</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>web_email</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>邮箱账号</t>
   </si>
   <si>
@@ -914,20 +943,20 @@
   </si>
   <si>
     <t>email_port</t>
-  </si>
-  <si>
-    <t>is_staff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -935,8 +964,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -947,26 +976,349 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -974,10 +1326,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,22 +1576,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1258,36 +1892,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
     <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="6" width="47.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.2857142857143" customWidth="1"/>
+    <col min="5" max="6" width="47.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="11.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="19.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="10.1428571428571" customWidth="1"/>
+    <col min="11" max="11" width="23.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="12.5714285714286" customWidth="1"/>
+    <col min="14" max="14" width="23.1428571428571" customWidth="1"/>
+    <col min="15" max="15" width="12.5714285714286" customWidth="1"/>
+    <col min="17" max="17" width="19.8571428571429" customWidth="1"/>
+    <col min="18" max="18" width="17.4285714285714" customWidth="1"/>
+    <col min="19" max="19" width="12.7142857142857" customWidth="1"/>
+    <col min="20" max="20" width="17.4285714285714" customWidth="1"/>
+    <col min="21" max="21" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -1363,10 +1997,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44786.455925925897</v>
+        <v>44786.4559259259</v>
       </c>
       <c r="C2" s="1">
-        <v>44883.434317129599</v>
+        <v>44883.4343171296</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1422,10 +2056,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44826.954074074099</v>
+        <v>44826.9540740741</v>
       </c>
       <c r="C3" s="1">
-        <v>44883.434606481504</v>
+        <v>44883.4346064815</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -1481,10 +2115,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44838.873819444401</v>
+        <v>44838.8738194444</v>
       </c>
       <c r="C4" s="1">
-        <v>44862.894594907397</v>
+        <v>44862.8945949074</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -1537,10 +2171,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>44846.707951388897</v>
+        <v>44846.7079513889</v>
       </c>
       <c r="C5" s="1">
-        <v>44883.434432870403</v>
+        <v>44883.4344328704</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
@@ -1593,10 +2227,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>44870.538877314801</v>
+        <v>44870.5388773148</v>
       </c>
       <c r="C6" s="1">
-        <v>44880.808692129598</v>
+        <v>44880.8086921296</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1649,10 +2283,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44881.777280092603</v>
+        <v>44881.7772800926</v>
       </c>
       <c r="C7" s="1">
-        <v>44882.864988425899</v>
+        <v>44882.8649884259</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
@@ -1705,7 +2339,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44826.723263888904</v>
+        <v>44826.7232638889</v>
       </c>
       <c r="C8" s="1">
         <v>44883.4352083333</v>
@@ -1761,10 +2395,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44826.723263888904</v>
+        <v>44826.7232638889</v>
       </c>
       <c r="C9" s="1">
-        <v>44883.435370370396</v>
+        <v>44883.4353703704</v>
       </c>
       <c r="E9" t="s">
         <v>48</v>
@@ -1817,7 +2451,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44826.723263888904</v>
+        <v>44826.7232638889</v>
       </c>
       <c r="C10" s="1">
         <v>44883.4355208333</v>
@@ -1876,7 +2510,7 @@
         <v>44838.877025463</v>
       </c>
       <c r="C11" s="1">
-        <v>44864.733287037001</v>
+        <v>44864.733287037</v>
       </c>
       <c r="E11" t="s">
         <v>54</v>
@@ -1929,10 +2563,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>44839.934328703697</v>
+        <v>44839.9343287037</v>
       </c>
       <c r="C12" s="1">
-        <v>44862.924189814803</v>
+        <v>44862.9241898148</v>
       </c>
       <c r="E12" t="s">
         <v>57</v>
@@ -1985,7 +2619,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>44844.410787036999</v>
+        <v>44844.410787037</v>
       </c>
       <c r="C13" s="1">
         <v>44862.9241203704</v>
@@ -2044,7 +2678,7 @@
         <v>44862.895787037</v>
       </c>
       <c r="C14" s="1">
-        <v>44870.493113425902</v>
+        <v>44870.4931134259</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
@@ -2097,10 +2731,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>44864.733217592599</v>
+        <v>44864.7332175926</v>
       </c>
       <c r="C15" s="1">
-        <v>44864.733217592599</v>
+        <v>44864.7332175926</v>
       </c>
       <c r="E15" t="s">
         <v>65</v>
@@ -2209,10 +2843,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>44862.925173611096</v>
+        <v>44862.9251736111</v>
       </c>
       <c r="C17" s="1">
-        <v>44863.569282407399</v>
+        <v>44863.5692824074</v>
       </c>
       <c r="E17" t="s">
         <v>71</v>
@@ -2265,10 +2899,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>44883.598217592596</v>
+        <v>44883.5982175926</v>
       </c>
       <c r="C18" s="1">
-        <v>44883.604062500002</v>
+        <v>44883.6040625</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2371,10 +3005,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>44883.641284722202</v>
+        <v>44883.6412847222</v>
       </c>
       <c r="C20" s="1">
-        <v>44883.641284722202</v>
+        <v>44883.6412847222</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2424,10 +3058,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>44883.633275462998</v>
+        <v>44883.633275463</v>
       </c>
       <c r="C21" s="1">
-        <v>44883.633275462998</v>
+        <v>44883.633275463</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2477,10 +3111,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>44883.641620370399</v>
+        <v>44883.6416203704</v>
       </c>
       <c r="C22" s="1">
-        <v>44883.641620370399</v>
+        <v>44883.6416203704</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2586,7 +3220,7 @@
         <v>44883.643275463</v>
       </c>
       <c r="C24" s="1">
-        <v>44883.646527777797</v>
+        <v>44883.6465277778</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2636,10 +3270,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>44883.643530092602</v>
+        <v>44883.6435300926</v>
       </c>
       <c r="C25" s="1">
-        <v>44883.643530092602</v>
+        <v>44883.6435300926</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2689,10 +3323,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>44883.643819444398</v>
+        <v>44883.6438194444</v>
       </c>
       <c r="C26" s="1">
-        <v>44883.643819444398</v>
+        <v>44883.6438194444</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2742,10 +3376,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>44883.644166666701</v>
+        <v>44883.6441666667</v>
       </c>
       <c r="C27" s="1">
-        <v>44883.644166666701</v>
+        <v>44883.6441666667</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2795,10 +3429,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>44883.644386574102</v>
+        <v>44883.6443865741</v>
       </c>
       <c r="C28" s="1">
-        <v>44883.644386574102</v>
+        <v>44883.6443865741</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2848,10 +3482,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>44883.644884259302</v>
+        <v>44883.6448842593</v>
       </c>
       <c r="C29" s="1">
-        <v>44883.644884259302</v>
+        <v>44883.6448842593</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2904,7 +3538,7 @@
         <v>44973.6896180556</v>
       </c>
       <c r="C30" s="1">
-        <v>44973.690972222197</v>
+        <v>44973.6909722222</v>
       </c>
       <c r="D30" t="s">
         <v>98</v>
@@ -2957,10 +3591,10 @@
         <v>39</v>
       </c>
       <c r="B31" s="1">
-        <v>44973.690277777801</v>
+        <v>44973.6902777778</v>
       </c>
       <c r="C31" s="1">
-        <v>44973.691400463002</v>
+        <v>44973.691400463</v>
       </c>
       <c r="E31" t="s">
         <v>101</v>
@@ -3013,10 +3647,10 @@
         <v>40</v>
       </c>
       <c r="B32" s="1">
-        <v>44973.717280092598</v>
+        <v>44973.7172800926</v>
       </c>
       <c r="C32" s="1">
-        <v>44973.719930555599</v>
+        <v>44973.7199305556</v>
       </c>
       <c r="E32" t="s">
         <v>104</v>
@@ -3069,10 +3703,10 @@
         <v>42</v>
       </c>
       <c r="B33" s="1">
-        <v>44978.987083333297</v>
+        <v>44978.9870833333</v>
       </c>
       <c r="C33" s="1">
-        <v>44978.987083333297</v>
+        <v>44978.9870833333</v>
       </c>
       <c r="E33" t="s">
         <v>107</v>
@@ -3125,10 +3759,10 @@
         <v>68</v>
       </c>
       <c r="B34" s="1">
-        <v>44889.630127314798</v>
+        <v>44889.6301273148</v>
       </c>
       <c r="C34" s="1">
-        <v>44889.641284722202</v>
+        <v>44889.6412847222</v>
       </c>
       <c r="D34" t="s">
         <v>110</v>
@@ -3181,10 +3815,10 @@
         <v>69</v>
       </c>
       <c r="B35" s="1">
-        <v>44889.630659722199</v>
+        <v>44889.6306597222</v>
       </c>
       <c r="C35" s="1">
-        <v>44889.641111111101</v>
+        <v>44889.6411111111</v>
       </c>
       <c r="E35" t="s">
         <v>114</v>
@@ -3232,26 +3866,139 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:22">
+      <c r="A36">
+        <v>73</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45102.6143055556</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45102.6143055556</v>
+      </c>
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36" t="s">
+        <v>119</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37">
+        <v>74</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45105.4541435185</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45105.4541435185</v>
+      </c>
+      <c r="E37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>13</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
+        <v>121</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="9.28571428571429" customWidth="1"/>
+    <col min="10" max="10" width="17.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3265,16 +4012,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -3294,16 +4041,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44786.457152777803</v>
+        <v>44786.4571527778</v>
       </c>
       <c r="C2" s="1">
-        <v>44843.627476851798</v>
+        <v>44843.6274768518</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3319,31 +4066,32 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="7" max="7" width="72.28515625" customWidth="1"/>
+    <col min="7" max="7" width="72.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.42857142857143" customWidth="1"/>
+    <col min="11" max="11" width="19.1428571428571" customWidth="1"/>
+    <col min="12" max="12" width="9.42857142857143" customWidth="1"/>
+    <col min="13" max="13" width="20.1428571428571" customWidth="1"/>
+    <col min="14" max="14" width="17.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3357,34 +4105,34 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="N1" t="s">
         <v>19</v>
@@ -3392,8 +4140,8 @@
       <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>284</v>
+      <c r="P1" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3401,22 +4149,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44784.845185185201</v>
+        <v>44784.8451851852</v>
       </c>
       <c r="C2" s="1">
-        <v>44888.896111111098</v>
+        <v>44888.8961111111</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
         <v>37</v>
@@ -3428,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M2" s="1"/>
       <c r="O2">
@@ -3439,30 +4187,31 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>137</v>
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3477,172 +4226,200 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="3.42857142857143" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="24.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="9.28571428571429" customWidth="1"/>
+    <col min="8" max="8" width="17.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44839.9192476852</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44842.5814351852</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44842.5816203704</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44842.5816203704</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44898.9917708333</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44898.9917708333</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44898.9924884259</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44898.9924884259</v>
+      </c>
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45102.7050925926</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45107.3913078704</v>
+      </c>
+      <c r="D6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.42857142857143" customWidth="1"/>
     <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44839.919247685197</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44842.581435185202</v>
-      </c>
-      <c r="D2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44842.581620370402</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44842.581620370402</v>
-      </c>
-      <c r="D3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44898.991770833301</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44898.991770833301</v>
-      </c>
-      <c r="D4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44898.992488425902</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44898.992488425902</v>
-      </c>
-      <c r="D5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3656,13 +4433,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -3671,10 +4448,10 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="K1" t="s">
         <v>19</v>
@@ -3685,17 +4462,20 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>44841.503692129598</v>
+        <v>44841.5053587963</v>
       </c>
       <c r="C2" s="1">
-        <v>44841.503692129598</v>
+        <v>44841.5055787037</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -3703,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="J2" t="s">
         <v>25</v>
@@ -3714,13 +4494,13 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>44841.505358796298</v>
+        <v>44842.5802314815</v>
       </c>
       <c r="C3" s="1">
-        <v>44841.505578703698</v>
+        <v>44842.5802314815</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3732,13 +4512,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3746,31 +4526,31 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>44842.580231481501</v>
+        <v>44842.5869791667</v>
       </c>
       <c r="C4" s="1">
-        <v>44842.580231481501</v>
+        <v>44842.5872453704</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3778,16 +4558,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>44842.586979166699</v>
+        <v>44842.5870833333</v>
       </c>
       <c r="C5" s="1">
-        <v>44842.5872453704</v>
+        <v>44842.5870833333</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -3796,13 +4576,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -3810,13 +4590,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>44842.587083333303</v>
+        <v>44842.5871759259</v>
       </c>
       <c r="C6" s="1">
-        <v>44842.587083333303</v>
+        <v>44842.5871759259</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3828,13 +4608,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3842,31 +4622,31 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>44842.587175925903</v>
+        <v>44898.9920486111</v>
       </c>
       <c r="C7" s="1">
-        <v>44842.587175925903</v>
+        <v>44898.9920486111</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3874,13 +4654,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>44898.9920486111</v>
+        <v>44898.9922106482</v>
       </c>
       <c r="C8" s="1">
-        <v>44898.9920486111</v>
+        <v>44898.9922106482</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3892,13 +4672,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3906,31 +4686,31 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>44898.992210648197</v>
+        <v>44898.9926388889</v>
       </c>
       <c r="C9" s="1">
-        <v>44898.992210648197</v>
+        <v>44898.9926388889</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -3938,13 +4718,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>44898.9926388889</v>
+        <v>44898.9928356482</v>
       </c>
       <c r="C10" s="1">
-        <v>44898.9926388889</v>
+        <v>44898.9928356482</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3956,13 +4736,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -3970,31 +4750,31 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>44898.992835648198</v>
+        <v>44980.9506597222</v>
       </c>
       <c r="C11" s="1">
-        <v>44898.992835648198</v>
+        <v>44980.9537731481</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4002,44 +4782,109 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>44980.950659722199</v>
+        <v>45102.7056712963</v>
       </c>
       <c r="C12" s="1">
-        <v>44980.953773148103</v>
+        <v>45103.6612847222</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45102.7065740741</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45102.7065740741</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45102.706724537</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45103.661400463</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="I12" t="s">
-        <v>162</v>
-      </c>
-      <c r="J12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12">
+      <c r="I14" t="s">
+        <v>176</v>
+      </c>
+      <c r="J14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4049,12 +4894,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="12.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="10.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="8.14285714285714" customWidth="1"/>
+    <col min="9" max="9" width="17.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4074,16 +4919,16 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="I1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -4097,25 +4942,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="C2" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="I2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4129,25 +4974,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="C3" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="I3" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4161,25 +5006,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="C4" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="E4" t="s">
         <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="I4" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -4193,25 +5038,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="C5" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="E5" t="s">
         <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="I5" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4225,25 +5070,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="C6" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="I6" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -4257,25 +5102,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44873.393229166701</v>
+        <v>44873.3932291667</v>
       </c>
       <c r="C7" s="1">
-        <v>44873.393229166701</v>
+        <v>44873.3932291667</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="I7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -4289,25 +5134,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44873.393449074101</v>
+        <v>44873.3934490741</v>
       </c>
       <c r="C8" s="1">
-        <v>44873.393449074101</v>
+        <v>44873.3934490741</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="I8" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -4321,13 +5166,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44882.803460648101</v>
+        <v>44882.8034606481</v>
       </c>
       <c r="C9" s="1">
-        <v>44882.803460648101</v>
+        <v>44882.8034606481</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F9" t="s">
         <v>44</v>
@@ -4339,7 +5184,7 @@
         <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4353,25 +5198,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44971.953680555598</v>
+        <v>44971.9536805556</v>
       </c>
       <c r="C10" s="1">
-        <v>44971.953680555598</v>
+        <v>44971.9536805556</v>
       </c>
       <c r="E10" t="s">
         <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="I10" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -4385,25 +5230,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>44971.953680555598</v>
+        <v>44971.9536805556</v>
       </c>
       <c r="C11" s="1">
-        <v>44971.953680555598</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>272</v>
+        <v>44971.9536805556</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>274</v>
+      <c r="H11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4413,13 +5258,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4428,10 +5274,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="43.140625" customWidth="1"/>
+    <col min="2" max="3" width="20.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="17.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="23.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="43.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="98" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4449,19 +5295,19 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="H1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -4478,16 +5324,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C2" s="1">
-        <v>44984.400081018503</v>
+        <v>44984.4000810185</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -4507,16 +5353,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C3" s="1">
-        <v>44984.400081018503</v>
+        <v>44984.4000810185</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G3" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -4536,16 +5382,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C4" s="1">
-        <v>44984.400081018503</v>
+        <v>44984.4000810185</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G4" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -4565,16 +5411,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C5" s="1">
-        <v>44942.757025462997</v>
+        <v>44942.757025463</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G5" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -4594,16 +5440,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C6" s="1">
-        <v>44984.400081018503</v>
+        <v>44984.4000810185</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G6" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -4623,16 +5469,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C7" s="1">
-        <v>44984.400081018503</v>
+        <v>44984.4000810185</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -4649,19 +5495,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44865.868032407401</v>
+        <v>44865.8680324074</v>
       </c>
       <c r="C8" s="1">
-        <v>44887.691469907397</v>
+        <v>44887.6914699074</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="H8" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -4678,19 +5524,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44869.576631944401</v>
+        <v>44869.5766319444</v>
       </c>
       <c r="C9" s="1">
-        <v>44965.452013888898</v>
+        <v>44965.4520138889</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G9" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -4707,19 +5553,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44869.577037037001</v>
+        <v>44869.577037037</v>
       </c>
       <c r="C10" s="1">
-        <v>44869.679618055503</v>
+        <v>44869.6796180555</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="G10" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -4736,16 +5582,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>44873.394305555601</v>
+        <v>44873.3943055556</v>
       </c>
       <c r="C11" s="1">
-        <v>44873.394305555601</v>
+        <v>44873.3943055556</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -4762,16 +5608,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>44873.394861111097</v>
+        <v>44873.3948611111</v>
       </c>
       <c r="C12" s="1">
-        <v>44873.394861111097</v>
+        <v>44873.3948611111</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="F12" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -4788,19 +5634,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>44873.397835648102</v>
+        <v>44873.3978356481</v>
       </c>
       <c r="C13" s="1">
-        <v>44873.397835648102</v>
+        <v>44873.3978356481</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="F13" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H13" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -4817,19 +5663,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>44873.404872685198</v>
+        <v>44873.4048726852</v>
       </c>
       <c r="C14" s="1">
-        <v>44873.404872685198</v>
+        <v>44873.4048726852</v>
       </c>
       <c r="E14" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F14" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H14" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -4846,19 +5692,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>44873.948194444398</v>
+        <v>44873.9481944444</v>
       </c>
       <c r="C15" s="1">
-        <v>44873.948194444398</v>
+        <v>44873.9481944444</v>
       </c>
       <c r="E15" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="F15" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="G15" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="I15">
         <v>6</v>
@@ -4875,19 +5721,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>44873.948611111096</v>
+        <v>44873.9486111111</v>
       </c>
       <c r="C16" s="1">
-        <v>44873.948611111096</v>
+        <v>44873.9486111111</v>
       </c>
       <c r="E16" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F16" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -4904,19 +5750,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>44880.940173611103</v>
+        <v>44880.9401736111</v>
       </c>
       <c r="C17" s="1">
-        <v>44880.940173611103</v>
+        <v>44880.9401736111</v>
       </c>
       <c r="E17" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="F17" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="H17" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -4933,19 +5779,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>44880.941412036998</v>
+        <v>44880.941412037</v>
       </c>
       <c r="C18" s="1">
-        <v>44880.941412036998</v>
+        <v>44880.941412037</v>
       </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F18" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="H18" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -4968,13 +5814,13 @@
         <v>44882.8044212963</v>
       </c>
       <c r="E19" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="F19" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="H19" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="I19">
         <v>8</v>
@@ -4991,22 +5837,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>44882.805381944403</v>
+        <v>44882.8053819444</v>
       </c>
       <c r="C20" s="1">
-        <v>44882.805381944403</v>
+        <v>44882.8053819444</v>
       </c>
       <c r="E20" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F20" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G20" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="H20" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -5023,22 +5869,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>44882.805740740703</v>
+        <v>44882.8057407407</v>
       </c>
       <c r="C21" s="1">
-        <v>44882.805740740703</v>
+        <v>44882.8057407407</v>
       </c>
       <c r="E21" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="F21" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="G21" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="H21" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -5055,22 +5901,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>44882.814594907402</v>
+        <v>44882.8145949074</v>
       </c>
       <c r="C22" s="1">
-        <v>44882.814594907402</v>
+        <v>44882.8145949074</v>
       </c>
       <c r="E22" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="F22" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="G22" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="H22" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="I22">
         <v>8</v>
@@ -5087,22 +5933,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>44882.815324074101</v>
+        <v>44882.8153240741</v>
       </c>
       <c r="C23" s="1">
-        <v>44882.815324074101</v>
+        <v>44882.8153240741</v>
       </c>
       <c r="E23" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F23" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G23" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H23" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="I23">
         <v>8</v>
@@ -5119,22 +5965,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>44882.816689814797</v>
+        <v>44882.8166898148</v>
       </c>
       <c r="C24" s="1">
-        <v>44882.816689814797</v>
+        <v>44882.8166898148</v>
       </c>
       <c r="E24" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="G24" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="H24" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="I24">
         <v>8</v>
@@ -5151,19 +5997,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>44971.954965277801</v>
+        <v>44971.9549652778</v>
       </c>
       <c r="C25" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E25" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="F25" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="G25" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="I25">
         <v>9</v>
@@ -5180,16 +6026,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>44971.955520833297</v>
+        <v>44971.9555208333</v>
       </c>
       <c r="C26" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E26" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="F26" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="I26">
         <v>9</v>
@@ -5206,19 +6052,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>44971.956076388902</v>
+        <v>44971.9560763889</v>
       </c>
       <c r="C27" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E27" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="F27" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="G27" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="I27">
         <v>9</v>
@@ -5235,16 +6081,16 @@
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>44983.917581018497</v>
+        <v>44983.9175810185</v>
       </c>
       <c r="C28" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E28" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="I28">
         <v>9</v>
@@ -5261,16 +6107,16 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>44983.917893518497</v>
+        <v>44983.9178935185</v>
       </c>
       <c r="C29" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E29" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="I29">
         <v>9</v>
@@ -5287,18 +6133,18 @@
         <v>34</v>
       </c>
       <c r="B30" s="1">
-        <v>44983.917893518497</v>
+        <v>44983.9178935185</v>
       </c>
       <c r="C30" s="1">
-        <v>44984.409745370402</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>275</v>
+        <v>44984.4097453704</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="F30" t="s">
-        <v>276</v>
-      </c>
-      <c r="G30" s="4"/>
+        <v>289</v>
+      </c>
+      <c r="G30" s="3"/>
       <c r="I30">
         <v>10</v>
       </c>
@@ -5314,18 +6160,18 @@
         <v>35</v>
       </c>
       <c r="B31" s="1">
-        <v>44983.917893518497</v>
+        <v>44983.9178935185</v>
       </c>
       <c r="C31" s="1">
-        <v>44984.409745370402</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>277</v>
+        <v>44984.4097453704</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="F31" t="s">
-        <v>278</v>
-      </c>
-      <c r="G31" s="5"/>
+        <v>291</v>
+      </c>
+      <c r="G31" s="4"/>
       <c r="I31">
         <v>10</v>
       </c>
@@ -5341,19 +6187,19 @@
         <v>36</v>
       </c>
       <c r="B32" s="1">
-        <v>44983.917893518497</v>
+        <v>44983.9178935185</v>
       </c>
       <c r="C32" s="1">
-        <v>44984.409745370402</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>279</v>
+        <v>44984.4097453704</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>281</v>
+        <v>293</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="I32">
         <v>10</v>
@@ -5370,18 +6216,18 @@
         <v>37</v>
       </c>
       <c r="B33" s="1">
-        <v>44983.917893518497</v>
+        <v>44983.9178935185</v>
       </c>
       <c r="C33" s="1">
-        <v>44984.409745370402</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>282</v>
+        <v>44984.4097453704</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="F33" t="s">
-        <v>283</v>
-      </c>
-      <c r="G33" s="5">
+        <v>296</v>
+      </c>
+      <c r="G33" s="4">
         <v>25</v>
       </c>
       <c r="I33">
@@ -5395,8 +6241,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/kinit-api/scripts/initialize/data/init.xlsx
+++ b/kinit-api/scripts/initialize/data/init.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\ktianc\project\kinit-pro\kinit-api\scripts\initialize\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D5C1B7-13DD-4063-BA39-3F400B8D3C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="887" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="887" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vadmin_auth_menu" sheetId="1" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="294">
   <si>
     <t>id</t>
   </si>
@@ -201,15 +207,6 @@
   </si>
   <si>
     <t>字典详情</t>
-  </si>
-  <si>
-    <t>views/Home/Home</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>个人主页</t>
   </si>
   <si>
     <t>record</t>
@@ -453,7 +450,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>u</t>
     </r>
@@ -461,7 +458,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ser_id</t>
     </r>
@@ -471,7 +468,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>r</t>
     </r>
@@ -479,7 +476,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ole_id</t>
     </r>
@@ -948,15 +945,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -978,347 +971,23 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1326,315 +995,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1892,36 +1279,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:V37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="28.2857142857143" customWidth="1"/>
-    <col min="5" max="6" width="47.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="11.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="19.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="10.1428571428571" customWidth="1"/>
-    <col min="11" max="11" width="23.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="12.5714285714286" customWidth="1"/>
-    <col min="14" max="14" width="23.1428571428571" customWidth="1"/>
-    <col min="15" max="15" width="12.5714285714286" customWidth="1"/>
-    <col min="17" max="17" width="19.8571428571429" customWidth="1"/>
-    <col min="18" max="18" width="17.4285714285714" customWidth="1"/>
-    <col min="19" max="19" width="12.7142857142857" customWidth="1"/>
-    <col min="20" max="20" width="17.4285714285714" customWidth="1"/>
-    <col min="21" max="21" width="12.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="6" width="47.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -1997,10 +1384,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44786.4559259259</v>
+        <v>44786.455925925897</v>
       </c>
       <c r="C2" s="1">
-        <v>44883.4343171296</v>
+        <v>44883.434317129599</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -2056,10 +1443,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44826.9540740741</v>
+        <v>44826.954074074099</v>
       </c>
       <c r="C3" s="1">
-        <v>44883.4346064815</v>
+        <v>44883.434606481504</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -2115,10 +1502,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44838.8738194444</v>
+        <v>44838.873819444401</v>
       </c>
       <c r="C4" s="1">
-        <v>44862.8945949074</v>
+        <v>44862.894594907397</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -2171,10 +1558,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>44846.7079513889</v>
+        <v>44846.707951388897</v>
       </c>
       <c r="C5" s="1">
-        <v>44883.4344328704</v>
+        <v>44883.434432870403</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
@@ -2227,10 +1614,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>44870.5388773148</v>
+        <v>44870.538877314801</v>
       </c>
       <c r="C6" s="1">
-        <v>44880.8086921296</v>
+        <v>44880.808692129598</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -2283,10 +1670,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44881.7772800926</v>
+        <v>44881.777280092603</v>
       </c>
       <c r="C7" s="1">
-        <v>44882.8649884259</v>
+        <v>44882.864988425899</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
@@ -2339,7 +1726,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44826.7232638889</v>
+        <v>44826.723263888904</v>
       </c>
       <c r="C8" s="1">
         <v>44883.4352083333</v>
@@ -2395,10 +1782,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44826.7232638889</v>
+        <v>44826.723263888904</v>
       </c>
       <c r="C9" s="1">
-        <v>44883.4353703704</v>
+        <v>44883.435370370396</v>
       </c>
       <c r="E9" t="s">
         <v>48</v>
@@ -2451,7 +1838,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44826.7232638889</v>
+        <v>44826.723263888904</v>
       </c>
       <c r="C10" s="1">
         <v>44883.4355208333</v>
@@ -2510,7 +1897,7 @@
         <v>44838.877025463</v>
       </c>
       <c r="C11" s="1">
-        <v>44864.733287037</v>
+        <v>44864.733287037001</v>
       </c>
       <c r="E11" t="s">
         <v>54</v>
@@ -2563,10 +1950,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>44839.9343287037</v>
+        <v>44839.934328703697</v>
       </c>
       <c r="C12" s="1">
-        <v>44862.9241898148</v>
+        <v>44862.924189814803</v>
       </c>
       <c r="E12" t="s">
         <v>57</v>
@@ -2616,31 +2003,31 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>44844.410787037</v>
+        <v>44862.895787037</v>
       </c>
       <c r="C13" s="1">
-        <v>44862.9241203704</v>
+        <v>44870.493113425902</v>
       </c>
       <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
         <v>60</v>
       </c>
-      <c r="F13" t="s">
-        <v>61</v>
-      </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I13">
         <v>3</v>
       </c>
       <c r="K13">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2661,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -2672,16 +2059,16 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>44862.895787037</v>
+        <v>44864.733217592599</v>
       </c>
       <c r="C14" s="1">
-        <v>44870.4931134259</v>
+        <v>44864.733217592599</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
         <v>63</v>
@@ -2690,13 +2077,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2728,13 +2115,13 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>44864.7332175926</v>
+        <v>44862.8991550926</v>
       </c>
       <c r="C15" s="1">
-        <v>44864.7332175926</v>
+        <v>44862.9000578704</v>
       </c>
       <c r="E15" t="s">
         <v>65</v>
@@ -2749,7 +2136,7 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2784,13 +2171,13 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>44862.8991550926</v>
+        <v>44862.925173611096</v>
       </c>
       <c r="C16" s="1">
-        <v>44862.9000578704</v>
+        <v>44863.569282407399</v>
       </c>
       <c r="E16" t="s">
         <v>68</v>
@@ -2808,7 +2195,7 @@
         <v>13</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2840,31 +2227,28 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>44862.9251736111</v>
+        <v>44883.598217592596</v>
       </c>
       <c r="C17" s="1">
-        <v>44863.5692824074</v>
-      </c>
-      <c r="E17" t="s">
+        <v>44883.604062500002</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>71</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
         <v>72</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17">
-        <v>13</v>
-      </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2896,49 +2280,49 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>44883.5982175926</v>
+        <v>44883.6410300926</v>
       </c>
       <c r="C18" s="1">
-        <v>44883.6040625</v>
+        <v>44883.6410300926</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I18">
         <v>7</v>
       </c>
       <c r="J18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
         <v>75</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>76</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2949,49 +2333,49 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>44883.6410300926</v>
+        <v>44883.641284722202</v>
       </c>
       <c r="C19" s="1">
-        <v>44883.6410300926</v>
+        <v>44883.641284722202</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I19">
         <v>7</v>
       </c>
       <c r="J19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
         <v>77</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
-        <v>78</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -3002,49 +2386,49 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>44883.6412847222</v>
+        <v>44883.633275462998</v>
       </c>
       <c r="C20" s="1">
-        <v>44883.6412847222</v>
+        <v>44883.633275462998</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
         <v>79</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
-        <v>80</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -3055,49 +2439,49 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>44883.633275463</v>
+        <v>44883.641620370399</v>
       </c>
       <c r="C21" s="1">
-        <v>44883.633275463</v>
+        <v>44883.641620370399</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I21">
         <v>8</v>
       </c>
       <c r="J21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21" t="s">
         <v>81</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>82</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -3108,28 +2492,28 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>44883.6416203704</v>
+        <v>44883.6417939815</v>
       </c>
       <c r="C22" s="1">
-        <v>44883.6416203704</v>
+        <v>44883.6417939815</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I22">
         <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3150,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -3161,28 +2545,28 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>44883.6417939815</v>
+        <v>44883.643275463</v>
       </c>
       <c r="C23" s="1">
-        <v>44883.6417939815</v>
+        <v>44883.646527777797</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3203,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -3214,49 +2598,49 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>44883.643275463</v>
+        <v>44883.643530092602</v>
       </c>
       <c r="C24" s="1">
-        <v>44883.6465277778</v>
+        <v>44883.643530092602</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24">
         <v>9</v>
       </c>
       <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
         <v>86</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
-        <v>87</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -3267,49 +2651,49 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>44883.6435300926</v>
+        <v>44883.643819444398</v>
       </c>
       <c r="C25" s="1">
-        <v>44883.6435300926</v>
+        <v>44883.643819444398</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I25">
         <v>9</v>
       </c>
       <c r="J25" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
         <v>88</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25" t="s">
-        <v>89</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -3320,49 +2704,49 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>44883.6438194444</v>
+        <v>44883.644166666701</v>
       </c>
       <c r="C26" s="1">
-        <v>44883.6438194444</v>
+        <v>44883.644166666701</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I26">
         <v>9</v>
       </c>
       <c r="J26" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
         <v>90</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26" t="s">
-        <v>91</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -3373,49 +2757,49 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>44883.6441666667</v>
+        <v>44883.644386574102</v>
       </c>
       <c r="C27" s="1">
-        <v>44883.6441666667</v>
+        <v>44883.644386574102</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I27">
         <v>9</v>
       </c>
       <c r="J27" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
         <v>92</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27" t="s">
-        <v>93</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -3426,49 +2810,49 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>44883.6443865741</v>
+        <v>44883.644884259302</v>
       </c>
       <c r="C28" s="1">
-        <v>44883.6443865741</v>
+        <v>44883.644884259302</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I28">
         <v>9</v>
       </c>
       <c r="J28" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
         <v>94</v>
-      </c>
-      <c r="K28">
-        <v>4</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28" t="s">
-        <v>95</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -3479,28 +2863,31 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1">
-        <v>44883.6448842593</v>
+        <v>44973.6896180556</v>
       </c>
       <c r="C29" s="1">
-        <v>44883.6448842593</v>
+        <v>44973.690972222197</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>96</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29">
-        <v>9</v>
-      </c>
-      <c r="J29" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3524,7 +2911,7 @@
         <v>97</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3532,19 +2919,16 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1">
-        <v>44973.6896180556</v>
+        <v>44973.690277777801</v>
       </c>
       <c r="C30" s="1">
-        <v>44973.6909722222</v>
-      </c>
-      <c r="D30" t="s">
+        <v>44973.691400463002</v>
+      </c>
+      <c r="E30" t="s">
         <v>98</v>
-      </c>
-      <c r="E30" t="s">
-        <v>23</v>
       </c>
       <c r="F30" t="s">
         <v>99</v>
@@ -3553,10 +2937,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="I30">
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3580,7 +2967,7 @@
         <v>100</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3588,13 +2975,13 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1">
-        <v>44973.6902777778</v>
+        <v>44973.717280092598</v>
       </c>
       <c r="C31" s="1">
-        <v>44973.691400463</v>
+        <v>44973.719930555599</v>
       </c>
       <c r="E31" t="s">
         <v>101</v>
@@ -3612,7 +2999,7 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3644,13 +3031,13 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1">
-        <v>44973.7172800926</v>
+        <v>44978.987083333297</v>
       </c>
       <c r="C32" s="1">
-        <v>44973.7199305556</v>
+        <v>44978.987083333297</v>
       </c>
       <c r="E32" t="s">
         <v>104</v>
@@ -3659,7 +3046,7 @@
         <v>105</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
         <v>37</v>
@@ -3668,7 +3055,7 @@
         <v>38</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3700,35 +3087,35 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1">
-        <v>44978.9870833333</v>
+        <v>44889.630127314798</v>
       </c>
       <c r="C33" s="1">
-        <v>44978.9870833333</v>
-      </c>
-      <c r="E33" t="s">
+        <v>44889.641284722202</v>
+      </c>
+      <c r="D33" t="s">
         <v>107</v>
       </c>
       <c r="F33" t="s">
         <v>108</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K33">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
+      <c r="M33" t="s">
+        <v>109</v>
+      </c>
       <c r="N33">
         <v>0</v>
       </c>
@@ -3745,10 +3132,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3756,34 +3143,34 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34">
+        <v>69</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44889.630659722199</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44889.641111111101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34">
         <v>68</v>
       </c>
-      <c r="B34" s="1">
-        <v>44889.6301273148</v>
-      </c>
-      <c r="C34" s="1">
-        <v>44889.6412847222</v>
-      </c>
-      <c r="D34" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" t="s">
-        <v>111</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>25</v>
-      </c>
       <c r="K34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>112</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3804,7 +3191,7 @@
         <v>113</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3812,13 +3199,13 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B35" s="1">
-        <v>44889.6306597222</v>
+        <v>45102.614305555602</v>
       </c>
       <c r="C35" s="1">
-        <v>44889.6411111111</v>
+        <v>45102.614305555602</v>
       </c>
       <c r="E35" t="s">
         <v>114</v>
@@ -3829,14 +3216,14 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" t="s">
-        <v>37</v>
+      <c r="H35" s="4">
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3868,53 +3255,53 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B36" s="1">
-        <v>45102.6143055556</v>
+        <v>45105.454143518502</v>
       </c>
       <c r="C36" s="1">
-        <v>45102.6143055556</v>
+        <v>45105.454143518502</v>
       </c>
       <c r="E36" t="s">
         <v>117</v>
       </c>
       <c r="F36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>13</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36" t="s">
         <v>118</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36" t="s">
-        <v>119</v>
-      </c>
       <c r="U36">
         <v>0</v>
       </c>
@@ -3922,83 +3309,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
-      <c r="A37">
-        <v>74</v>
-      </c>
-      <c r="B37" s="1">
-        <v>45105.4541435185</v>
-      </c>
-      <c r="C37" s="1">
-        <v>45105.4541435185</v>
-      </c>
-      <c r="E37" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>13</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37" t="s">
-        <v>121</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="10.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="9.28571428571429" customWidth="1"/>
-    <col min="10" max="10" width="17.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4012,16 +3342,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
         <v>122</v>
-      </c>
-      <c r="E1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" t="s">
-        <v>125</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -4041,16 +3371,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44786.4571527778</v>
+        <v>44786.457152777803</v>
       </c>
       <c r="C2" s="1">
-        <v>44843.6274768518</v>
+        <v>44843.627476851798</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4066,32 +3396,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="7" max="7" width="72.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="72.28515625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="9.42857142857143" customWidth="1"/>
-    <col min="11" max="11" width="19.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="9.42857142857143" customWidth="1"/>
-    <col min="13" max="13" width="20.1428571428571" customWidth="1"/>
-    <col min="14" max="14" width="17.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4105,34 +3434,34 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>129</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>130</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>131</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>132</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>133</v>
-      </c>
-      <c r="K1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L1" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" t="s">
-        <v>136</v>
       </c>
       <c r="N1" t="s">
         <v>19</v>
@@ -4141,7 +3470,7 @@
         <v>21</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4149,22 +3478,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44784.8451851852</v>
+        <v>44784.845185185201</v>
       </c>
       <c r="C2" s="1">
-        <v>44888.8961111111</v>
+        <v>44888.896111111098</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
         <v>37</v>
@@ -4176,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M2" s="1"/>
       <c r="O2">
@@ -4187,31 +3516,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4226,29 +3554,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42857142857143" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="11.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="24.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="9.28571428571429" customWidth="1"/>
-    <col min="8" max="8" width="17.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4262,13 +3589,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -4285,16 +3612,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44839.9192476852</v>
+        <v>44839.919247685197</v>
       </c>
       <c r="C2" s="1">
-        <v>44842.5814351852</v>
+        <v>44842.581435185202</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4308,16 +3635,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44842.5816203704</v>
+        <v>44842.581620370402</v>
       </c>
       <c r="C3" s="1">
-        <v>44842.5816203704</v>
+        <v>44842.581620370402</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -4331,16 +3658,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44898.9917708333</v>
+        <v>44898.991770833301</v>
       </c>
       <c r="C4" s="1">
-        <v>44898.9917708333</v>
+        <v>44898.991770833301</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4354,16 +3681,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>44898.9924884259</v>
+        <v>44898.992488425902</v>
       </c>
       <c r="C5" s="1">
-        <v>44898.9924884259</v>
+        <v>44898.992488425902</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4377,19 +3704,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>45102.7050925926</v>
+        <v>45102.705092592601</v>
       </c>
       <c r="C6" s="1">
-        <v>45107.3913078704</v>
+        <v>45107.391307870399</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4399,27 +3726,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42857142857143" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="10.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="9" max="9" width="17.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4433,13 +3759,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -4448,10 +3774,10 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K1" t="s">
         <v>19</v>
@@ -4465,10 +3791,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>44841.5053587963</v>
+        <v>44841.505358796298</v>
       </c>
       <c r="C2" s="1">
-        <v>44841.5055787037</v>
+        <v>44841.505578703698</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4483,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J2" t="s">
         <v>25</v>
@@ -4497,10 +3823,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>44842.5802314815</v>
+        <v>44842.580231481501</v>
       </c>
       <c r="C3" s="1">
-        <v>44842.5802314815</v>
+        <v>44842.580231481501</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4515,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J3" t="s">
         <v>37</v>
@@ -4529,7 +3855,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>44842.5869791667</v>
+        <v>44842.586979166699</v>
       </c>
       <c r="C4" s="1">
         <v>44842.5872453704</v>
@@ -4547,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J4" t="s">
         <v>25</v>
@@ -4561,10 +3887,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>44842.5870833333</v>
+        <v>44842.587083333303</v>
       </c>
       <c r="C5" s="1">
-        <v>44842.5870833333</v>
+        <v>44842.587083333303</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4579,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J5" t="s">
         <v>37</v>
@@ -4593,10 +3919,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>44842.5871759259</v>
+        <v>44842.587175925903</v>
       </c>
       <c r="C6" s="1">
-        <v>44842.5871759259</v>
+        <v>44842.587175925903</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4611,10 +3937,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -4643,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J7" t="s">
         <v>25</v>
@@ -4657,10 +3983,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>44898.9922106482</v>
+        <v>44898.992210648197</v>
       </c>
       <c r="C8" s="1">
-        <v>44898.9922106482</v>
+        <v>44898.992210648197</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4675,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J8" t="s">
         <v>37</v>
@@ -4707,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J9" t="s">
         <v>25</v>
@@ -4721,10 +4047,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>44898.9928356482</v>
+        <v>44898.992835648198</v>
       </c>
       <c r="C10" s="1">
-        <v>44898.9928356482</v>
+        <v>44898.992835648198</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4739,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J10" t="s">
         <v>37</v>
@@ -4753,10 +4079,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>44980.9506597222</v>
+        <v>44980.950659722199</v>
       </c>
       <c r="C11" s="1">
-        <v>44980.9537731481</v>
+        <v>44980.953773148103</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4771,10 +4097,10 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4785,10 +4111,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>45102.7056712963</v>
+        <v>45102.705671296302</v>
       </c>
       <c r="C12" s="1">
-        <v>45103.6612847222</v>
+        <v>45103.661284722199</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4803,10 +4129,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4817,10 +4143,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>45102.7065740741</v>
+        <v>45102.706574074102</v>
       </c>
       <c r="C13" s="1">
-        <v>45102.7065740741</v>
+        <v>45102.706574074102</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4835,10 +4161,10 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -4849,10 +4175,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>45102.706724537</v>
+        <v>45102.706724536998</v>
       </c>
       <c r="C14" s="1">
-        <v>45103.661400463</v>
+        <v>45103.661400463003</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4867,24 +4193,23 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4894,12 +4219,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="12.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="10.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="8.14285714285714" customWidth="1"/>
-    <col min="9" max="9" width="17.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4919,16 +4244,16 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -4942,25 +4267,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="C2" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4974,25 +4299,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="C3" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" t="s">
         <v>182</v>
-      </c>
-      <c r="I3" t="s">
-        <v>185</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -5006,25 +4331,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="C4" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -5038,25 +4363,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="C5" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -5070,25 +4395,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="C6" s="1">
-        <v>44865.8282986111</v>
+        <v>44865.828298611101</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5102,25 +4427,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44873.3932291667</v>
+        <v>44873.393229166701</v>
       </c>
       <c r="C7" s="1">
-        <v>44873.3932291667</v>
+        <v>44873.393229166701</v>
       </c>
       <c r="E7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7" t="s">
         <v>192</v>
-      </c>
-      <c r="F7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>194</v>
-      </c>
-      <c r="I7" t="s">
-        <v>195</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -5134,25 +4459,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44873.3934490741</v>
+        <v>44873.393449074101</v>
       </c>
       <c r="C8" s="1">
-        <v>44873.3934490741</v>
+        <v>44873.393449074101</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8" t="s">
         <v>194</v>
-      </c>
-      <c r="I8" t="s">
-        <v>197</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -5166,13 +4491,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44882.8034606481</v>
+        <v>44882.803460648101</v>
       </c>
       <c r="C9" s="1">
-        <v>44882.8034606481</v>
+        <v>44882.803460648101</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F9" t="s">
         <v>44</v>
@@ -5184,7 +4509,7 @@
         <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -5198,25 +4523,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44971.9536805556</v>
+        <v>44971.953680555598</v>
       </c>
       <c r="C10" s="1">
-        <v>44971.9536805556</v>
+        <v>44971.953680555598</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -5230,25 +4555,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>44971.9536805556</v>
+        <v>44971.953680555598</v>
       </c>
       <c r="C11" s="1">
-        <v>44971.9536805556</v>
+        <v>44971.953680555598</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5258,14 +4583,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5274,10 +4598,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="20.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="17.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="23.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="43.1428571428571" customWidth="1"/>
+    <col min="2" max="3" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" customWidth="1"/>
     <col min="8" max="8" width="98" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5295,19 +4619,19 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
         <v>204</v>
-      </c>
-      <c r="F1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I1" t="s">
-        <v>207</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -5324,16 +4648,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C2" s="1">
-        <v>44984.4000810185</v>
+        <v>44984.400081018503</v>
       </c>
       <c r="E2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5353,16 +4677,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C3" s="1">
-        <v>44984.4000810185</v>
+        <v>44984.400081018503</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5382,16 +4706,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C4" s="1">
-        <v>44984.4000810185</v>
+        <v>44984.400081018503</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5411,16 +4735,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C5" s="1">
-        <v>44942.757025463</v>
+        <v>44942.757025462997</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5440,16 +4764,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C6" s="1">
-        <v>44984.4000810185</v>
+        <v>44984.400081018503</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5469,16 +4793,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C7" s="1">
-        <v>44984.4000810185</v>
+        <v>44984.400081018503</v>
       </c>
       <c r="E7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5495,19 +4819,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44865.8680324074</v>
+        <v>44865.868032407401</v>
       </c>
       <c r="C8" s="1">
-        <v>44887.6914699074</v>
+        <v>44887.691469907397</v>
       </c>
       <c r="E8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -5524,19 +4848,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44869.5766319444</v>
+        <v>44869.576631944401</v>
       </c>
       <c r="C9" s="1">
-        <v>44965.4520138889</v>
+        <v>44965.452013888898</v>
       </c>
       <c r="E9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -5553,19 +4877,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44869.577037037</v>
+        <v>44869.577037037001</v>
       </c>
       <c r="C10" s="1">
-        <v>44869.6796180555</v>
+        <v>44869.679618055503</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -5582,16 +4906,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>44873.3943055556</v>
+        <v>44873.394305555601</v>
       </c>
       <c r="C11" s="1">
-        <v>44873.3943055556</v>
+        <v>44873.394305555601</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -5608,16 +4932,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>44873.3948611111</v>
+        <v>44873.394861111097</v>
       </c>
       <c r="C12" s="1">
-        <v>44873.3948611111</v>
+        <v>44873.394861111097</v>
       </c>
       <c r="E12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -5634,19 +4958,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>44873.3978356481</v>
+        <v>44873.397835648102</v>
       </c>
       <c r="C13" s="1">
-        <v>44873.3978356481</v>
+        <v>44873.397835648102</v>
       </c>
       <c r="E13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -5663,19 +4987,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>44873.4048726852</v>
+        <v>44873.404872685198</v>
       </c>
       <c r="C14" s="1">
-        <v>44873.4048726852</v>
+        <v>44873.404872685198</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -5692,19 +5016,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>44873.9481944444</v>
+        <v>44873.948194444398</v>
       </c>
       <c r="C15" s="1">
-        <v>44873.9481944444</v>
+        <v>44873.948194444398</v>
       </c>
       <c r="E15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I15">
         <v>6</v>
@@ -5721,19 +5045,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>44873.9486111111</v>
+        <v>44873.948611111096</v>
       </c>
       <c r="C16" s="1">
-        <v>44873.9486111111</v>
+        <v>44873.948611111096</v>
       </c>
       <c r="E16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -5750,19 +5074,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>44880.9401736111</v>
+        <v>44880.940173611103</v>
       </c>
       <c r="C17" s="1">
-        <v>44880.9401736111</v>
+        <v>44880.940173611103</v>
       </c>
       <c r="E17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -5779,19 +5103,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>44880.941412037</v>
+        <v>44880.941412036998</v>
       </c>
       <c r="C18" s="1">
-        <v>44880.941412037</v>
+        <v>44880.941412036998</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -5814,13 +5138,13 @@
         <v>44882.8044212963</v>
       </c>
       <c r="E19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I19">
         <v>8</v>
@@ -5837,22 +5161,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>44882.8053819444</v>
+        <v>44882.805381944403</v>
       </c>
       <c r="C20" s="1">
-        <v>44882.8053819444</v>
+        <v>44882.805381944403</v>
       </c>
       <c r="E20" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20" t="s">
+        <v>255</v>
+      </c>
+      <c r="H20" t="s">
         <v>256</v>
-      </c>
-      <c r="F20" t="s">
-        <v>257</v>
-      </c>
-      <c r="G20" t="s">
-        <v>258</v>
-      </c>
-      <c r="H20" t="s">
-        <v>259</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -5869,22 +5193,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>44882.8057407407</v>
+        <v>44882.805740740703</v>
       </c>
       <c r="C21" s="1">
-        <v>44882.8057407407</v>
+        <v>44882.805740740703</v>
       </c>
       <c r="E21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" t="s">
+        <v>258</v>
+      </c>
+      <c r="G21" t="s">
+        <v>259</v>
+      </c>
+      <c r="H21" t="s">
         <v>260</v>
-      </c>
-      <c r="F21" t="s">
-        <v>261</v>
-      </c>
-      <c r="G21" t="s">
-        <v>262</v>
-      </c>
-      <c r="H21" t="s">
-        <v>263</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -5901,22 +5225,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>44882.8145949074</v>
+        <v>44882.814594907402</v>
       </c>
       <c r="C22" s="1">
-        <v>44882.8145949074</v>
+        <v>44882.814594907402</v>
       </c>
       <c r="E22" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G22" t="s">
+        <v>263</v>
+      </c>
+      <c r="H22" t="s">
         <v>264</v>
-      </c>
-      <c r="F22" t="s">
-        <v>265</v>
-      </c>
-      <c r="G22" t="s">
-        <v>266</v>
-      </c>
-      <c r="H22" t="s">
-        <v>267</v>
       </c>
       <c r="I22">
         <v>8</v>
@@ -5933,22 +5257,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>44882.8153240741</v>
+        <v>44882.815324074101</v>
       </c>
       <c r="C23" s="1">
-        <v>44882.8153240741</v>
+        <v>44882.815324074101</v>
       </c>
       <c r="E23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F23" t="s">
+        <v>266</v>
+      </c>
+      <c r="G23" t="s">
+        <v>267</v>
+      </c>
+      <c r="H23" t="s">
         <v>268</v>
-      </c>
-      <c r="F23" t="s">
-        <v>269</v>
-      </c>
-      <c r="G23" t="s">
-        <v>270</v>
-      </c>
-      <c r="H23" t="s">
-        <v>271</v>
       </c>
       <c r="I23">
         <v>8</v>
@@ -5965,22 +5289,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>44882.8166898148</v>
+        <v>44882.816689814797</v>
       </c>
       <c r="C24" s="1">
-        <v>44882.8166898148</v>
+        <v>44882.816689814797</v>
       </c>
       <c r="E24" t="s">
+        <v>269</v>
+      </c>
+      <c r="F24" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" t="s">
+        <v>271</v>
+      </c>
+      <c r="H24" t="s">
         <v>272</v>
-      </c>
-      <c r="F24" t="s">
-        <v>273</v>
-      </c>
-      <c r="G24" t="s">
-        <v>274</v>
-      </c>
-      <c r="H24" t="s">
-        <v>275</v>
       </c>
       <c r="I24">
         <v>8</v>
@@ -5997,19 +5321,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>44971.9549652778</v>
+        <v>44971.954965277801</v>
       </c>
       <c r="C25" s="1">
-        <v>44984.4097453704</v>
+        <v>44984.409745370402</v>
       </c>
       <c r="E25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I25">
         <v>9</v>
@@ -6026,16 +5350,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>44971.9555208333</v>
+        <v>44971.955520833297</v>
       </c>
       <c r="C26" s="1">
-        <v>44984.4097453704</v>
+        <v>44984.409745370402</v>
       </c>
       <c r="E26" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F26" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I26">
         <v>9</v>
@@ -6052,19 +5376,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>44971.9560763889</v>
+        <v>44971.956076388902</v>
       </c>
       <c r="C27" s="1">
-        <v>44984.4097453704</v>
+        <v>44984.409745370402</v>
       </c>
       <c r="E27" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F27" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I27">
         <v>9</v>
@@ -6081,16 +5405,16 @@
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>44983.9175810185</v>
+        <v>44983.917581018497</v>
       </c>
       <c r="C28" s="1">
-        <v>44984.4097453704</v>
+        <v>44984.409745370402</v>
       </c>
       <c r="E28" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F28" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I28">
         <v>9</v>
@@ -6107,16 +5431,16 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>44983.9178935185</v>
+        <v>44983.917893518497</v>
       </c>
       <c r="C29" s="1">
-        <v>44984.4097453704</v>
+        <v>44984.409745370402</v>
       </c>
       <c r="E29" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I29">
         <v>9</v>
@@ -6133,16 +5457,16 @@
         <v>34</v>
       </c>
       <c r="B30" s="1">
-        <v>44983.9178935185</v>
+        <v>44983.917893518497</v>
       </c>
       <c r="C30" s="1">
-        <v>44984.4097453704</v>
+        <v>44984.409745370402</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F30" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G30" s="3"/>
       <c r="I30">
@@ -6160,16 +5484,16 @@
         <v>35</v>
       </c>
       <c r="B31" s="1">
-        <v>44983.9178935185</v>
+        <v>44983.917893518497</v>
       </c>
       <c r="C31" s="1">
-        <v>44984.4097453704</v>
+        <v>44984.409745370402</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G31" s="4"/>
       <c r="I31">
@@ -6187,19 +5511,19 @@
         <v>36</v>
       </c>
       <c r="B32" s="1">
-        <v>44983.9178935185</v>
+        <v>44983.917893518497</v>
       </c>
       <c r="C32" s="1">
-        <v>44984.4097453704</v>
+        <v>44984.409745370402</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I32">
         <v>10</v>
@@ -6216,16 +5540,16 @@
         <v>37</v>
       </c>
       <c r="B33" s="1">
-        <v>44983.9178935185</v>
+        <v>44983.917893518497</v>
       </c>
       <c r="C33" s="1">
-        <v>44984.4097453704</v>
+        <v>44984.409745370402</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G33" s="4">
         <v>25</v>
@@ -6241,8 +5565,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/kinit-api/scripts/initialize/data/init.xlsx
+++ b/kinit-api/scripts/initialize/data/init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\ktianc\project\kinit-pro\kinit-api\scripts\initialize\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\ktianc\project\kinit\kinit-api\scripts\initialize\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D5C1B7-13DD-4063-BA39-3F400B8D3C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B17DA4-D279-42B3-96AF-423A27C976FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="887" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-870" yWindow="4575" windowWidth="35895" windowHeight="15345" tabRatio="887" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vadmin_auth_menu" sheetId="1" r:id="rId1"/>
@@ -689,9 +689,6 @@
     <t>web_logo</t>
   </si>
   <si>
-    <t>/media/system/2023-01-16/16738638056c6b786e.png</t>
-  </si>
-  <si>
     <t>系统描述</t>
   </si>
   <si>
@@ -705,9 +702,6 @@
   </si>
   <si>
     <t>web_ico</t>
-  </si>
-  <si>
-    <t>/media/system/2023-01-16/16738638074695e982.ico</t>
   </si>
   <si>
     <t>备案号</t>
@@ -940,6 +934,14 @@
   </si>
   <si>
     <t>email_port</t>
+  </si>
+  <si>
+    <t>/media/system/logo.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/media/system/favicon.ico</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -947,7 +949,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1004,7 +1006,7 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1287,7 +1289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -4592,8 +4594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4601,7 +4603,7 @@
     <col min="2" max="3" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="43.140625" customWidth="1"/>
+    <col min="7" max="7" width="67.85546875" customWidth="1"/>
     <col min="8" max="8" width="98" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4685,8 +4687,8 @@
       <c r="F3" t="s">
         <v>209</v>
       </c>
-      <c r="G3" t="s">
-        <v>210</v>
+      <c r="G3" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -4709,13 +4711,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" t="s">
         <v>211</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>212</v>
-      </c>
-      <c r="G4" t="s">
-        <v>213</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -4738,13 +4740,13 @@
         <v>44942.757025462997</v>
       </c>
       <c r="E5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" t="s">
         <v>214</v>
       </c>
-      <c r="F5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G5" t="s">
-        <v>216</v>
+      <c r="G5" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -4767,13 +4769,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" t="s">
         <v>217</v>
-      </c>
-      <c r="F6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G6" t="s">
-        <v>219</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -4796,13 +4798,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" t="s">
         <v>220</v>
-      </c>
-      <c r="F7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" t="s">
-        <v>222</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -4825,13 +4827,13 @@
         <v>44887.691469907397</v>
       </c>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F8" t="s">
         <v>182</v>
       </c>
       <c r="H8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -4854,13 +4856,13 @@
         <v>44965.452013888898</v>
       </c>
       <c r="E9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
         <v>186</v>
       </c>
       <c r="G9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -4889,7 +4891,7 @@
         <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -4912,10 +4914,10 @@
         <v>44873.394305555601</v>
       </c>
       <c r="E11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -4938,10 +4940,10 @@
         <v>44873.394861111097</v>
       </c>
       <c r="E12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -4964,13 +4966,13 @@
         <v>44873.397835648102</v>
       </c>
       <c r="E13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" t="s">
         <v>232</v>
-      </c>
-      <c r="F13" t="s">
-        <v>233</v>
-      </c>
-      <c r="H13" t="s">
-        <v>234</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -4993,13 +4995,13 @@
         <v>44873.404872685198</v>
       </c>
       <c r="E14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" t="s">
         <v>235</v>
-      </c>
-      <c r="F14" t="s">
-        <v>236</v>
-      </c>
-      <c r="H14" t="s">
-        <v>237</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -5022,13 +5024,13 @@
         <v>44873.948194444398</v>
       </c>
       <c r="E15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" t="s">
         <v>238</v>
-      </c>
-      <c r="F15" t="s">
-        <v>239</v>
-      </c>
-      <c r="G15" t="s">
-        <v>240</v>
       </c>
       <c r="I15">
         <v>6</v>
@@ -5051,13 +5053,13 @@
         <v>44873.948611111096</v>
       </c>
       <c r="E16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" t="s">
+        <v>240</v>
+      </c>
+      <c r="G16" t="s">
         <v>241</v>
-      </c>
-      <c r="F16" t="s">
-        <v>242</v>
-      </c>
-      <c r="G16" t="s">
-        <v>243</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -5080,13 +5082,13 @@
         <v>44880.940173611103</v>
       </c>
       <c r="E17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H17" t="s">
         <v>244</v>
-      </c>
-      <c r="F17" t="s">
-        <v>245</v>
-      </c>
-      <c r="H17" t="s">
-        <v>246</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -5109,13 +5111,13 @@
         <v>44880.941412036998</v>
       </c>
       <c r="E18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" t="s">
+        <v>246</v>
+      </c>
+      <c r="H18" t="s">
         <v>247</v>
-      </c>
-      <c r="F18" t="s">
-        <v>248</v>
-      </c>
-      <c r="H18" t="s">
-        <v>249</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -5138,13 +5140,13 @@
         <v>44882.8044212963</v>
       </c>
       <c r="E19" t="s">
+        <v>248</v>
+      </c>
+      <c r="F19" t="s">
+        <v>249</v>
+      </c>
+      <c r="H19" t="s">
         <v>250</v>
-      </c>
-      <c r="F19" t="s">
-        <v>251</v>
-      </c>
-      <c r="H19" t="s">
-        <v>252</v>
       </c>
       <c r="I19">
         <v>8</v>
@@ -5167,16 +5169,16 @@
         <v>44882.805381944403</v>
       </c>
       <c r="E20" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" t="s">
         <v>253</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>254</v>
-      </c>
-      <c r="G20" t="s">
-        <v>255</v>
-      </c>
-      <c r="H20" t="s">
-        <v>256</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -5199,16 +5201,16 @@
         <v>44882.805740740703</v>
       </c>
       <c r="E21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" t="s">
+        <v>256</v>
+      </c>
+      <c r="G21" t="s">
         <v>257</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>258</v>
-      </c>
-      <c r="G21" t="s">
-        <v>259</v>
-      </c>
-      <c r="H21" t="s">
-        <v>260</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -5231,16 +5233,16 @@
         <v>44882.814594907402</v>
       </c>
       <c r="E22" t="s">
+        <v>259</v>
+      </c>
+      <c r="F22" t="s">
+        <v>260</v>
+      </c>
+      <c r="G22" t="s">
         <v>261</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>262</v>
-      </c>
-      <c r="G22" t="s">
-        <v>263</v>
-      </c>
-      <c r="H22" t="s">
-        <v>264</v>
       </c>
       <c r="I22">
         <v>8</v>
@@ -5263,16 +5265,16 @@
         <v>44882.815324074101</v>
       </c>
       <c r="E23" t="s">
+        <v>263</v>
+      </c>
+      <c r="F23" t="s">
+        <v>264</v>
+      </c>
+      <c r="G23" t="s">
         <v>265</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>266</v>
-      </c>
-      <c r="G23" t="s">
-        <v>267</v>
-      </c>
-      <c r="H23" t="s">
-        <v>268</v>
       </c>
       <c r="I23">
         <v>8</v>
@@ -5295,16 +5297,16 @@
         <v>44882.816689814797</v>
       </c>
       <c r="E24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24" t="s">
+        <v>268</v>
+      </c>
+      <c r="G24" t="s">
         <v>269</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>270</v>
-      </c>
-      <c r="G24" t="s">
-        <v>271</v>
-      </c>
-      <c r="H24" t="s">
-        <v>272</v>
       </c>
       <c r="I24">
         <v>8</v>
@@ -5327,13 +5329,13 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E25" t="s">
+        <v>271</v>
+      </c>
+      <c r="F25" t="s">
+        <v>272</v>
+      </c>
+      <c r="G25" t="s">
         <v>273</v>
-      </c>
-      <c r="F25" t="s">
-        <v>274</v>
-      </c>
-      <c r="G25" t="s">
-        <v>275</v>
       </c>
       <c r="I25">
         <v>9</v>
@@ -5356,10 +5358,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I26">
         <v>9</v>
@@ -5382,13 +5384,13 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E27" t="s">
+        <v>276</v>
+      </c>
+      <c r="F27" t="s">
+        <v>277</v>
+      </c>
+      <c r="G27" t="s">
         <v>278</v>
-      </c>
-      <c r="F27" t="s">
-        <v>279</v>
-      </c>
-      <c r="G27" t="s">
-        <v>280</v>
       </c>
       <c r="I27">
         <v>9</v>
@@ -5411,10 +5413,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I28">
         <v>9</v>
@@ -5437,10 +5439,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F29" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I29">
         <v>9</v>
@@ -5463,10 +5465,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G30" s="3"/>
       <c r="I30">
@@ -5490,10 +5492,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G31" s="4"/>
       <c r="I31">
@@ -5517,13 +5519,13 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F32" t="s">
+        <v>288</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="F32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="I32">
         <v>10</v>
@@ -5546,10 +5548,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G33" s="4">
         <v>25</v>

--- a/kinit-api/scripts/initialize/data/init.xlsx
+++ b/kinit-api/scripts/initialize/data/init.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\ktianc\project\kinit\kinit-api\scripts\initialize\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\ktianc\project\kinit-pro\kinit-api\scripts\initialize\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B17DA4-D279-42B3-96AF-423A27C976FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C29A41-8378-4232-8E61-6CE451F9C253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-870" yWindow="4575" windowWidth="35895" windowHeight="15345" tabRatio="887" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4575" windowWidth="35895" windowHeight="15345" tabRatio="887" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vadmin_auth_menu" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,66 @@
     <sheet name="vadmin_system_dict_details" sheetId="6" r:id="rId6"/>
     <sheet name="vadmin_system_settings_tab" sheetId="8" r:id="rId7"/>
     <sheet name="vadmin_system_settings" sheetId="7" r:id="rId8"/>
+    <sheet name="vadmin_help_issue_category" sheetId="10" r:id="rId9"/>
+    <sheet name="vadmin_help_issue" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="322">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>redirect</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>menu_type</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>perms</t>
+  </si>
+  <si>
+    <t>noCache</t>
+  </si>
+  <si>
+    <t>breadcrumb</t>
+  </si>
+  <si>
+    <t>affix</t>
+  </si>
+  <si>
+    <t>noTagsView</t>
+  </si>
+  <si>
+    <t>canTo</t>
+  </si>
+  <si>
+    <t>alwaysShow</t>
+  </si>
   <si>
     <t>id</t>
   </si>
@@ -38,66 +91,21 @@
     <t>update_datetime</t>
   </si>
   <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>menu_type</t>
-  </si>
-  <si>
-    <t>parent_id</t>
-  </si>
-  <si>
-    <t>perms</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>redirect</t>
-  </si>
-  <si>
-    <t>noCache</t>
-  </si>
-  <si>
-    <t>breadcrumb</t>
-  </si>
-  <si>
-    <t>affix</t>
-  </si>
-  <si>
-    <t>noTagsView</t>
-  </si>
-  <si>
-    <t>canTo</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>delete_datetime</t>
   </si>
   <si>
-    <t>alwaysShow</t>
-  </si>
-  <si>
     <t>is_delete</t>
   </si>
   <si>
+    <t>仪表盘</t>
+  </si>
+  <si>
     <t>ant-design:dashboard-filled</t>
   </si>
   <si>
+    <t>/dashboard/workplace</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
@@ -107,22 +115,19 @@
     <t>0</t>
   </si>
   <si>
-    <t>/dashboard/workplace</t>
-  </si>
-  <si>
-    <t>仪表盘</t>
+    <t>权限管理</t>
   </si>
   <si>
     <t>ep:lock</t>
   </si>
   <si>
+    <t>/auth/menu</t>
+  </si>
+  <si>
     <t>/auth</t>
   </si>
   <si>
-    <t>/auth/menu</t>
-  </si>
-  <si>
-    <t>权限管理</t>
+    <t>系统管理</t>
   </si>
   <si>
     <t>ant-design:setting-filled</t>
@@ -131,7 +136,7 @@
     <t>/system</t>
   </si>
   <si>
-    <t>系统管理</t>
+    <t>工作台</t>
   </si>
   <si>
     <t>views/Dashboard/Workplace</t>
@@ -143,7 +148,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>工作台</t>
+    <t>数据概览</t>
   </si>
   <si>
     <t>views/Dashboard/Analysis</t>
@@ -152,7 +157,7 @@
     <t>analysis</t>
   </si>
   <si>
-    <t>数据概览</t>
+    <t>用户分布</t>
   </si>
   <si>
     <t>views/Dashboard/Map</t>
@@ -161,7 +166,7 @@
     <t>map</t>
   </si>
   <si>
-    <t>用户分布</t>
+    <t>菜单管理</t>
   </si>
   <si>
     <t>views/vadmin/auth/menu/index</t>
@@ -170,7 +175,7 @@
     <t>menu</t>
   </si>
   <si>
-    <t>菜单管理</t>
+    <t>角色管理</t>
   </si>
   <si>
     <t>views/vadmin/auth/role/index</t>
@@ -179,7 +184,7 @@
     <t>role</t>
   </si>
   <si>
-    <t>角色管理</t>
+    <t>用户管理</t>
   </si>
   <si>
     <t>views/vadmin/auth/user/index</t>
@@ -188,7 +193,7 @@
     <t>user</t>
   </si>
   <si>
-    <t>用户管理</t>
+    <t>字典配置</t>
   </si>
   <si>
     <t>views/vadmin/system/dict/index</t>
@@ -197,7 +202,7 @@
     <t>dict</t>
   </si>
   <si>
-    <t>字典配置</t>
+    <t>字典详情</t>
   </si>
   <si>
     <t>views/vadmin/system/dict/detail</t>
@@ -206,13 +211,13 @@
     <t>dict/detail</t>
   </si>
   <si>
-    <t>字典详情</t>
+    <t>日志管理</t>
   </si>
   <si>
     <t>record</t>
   </si>
   <si>
-    <t>日志管理</t>
+    <t>系统配置</t>
   </si>
   <si>
     <t>views/vadmin/system/settings/index</t>
@@ -221,7 +226,7 @@
     <t>settings</t>
   </si>
   <si>
-    <t>系统配置</t>
+    <t>登录日志</t>
   </si>
   <si>
     <t>views/vadmin/system/record/login/index</t>
@@ -230,7 +235,7 @@
     <t>login</t>
   </si>
   <si>
-    <t>登录日志</t>
+    <t>操作日志</t>
   </si>
   <si>
     <t>views/vadmin/system/record/operation/index</t>
@@ -239,7 +244,7 @@
     <t>operation</t>
   </si>
   <si>
-    <t>操作日志</t>
+    <t>新增菜单</t>
   </si>
   <si>
     <t>2</t>
@@ -248,70 +253,73 @@
     <t>auth.menu.create</t>
   </si>
   <si>
-    <t>新增菜单</t>
+    <t>编辑菜单</t>
   </si>
   <si>
     <t>auth.menu.update</t>
   </si>
   <si>
-    <t>编辑菜单</t>
+    <t>删除菜单</t>
   </si>
   <si>
     <t>auth.menu.delete</t>
   </si>
   <si>
-    <t>删除菜单</t>
+    <t>新增角色</t>
   </si>
   <si>
     <t>auth.role.create</t>
   </si>
   <si>
-    <t>新增角色</t>
+    <t>编辑角色</t>
   </si>
   <si>
     <t>auth.role.update</t>
   </si>
   <si>
-    <t>编辑角色</t>
-  </si>
-  <si>
     <t>删除角色</t>
   </si>
   <si>
+    <t>auth.role.delete</t>
+  </si>
+  <si>
+    <t>新增用户</t>
+  </si>
+  <si>
     <t>auth.user.create</t>
   </si>
   <si>
-    <t>新增用户</t>
+    <t>编辑用户</t>
   </si>
   <si>
     <t>auth.user.update</t>
   </si>
   <si>
-    <t>编辑用户</t>
+    <t>删除用户</t>
   </si>
   <si>
     <t>auth.user.delete</t>
   </si>
   <si>
-    <t>删除用户</t>
+    <t>批量导入用户</t>
   </si>
   <si>
     <t>auth.user.import</t>
   </si>
   <si>
-    <t>批量导入用户</t>
+    <t>导出筛选用户</t>
   </si>
   <si>
     <t>auth.user.export</t>
   </si>
   <si>
-    <t>导出筛选用户</t>
+    <t>重置密码通知短信</t>
   </si>
   <si>
     <t>auth.user.reset</t>
   </si>
   <si>
-    <t>重置密码通知短信</t>
+    <t>帮助中心</t>
   </si>
   <si>
     <t>material-symbols:help-rounded</t>
@@ -320,7 +328,7 @@
     <t>/help</t>
   </si>
   <si>
-    <t>帮助中心</t>
+    <t>常见问题类别</t>
   </si>
   <si>
     <t>views/vadmin/help/issueCategory/index</t>
@@ -329,7 +337,7 @@
     <t>issue/category</t>
   </si>
   <si>
-    <t>常见问题类别</t>
+    <t>常见问题</t>
   </si>
   <si>
     <t>views/vadmin/help/issue/index</t>
@@ -338,7 +346,7 @@
     <t>issue</t>
   </si>
   <si>
-    <t>常见问题</t>
+    <t>常见问题表单</t>
   </si>
   <si>
     <t>views/vadmin/help/issue/components/Write</t>
@@ -347,19 +355,19 @@
     <t>issue/form</t>
   </si>
   <si>
-    <t>常见问题表单</t>
+    <t>智慧大屏</t>
   </si>
   <si>
     <t>icon-park-solid:data-sheet</t>
   </si>
   <si>
+    <t>/screen/air</t>
+  </si>
+  <si>
     <t>/screen</t>
   </si>
   <si>
-    <t>/screen/air</t>
-  </si>
-  <si>
-    <t>智慧大屏</t>
+    <t>空气质量</t>
   </si>
   <si>
     <t>views/vadmin/screen/air/index</t>
@@ -368,7 +376,7 @@
     <t>air</t>
   </si>
   <si>
-    <t>空气质量</t>
+    <t>定时任务</t>
   </si>
   <si>
     <t>views/vadmin/system/task/index</t>
@@ -377,13 +385,28 @@
     <t>task</t>
   </si>
   <si>
-    <t>定时任务</t>
+    <t>调度日志</t>
   </si>
   <si>
     <t>views/vadmin/system/record/task/index</t>
   </si>
   <si>
-    <t>调度日志</t>
+    <t>获取菜单列表</t>
+  </si>
+  <si>
+    <t>auth.menu.list</t>
+  </si>
+  <si>
+    <t>获取角色列表</t>
+  </si>
+  <si>
+    <t>auth.role.list</t>
+  </si>
+  <si>
+    <t>获取用户列表</t>
+  </si>
+  <si>
+    <t>auth.user.list</t>
   </si>
   <si>
     <t>name</t>
@@ -689,6 +712,9 @@
     <t>web_logo</t>
   </si>
   <si>
+    <t>/media/system/logo.png</t>
+  </si>
+  <si>
     <t>系统描述</t>
   </si>
   <si>
@@ -702,6 +728,9 @@
   </si>
   <si>
     <t>web_ico</t>
+  </si>
+  <si>
+    <t>/media/system/favicon.ico</t>
   </si>
   <si>
     <t>备案号</t>
@@ -894,9 +923,6 @@
     <t>wx_server_site</t>
   </si>
   <si>
-    <t>http://kinit.ktianc.top</t>
-  </si>
-  <si>
     <t>AppID</t>
   </si>
   <si>
@@ -936,11 +962,70 @@
     <t>email_port</t>
   </si>
   <si>
-    <t>/media/system/logo.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/media/system/favicon.ico</t>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>create_user_id</t>
+  </si>
+  <si>
+    <t>KINIT 问题</t>
+  </si>
+  <si>
+    <t>其他问题</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>view_number</t>
+  </si>
+  <si>
+    <t>KINIT-UNI 是使用若依-移动端进行的二次开发吗？</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;是的，是在若依-移动端的基础上进行的二次开发，在此感谢若依团队！二次开发中我们重新将接口请求改为 luch-request 组件，项目结构也有所改动，并且加入了 uView UI 组件，uni-simple-router 路由拦截。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>KINIT 开源吗？</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;开源&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>KINIT 可以商用吗？</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;可以&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>KINIT 源码地址多少？</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; &lt;a href="https://gitee.com/ktianc/kinit" target="_blank"&gt;https://gitee.com/ktianc/kinit&lt;/a&gt; &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>如何退出登录？</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;请点击[我的] - [应用设置] - [退出登录]即可退出登录&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>如何修改用户头像？</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;请点击[我的] - [选择头像] - [点击提交]即可更换用户头像&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>如何修改登录密码？</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;请点击[我的] - [应用设置] - [修改密码]即可修改登录密码&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>https://kinit.ktianc.top</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1010,7 +1095,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1287,2028 +1372,2470 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="19" max="20" width="20" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>44786.455925925897</v>
+      </c>
+      <c r="T2" s="1">
+        <v>44883.434317129599</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1">
+        <v>44826.954074074099</v>
+      </c>
+      <c r="T3" s="1">
+        <v>44883.434606481504</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4" s="1">
+        <v>44838.873819444401</v>
+      </c>
+      <c r="T4" s="1">
+        <v>44862.894594907397</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5" s="1">
+        <v>44846.707951388897</v>
+      </c>
+      <c r="T5" s="1">
+        <v>44883.434432870403</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6" s="1">
+        <v>44870.538877314801</v>
+      </c>
+      <c r="T6" s="1">
+        <v>44880.808692129598</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="S7" s="1">
+        <v>44881.777280092603</v>
+      </c>
+      <c r="T7" s="1">
+        <v>44882.864988425899</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8" s="1">
+        <v>44826.723263888904</v>
+      </c>
+      <c r="T8" s="1">
+        <v>44883.4352083333</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9" s="1">
+        <v>44826.723263888904</v>
+      </c>
+      <c r="T9" s="1">
+        <v>44883.435370370396</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>9</v>
+      </c>
+      <c r="S10" s="1">
+        <v>44826.723263888904</v>
+      </c>
+      <c r="T10" s="1">
+        <v>44883.4355208333</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11" s="1">
+        <v>44838.877025463</v>
+      </c>
+      <c r="T11" s="1">
+        <v>44864.733287037001</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>11</v>
+      </c>
+      <c r="S12" s="1">
+        <v>44839.934328703697</v>
+      </c>
+      <c r="T12" s="1">
+        <v>44862.924189814803</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>13</v>
+      </c>
+      <c r="S13" s="1">
+        <v>44862.895787037</v>
+      </c>
+      <c r="T13" s="1">
+        <v>44870.493113425902</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>14</v>
+      </c>
+      <c r="S14" s="1">
+        <v>44864.733217592599</v>
+      </c>
+      <c r="T14" s="1">
+        <v>44864.733217592599</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>15</v>
+      </c>
+      <c r="S15" s="1">
+        <v>44862.8991550926</v>
+      </c>
+      <c r="T15" s="1">
+        <v>44862.9000578704</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>16</v>
+      </c>
+      <c r="S16" s="1">
+        <v>44862.925173611096</v>
+      </c>
+      <c r="T16" s="1">
+        <v>44863.569282407399</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>17</v>
+      </c>
+      <c r="S17" s="1">
+        <v>44883.598217592596</v>
+      </c>
+      <c r="T17" s="1">
+        <v>44883.604062500002</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>18</v>
+      </c>
+      <c r="S18" s="1">
+        <v>44883.6410300926</v>
+      </c>
+      <c r="T18" s="1">
+        <v>44883.6410300926</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>19</v>
+      </c>
+      <c r="S19" s="1">
+        <v>44883.641284722202</v>
+      </c>
+      <c r="T19" s="1">
+        <v>44883.641284722202</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>20</v>
+      </c>
+      <c r="S20" s="1">
+        <v>44883.633275462998</v>
+      </c>
+      <c r="T20" s="1">
+        <v>44883.633275462998</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>21</v>
+      </c>
+      <c r="S21" s="1">
+        <v>44883.641620370399</v>
+      </c>
+      <c r="T21" s="1">
+        <v>44883.641620370399</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>22</v>
+      </c>
+      <c r="S22" s="1">
+        <v>44883.6417939815</v>
+      </c>
+      <c r="T22" s="1">
+        <v>45162.653738425899</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>23</v>
+      </c>
+      <c r="S23" s="1">
+        <v>44883.643275463</v>
+      </c>
+      <c r="T23" s="1">
+        <v>44883.646527777797</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>24</v>
+      </c>
+      <c r="S24" s="1">
+        <v>44883.643530092602</v>
+      </c>
+      <c r="T24" s="1">
+        <v>44883.643530092602</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>25</v>
+      </c>
+      <c r="S25" s="1">
+        <v>44883.643819444398</v>
+      </c>
+      <c r="T25" s="1">
+        <v>44883.643819444398</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>26</v>
+      </c>
+      <c r="S26" s="1">
+        <v>44883.644166666701</v>
+      </c>
+      <c r="T26" s="1">
+        <v>44883.644166666701</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="K27" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>27</v>
+      </c>
+      <c r="S27" s="1">
+        <v>44883.644386574102</v>
+      </c>
+      <c r="T27" s="1">
+        <v>44883.644386574102</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>28</v>
+      </c>
+      <c r="S28" s="1">
+        <v>44883.644884259302</v>
+      </c>
+      <c r="T28" s="1">
+        <v>44883.644884259302</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>38</v>
+      </c>
+      <c r="S29" s="1">
+        <v>44973.6896180556</v>
+      </c>
+      <c r="T29" s="1">
+        <v>44973.690972222197</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30">
+        <v>38</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>39</v>
+      </c>
+      <c r="S30" s="1">
+        <v>44973.690277777801</v>
+      </c>
+      <c r="T30" s="1">
+        <v>44973.691400463002</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31">
+        <v>38</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>40</v>
+      </c>
+      <c r="S31" s="1">
+        <v>44973.717280092598</v>
+      </c>
+      <c r="T31" s="1">
+        <v>44973.719930555599</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>99</v>
+      </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32">
+        <v>38</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>42</v>
+      </c>
+      <c r="S32" s="1">
+        <v>44978.987083333297</v>
+      </c>
+      <c r="T32" s="1">
+        <v>44978.987083333297</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>68</v>
+      </c>
+      <c r="S33" s="1">
+        <v>44889.630127314798</v>
+      </c>
+      <c r="T33" s="1">
+        <v>44889.641284722202</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34">
+        <v>68</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>69</v>
+      </c>
+      <c r="S34" s="1">
+        <v>44889.630659722199</v>
+      </c>
+      <c r="T34" s="1">
+        <v>44889.641111111101</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>73</v>
+      </c>
+      <c r="S35" s="1">
+        <v>45102.614305555602</v>
+      </c>
+      <c r="T35" s="1">
+        <v>45102.614305555602</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36">
+        <v>13</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>74</v>
+      </c>
+      <c r="S36" s="1">
+        <v>45105.454143518502</v>
+      </c>
+      <c r="T36" s="1">
+        <v>45105.454143518502</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37">
+        <v>7</v>
+      </c>
+      <c r="K37" t="s">
+        <v>121</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>76</v>
+      </c>
+      <c r="S37" s="1">
+        <v>45162.653043981503</v>
+      </c>
+      <c r="T37" s="1">
+        <v>45162.653043981503</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>77</v>
+      </c>
+      <c r="S38" s="1">
+        <v>45162.653321759302</v>
+      </c>
+      <c r="T38" s="1">
+        <v>45162.653321759302</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+      <c r="K39" t="s">
+        <v>125</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>78</v>
+      </c>
+      <c r="S39" s="1">
+        <v>45162.653657407398</v>
+      </c>
+      <c r="T39" s="1">
+        <v>45162.653657407398</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="6" width="47.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" customWidth="1"/>
+    <col min="2" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="52.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44984.657164351898</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45142.737500000003</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44984.657337962999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45142.7374305556</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44984.657453703701</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45142.737453703703</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44984.657581018502</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45142.737476851798</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44984.657719907402</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45141.021805555603</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="G6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H6" t="s">
+        <v>316</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B7" s="1">
+        <v>44984.657847222203</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45129.748043981497</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44786.455925925897</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44883.434317129599</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44826.954074074099</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44883.434606481504</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44838.873819444401</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44862.894594907397</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5">
+      <c r="B8" s="1">
+        <v>44984.657962963</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45142.737407407403</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>44846.707951388897</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44883.434432870403</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44870.538877314801</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44880.808692129598</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44881.777280092603</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44882.864988425899</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7" t="s">
-        <v>44</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44826.723263888904</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44883.4352083333</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+      <c r="G8" t="s">
+        <v>319</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="K8">
         <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44826.723263888904</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44883.435370370396</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9" t="s">
-        <v>50</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44826.723263888904</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44883.4355208333</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44838.877025463</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44864.733287037001</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11" t="s">
-        <v>56</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44839.934328703697</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44862.924189814803</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <v>20</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>59</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44862.895787037</v>
-      </c>
-      <c r="C13" s="1">
-        <v>44870.493113425902</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
-        <v>61</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44864.733217592599</v>
-      </c>
-      <c r="C14" s="1">
-        <v>44864.733217592599</v>
-      </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14" t="s">
-        <v>64</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44862.8991550926</v>
-      </c>
-      <c r="C15" s="1">
-        <v>44862.9000578704</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15">
-        <v>13</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15" t="s">
-        <v>67</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44862.925173611096</v>
-      </c>
-      <c r="C16" s="1">
-        <v>44863.569282407399</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16">
-        <v>13</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16" t="s">
-        <v>70</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44883.598217592596</v>
-      </c>
-      <c r="C17" s="1">
-        <v>44883.604062500002</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17">
-        <v>7</v>
-      </c>
-      <c r="J17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17" t="s">
-        <v>73</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
-        <v>44883.6410300926</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44883.6410300926</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18">
-        <v>7</v>
-      </c>
-      <c r="J18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>75</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1">
-        <v>44883.641284722202</v>
-      </c>
-      <c r="C19" s="1">
-        <v>44883.641284722202</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19">
-        <v>7</v>
-      </c>
-      <c r="J19" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
-        <v>77</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44883.633275462998</v>
-      </c>
-      <c r="C20" s="1">
-        <v>44883.633275462998</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20">
-        <v>8</v>
-      </c>
-      <c r="J20" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
-        <v>79</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <v>44883.641620370399</v>
-      </c>
-      <c r="C21" s="1">
-        <v>44883.641620370399</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21">
-        <v>8</v>
-      </c>
-      <c r="J21" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1">
-        <v>44883.6417939815</v>
-      </c>
-      <c r="C22" s="1">
-        <v>44883.6417939815</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22">
-        <v>8</v>
-      </c>
-      <c r="J22" t="s">
-        <v>76</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22" t="s">
-        <v>82</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1">
-        <v>44883.643275463</v>
-      </c>
-      <c r="C23" s="1">
-        <v>44883.646527777797</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23">
-        <v>9</v>
-      </c>
-      <c r="J23" t="s">
-        <v>83</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23" t="s">
-        <v>84</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1">
-        <v>44883.643530092602</v>
-      </c>
-      <c r="C24" s="1">
-        <v>44883.643530092602</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24">
-        <v>9</v>
-      </c>
-      <c r="J24" t="s">
-        <v>85</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
-        <v>86</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1">
-        <v>44883.643819444398</v>
-      </c>
-      <c r="C25" s="1">
-        <v>44883.643819444398</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25">
-        <v>9</v>
-      </c>
-      <c r="J25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25" t="s">
-        <v>88</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>44883.644166666701</v>
-      </c>
-      <c r="C26" s="1">
-        <v>44883.644166666701</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26">
-        <v>9</v>
-      </c>
-      <c r="J26" t="s">
-        <v>89</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26" t="s">
-        <v>90</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1">
-        <v>44883.644386574102</v>
-      </c>
-      <c r="C27" s="1">
-        <v>44883.644386574102</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27">
-        <v>9</v>
-      </c>
-      <c r="J27" t="s">
-        <v>91</v>
-      </c>
-      <c r="K27">
-        <v>4</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27" t="s">
-        <v>92</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1">
-        <v>44883.644884259302</v>
-      </c>
-      <c r="C28" s="1">
-        <v>44883.644884259302</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I28">
-        <v>9</v>
-      </c>
-      <c r="J28" t="s">
-        <v>93</v>
-      </c>
-      <c r="K28">
-        <v>5</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28" t="s">
-        <v>94</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1">
-        <v>44973.6896180556</v>
-      </c>
-      <c r="C29" s="1">
-        <v>44973.690972222197</v>
-      </c>
-      <c r="D29" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29">
-        <v>100</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29" t="s">
-        <v>97</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30">
-        <v>39</v>
-      </c>
-      <c r="B30" s="1">
-        <v>44973.690277777801</v>
-      </c>
-      <c r="C30" s="1">
-        <v>44973.691400463002</v>
-      </c>
-      <c r="E30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30">
-        <v>38</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30" t="s">
-        <v>100</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31">
-        <v>40</v>
-      </c>
-      <c r="B31" s="1">
-        <v>44973.717280092598</v>
-      </c>
-      <c r="C31" s="1">
-        <v>44973.719930555599</v>
-      </c>
-      <c r="E31" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31">
-        <v>38</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31" t="s">
-        <v>103</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32">
-        <v>42</v>
-      </c>
-      <c r="B32" s="1">
-        <v>44978.987083333297</v>
-      </c>
-      <c r="C32" s="1">
-        <v>44978.987083333297</v>
-      </c>
-      <c r="E32" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32">
-        <v>38</v>
-      </c>
-      <c r="K32">
-        <v>99</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32" t="s">
-        <v>106</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="A33">
-        <v>68</v>
-      </c>
-      <c r="B33" s="1">
-        <v>44889.630127314798</v>
-      </c>
-      <c r="C33" s="1">
-        <v>44889.641284722202</v>
-      </c>
-      <c r="D33" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>109</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33" t="s">
-        <v>110</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34">
-        <v>69</v>
-      </c>
-      <c r="B34" s="1">
-        <v>44889.630659722199</v>
-      </c>
-      <c r="C34" s="1">
-        <v>44889.641111111101</v>
-      </c>
-      <c r="E34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34">
-        <v>68</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34" t="s">
-        <v>113</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35">
-        <v>73</v>
-      </c>
-      <c r="B35" s="1">
-        <v>45102.614305555602</v>
-      </c>
-      <c r="C35" s="1">
-        <v>45102.614305555602</v>
-      </c>
-      <c r="E35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35" t="s">
-        <v>116</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36">
-        <v>74</v>
-      </c>
-      <c r="B36" s="1">
-        <v>45105.454143518502</v>
-      </c>
-      <c r="C36" s="1">
-        <v>45105.454143518502</v>
-      </c>
-      <c r="E36" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" t="s">
-        <v>115</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>13</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36" t="s">
-        <v>118</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3335,34 +3862,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
         <v>21</v>
@@ -3379,10 +3906,10 @@
         <v>44843.627476851798</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3427,52 +3954,52 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="M1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>134</v>
+      <c r="P1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3486,19 +4013,19 @@
         <v>44888.896111111098</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3507,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M2" s="1"/>
       <c r="O2">
@@ -3525,33 +4052,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
         <v>1</v>
       </c>
     </row>
@@ -3582,28 +4103,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -3620,10 +4141,10 @@
         <v>44842.581435185202</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3643,10 +4164,10 @@
         <v>44842.581620370402</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3666,10 +4187,10 @@
         <v>44898.991770833301</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3689,10 +4210,10 @@
         <v>44898.992488425902</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3712,13 +4233,13 @@
         <v>45107.391307870399</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3752,37 +4273,37 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
         <v>21</v>
@@ -3811,10 +4332,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -3843,10 +4364,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3875,10 +4396,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3907,10 +4428,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -3939,10 +4460,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3971,10 +4492,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -4003,10 +4524,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4035,10 +4556,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4067,10 +4588,10 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4099,10 +4620,10 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4131,10 +4652,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="J12" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4163,10 +4684,10 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J13" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -4195,10 +4716,10 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="J14" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -4231,34 +4752,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K1" t="s">
         <v>21</v>
@@ -4275,19 +4796,19 @@
         <v>44865.828298611101</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4307,19 +4828,19 @@
         <v>44865.828298611101</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4339,19 +4860,19 @@
         <v>44865.828298611101</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -4371,19 +4892,19 @@
         <v>44865.828298611101</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4403,19 +4924,19 @@
         <v>44865.828298611101</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I6" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -4435,19 +4956,19 @@
         <v>44873.393229166701</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -4467,19 +4988,19 @@
         <v>44873.393449074101</v>
       </c>
       <c r="E8" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I8" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -4499,19 +5020,19 @@
         <v>44882.803460648101</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
         <v>44</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
       <c r="I9" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4531,19 +5052,19 @@
         <v>44971.953680555598</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -4563,19 +5084,19 @@
         <v>44971.953680555598</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>200</v>
+      <c r="H11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" t="s">
+        <v>207</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4595,7 +5116,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4609,34 +5130,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="I1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K1" t="s">
         <v>21</v>
@@ -4653,13 +5174,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -4682,13 +5203,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>292</v>
+        <v>216</v>
+      </c>
+      <c r="G3" t="s">
+        <v>217</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -4711,13 +5232,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="G4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -4740,13 +5261,13 @@
         <v>44942.757025462997</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>293</v>
+        <v>222</v>
+      </c>
+      <c r="G5" t="s">
+        <v>223</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -4769,13 +5290,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F6" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G6" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -4798,13 +5319,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -4827,13 +5348,13 @@
         <v>44887.691469907397</v>
       </c>
       <c r="E8" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F8" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H8" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -4856,13 +5377,13 @@
         <v>44965.452013888898</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -4885,13 +5406,13 @@
         <v>44869.679618055503</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -4914,10 +5435,10 @@
         <v>44873.394305555601</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F11" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -4940,10 +5461,10 @@
         <v>44873.394861111097</v>
       </c>
       <c r="E12" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="F12" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -4966,13 +5487,13 @@
         <v>44873.397835648102</v>
       </c>
       <c r="E13" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F13" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H13" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -4995,13 +5516,13 @@
         <v>44873.404872685198</v>
       </c>
       <c r="E14" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F14" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H14" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -5024,13 +5545,13 @@
         <v>44873.948194444398</v>
       </c>
       <c r="E15" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F15" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G15" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="I15">
         <v>6</v>
@@ -5053,13 +5574,13 @@
         <v>44873.948611111096</v>
       </c>
       <c r="E16" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F16" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G16" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -5082,13 +5603,13 @@
         <v>44880.940173611103</v>
       </c>
       <c r="E17" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F17" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="H17" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -5111,13 +5632,13 @@
         <v>44880.941412036998</v>
       </c>
       <c r="E18" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="F18" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="H18" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -5140,13 +5661,13 @@
         <v>44882.8044212963</v>
       </c>
       <c r="E19" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F19" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H19" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="I19">
         <v>8</v>
@@ -5169,16 +5690,16 @@
         <v>44882.805381944403</v>
       </c>
       <c r="E20" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F20" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G20" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="H20" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -5201,16 +5722,16 @@
         <v>44882.805740740703</v>
       </c>
       <c r="E21" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="G21" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="H21" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -5233,16 +5754,16 @@
         <v>44882.814594907402</v>
       </c>
       <c r="E22" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="F22" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="G22" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="H22" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="I22">
         <v>8</v>
@@ -5265,16 +5786,16 @@
         <v>44882.815324074101</v>
       </c>
       <c r="E23" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F23" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="G23" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H23" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I23">
         <v>8</v>
@@ -5297,16 +5818,16 @@
         <v>44882.816689814797</v>
       </c>
       <c r="E24" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F24" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="G24" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H24" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="I24">
         <v>8</v>
@@ -5329,13 +5850,13 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E25" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="F25" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="G25" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="I25">
         <v>9</v>
@@ -5358,10 +5879,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E26" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F26" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="I26">
         <v>9</v>
@@ -5384,13 +5905,13 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E27" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F27" t="s">
-        <v>277</v>
-      </c>
-      <c r="G27" t="s">
-        <v>278</v>
+        <v>286</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="I27">
         <v>9</v>
@@ -5413,10 +5934,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E28" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F28" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="I28">
         <v>9</v>
@@ -5439,10 +5960,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E29" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="F29" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="I29">
         <v>9</v>
@@ -5465,10 +5986,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F30" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="G30" s="3"/>
       <c r="I30">
@@ -5492,10 +6013,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="F31" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="G31" s="4"/>
       <c r="I31">
@@ -5519,13 +6040,13 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F32" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="I32">
         <v>10</v>
@@ -5548,10 +6069,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="F33" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G33" s="4">
         <v>25</v>
@@ -5568,7 +6089,115 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G27" r:id="rId1" xr:uid="{32144A9D-801E-4271-824B-21E568432309}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44984.656585648103</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44984.656585648103</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44984.6566550926</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44984.6566550926</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/kinit-api/scripts/initialize/data/init.xlsx
+++ b/kinit-api/scripts/initialize/data/init.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\ktianc\project\kinit-pro\kinit-api\scripts\initialize\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C29A41-8378-4232-8E61-6CE451F9C253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4575" windowWidth="35895" windowHeight="15345" tabRatio="887" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="887"/>
   </bookViews>
   <sheets>
     <sheet name="vadmin_auth_menu" sheetId="1" r:id="rId1"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="328">
   <si>
     <t>title</t>
   </si>
@@ -407,6 +401,24 @@
   </si>
   <si>
     <t>auth.user.list</t>
+  </si>
+  <si>
+    <t>资源管理</t>
+  </si>
+  <si>
+    <t>line-md:image</t>
+  </si>
+  <si>
+    <t>/resource</t>
+  </si>
+  <si>
+    <t>图片资源</t>
+  </si>
+  <si>
+    <t>views/vadmin/resource/images/index</t>
+  </si>
+  <si>
+    <t>images</t>
   </si>
   <si>
     <t>name</t>
@@ -473,7 +485,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>u</t>
     </r>
@@ -481,7 +493,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ser_id</t>
     </r>
@@ -491,7 +503,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>r</t>
     </r>
@@ -499,7 +511,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ole_id</t>
     </r>
@@ -923,6 +935,9 @@
     <t>wx_server_site</t>
   </si>
   <si>
+    <t>https://kinit.ktianc.top</t>
+  </si>
+  <si>
     <t>AppID</t>
   </si>
   <si>
@@ -1023,28 +1038,23 @@
   </si>
   <si>
     <t>&lt;p&gt;请点击[我的] - [应用设置] - [修改密码]即可修改登录密码&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>https://kinit.ktianc.top</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1057,24 +1067,353 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1082,33 +1421,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1366,37 +1987,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="32.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="23.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="47.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="15.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="6.42857142857143" customWidth="1"/>
+    <col min="11" max="11" width="19.1428571428571" customWidth="1"/>
     <col min="19" max="20" width="20" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" customFormat="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +2079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" customFormat="1" spans="1:22">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1492,6 +2107,8 @@
       <c r="I2" t="s">
         <v>27</v>
       </c>
+      <c r="J2"/>
+      <c r="K2"/>
       <c r="L2">
         <v>0</v>
       </c>
@@ -1514,16 +2131,17 @@
         <v>1</v>
       </c>
       <c r="S2" s="1">
-        <v>44786.455925925897</v>
+        <v>44786.4559259259</v>
       </c>
       <c r="T2" s="1">
-        <v>44883.434317129599</v>
-      </c>
+        <v>44883.4343171296</v>
+      </c>
+      <c r="U2"/>
       <c r="V2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" customFormat="1" spans="1:22">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1551,6 +2169,8 @@
       <c r="I3" t="s">
         <v>27</v>
       </c>
+      <c r="J3"/>
+      <c r="K3"/>
       <c r="L3">
         <v>0</v>
       </c>
@@ -1573,22 +2193,24 @@
         <v>2</v>
       </c>
       <c r="S3" s="1">
-        <v>44826.954074074099</v>
+        <v>44826.9540740741</v>
       </c>
       <c r="T3" s="1">
-        <v>44883.434606481504</v>
-      </c>
+        <v>44883.4346064815</v>
+      </c>
+      <c r="U3"/>
       <c r="V3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" customFormat="1" spans="1:22">
       <c r="A4" t="s">
         <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
+      <c r="C4"/>
       <c r="D4" t="s">
         <v>25</v>
       </c>
@@ -1607,6 +2229,8 @@
       <c r="I4" t="s">
         <v>27</v>
       </c>
+      <c r="J4"/>
+      <c r="K4"/>
       <c r="L4">
         <v>0</v>
       </c>
@@ -1629,19 +2253,22 @@
         <v>3</v>
       </c>
       <c r="S4" s="1">
-        <v>44838.873819444401</v>
+        <v>44838.8738194444</v>
       </c>
       <c r="T4" s="1">
-        <v>44862.894594907397</v>
-      </c>
+        <v>44862.8945949074</v>
+      </c>
+      <c r="U4"/>
       <c r="V4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" customFormat="1" spans="1:22">
       <c r="A5" t="s">
         <v>35</v>
       </c>
+      <c r="B5"/>
+      <c r="C5"/>
       <c r="D5" t="s">
         <v>36</v>
       </c>
@@ -1663,6 +2290,7 @@
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="K5"/>
       <c r="L5">
         <v>0</v>
       </c>
@@ -1685,19 +2313,22 @@
         <v>4</v>
       </c>
       <c r="S5" s="1">
-        <v>44846.707951388897</v>
+        <v>44846.7079513889</v>
       </c>
       <c r="T5" s="1">
-        <v>44883.434432870403</v>
-      </c>
+        <v>44883.4344328704</v>
+      </c>
+      <c r="U5"/>
       <c r="V5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" customFormat="1" spans="1:22">
       <c r="A6" t="s">
         <v>39</v>
       </c>
+      <c r="B6"/>
+      <c r="C6"/>
       <c r="D6" t="s">
         <v>40</v>
       </c>
@@ -1719,6 +2350,7 @@
       <c r="J6">
         <v>1</v>
       </c>
+      <c r="K6"/>
       <c r="L6">
         <v>0</v>
       </c>
@@ -1741,19 +2373,22 @@
         <v>5</v>
       </c>
       <c r="S6" s="1">
-        <v>44870.538877314801</v>
+        <v>44870.5388773148</v>
       </c>
       <c r="T6" s="1">
-        <v>44880.808692129598</v>
-      </c>
+        <v>44880.8086921296</v>
+      </c>
+      <c r="U6"/>
       <c r="V6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" customFormat="1" spans="1:22">
       <c r="A7" t="s">
         <v>42</v>
       </c>
+      <c r="B7"/>
+      <c r="C7"/>
       <c r="D7" t="s">
         <v>43</v>
       </c>
@@ -1775,6 +2410,7 @@
       <c r="J7">
         <v>1</v>
       </c>
+      <c r="K7"/>
       <c r="L7">
         <v>0</v>
       </c>
@@ -1797,19 +2433,22 @@
         <v>6</v>
       </c>
       <c r="S7" s="1">
-        <v>44881.777280092603</v>
+        <v>44881.7772800926</v>
       </c>
       <c r="T7" s="1">
-        <v>44882.864988425899</v>
-      </c>
+        <v>44882.8649884259</v>
+      </c>
+      <c r="U7"/>
       <c r="V7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" customFormat="1" spans="1:22">
       <c r="A8" t="s">
         <v>45</v>
       </c>
+      <c r="B8"/>
+      <c r="C8"/>
       <c r="D8" t="s">
         <v>46</v>
       </c>
@@ -1831,6 +2470,7 @@
       <c r="J8">
         <v>2</v>
       </c>
+      <c r="K8"/>
       <c r="L8">
         <v>0</v>
       </c>
@@ -1853,19 +2493,22 @@
         <v>7</v>
       </c>
       <c r="S8" s="1">
-        <v>44826.723263888904</v>
+        <v>44826.7232638889</v>
       </c>
       <c r="T8" s="1">
         <v>44883.4352083333</v>
       </c>
+      <c r="U8"/>
       <c r="V8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" customFormat="1" spans="1:22">
       <c r="A9" t="s">
         <v>48</v>
       </c>
+      <c r="B9"/>
+      <c r="C9"/>
       <c r="D9" t="s">
         <v>49</v>
       </c>
@@ -1887,6 +2530,7 @@
       <c r="J9">
         <v>2</v>
       </c>
+      <c r="K9"/>
       <c r="L9">
         <v>0</v>
       </c>
@@ -1909,19 +2553,22 @@
         <v>8</v>
       </c>
       <c r="S9" s="1">
-        <v>44826.723263888904</v>
+        <v>44826.7232638889</v>
       </c>
       <c r="T9" s="1">
-        <v>44883.435370370396</v>
-      </c>
+        <v>44883.4353703704</v>
+      </c>
+      <c r="U9"/>
       <c r="V9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" customFormat="1" spans="1:22">
       <c r="A10" t="s">
         <v>51</v>
       </c>
+      <c r="B10"/>
+      <c r="C10"/>
       <c r="D10" t="s">
         <v>52</v>
       </c>
@@ -1943,6 +2590,7 @@
       <c r="J10">
         <v>2</v>
       </c>
+      <c r="K10"/>
       <c r="L10">
         <v>0</v>
       </c>
@@ -1965,19 +2613,22 @@
         <v>9</v>
       </c>
       <c r="S10" s="1">
-        <v>44826.723263888904</v>
+        <v>44826.7232638889</v>
       </c>
       <c r="T10" s="1">
         <v>44883.4355208333</v>
       </c>
+      <c r="U10"/>
       <c r="V10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" customFormat="1" spans="1:22">
       <c r="A11" t="s">
         <v>54</v>
       </c>
+      <c r="B11"/>
+      <c r="C11"/>
       <c r="D11" t="s">
         <v>55</v>
       </c>
@@ -1999,6 +2650,7 @@
       <c r="J11">
         <v>3</v>
       </c>
+      <c r="K11"/>
       <c r="L11">
         <v>0</v>
       </c>
@@ -2024,16 +2676,19 @@
         <v>44838.877025463</v>
       </c>
       <c r="T11" s="1">
-        <v>44864.733287037001</v>
-      </c>
+        <v>44864.733287037</v>
+      </c>
+      <c r="U11"/>
       <c r="V11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" customFormat="1" spans="1:22">
       <c r="A12" t="s">
         <v>57</v>
       </c>
+      <c r="B12"/>
+      <c r="C12"/>
       <c r="D12" t="s">
         <v>58</v>
       </c>
@@ -2055,6 +2710,7 @@
       <c r="J12">
         <v>3</v>
       </c>
+      <c r="K12"/>
       <c r="L12">
         <v>0</v>
       </c>
@@ -2077,19 +2733,22 @@
         <v>11</v>
       </c>
       <c r="S12" s="1">
-        <v>44839.934328703697</v>
+        <v>44839.9343287037</v>
       </c>
       <c r="T12" s="1">
-        <v>44862.924189814803</v>
-      </c>
+        <v>44862.9241898148</v>
+      </c>
+      <c r="U12"/>
       <c r="V12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" customFormat="1" spans="1:22">
       <c r="A13" t="s">
         <v>60</v>
       </c>
+      <c r="B13"/>
+      <c r="C13"/>
       <c r="D13" t="s">
         <v>25</v>
       </c>
@@ -2111,6 +2770,7 @@
       <c r="J13">
         <v>3</v>
       </c>
+      <c r="K13"/>
       <c r="L13">
         <v>0</v>
       </c>
@@ -2136,16 +2796,19 @@
         <v>44862.895787037</v>
       </c>
       <c r="T13" s="1">
-        <v>44870.493113425902</v>
-      </c>
+        <v>44870.4931134259</v>
+      </c>
+      <c r="U13"/>
       <c r="V13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" customFormat="1" spans="1:22">
       <c r="A14" t="s">
         <v>62</v>
       </c>
+      <c r="B14"/>
+      <c r="C14"/>
       <c r="D14" t="s">
         <v>63</v>
       </c>
@@ -2167,6 +2830,7 @@
       <c r="J14">
         <v>3</v>
       </c>
+      <c r="K14"/>
       <c r="L14">
         <v>0</v>
       </c>
@@ -2189,19 +2853,22 @@
         <v>14</v>
       </c>
       <c r="S14" s="1">
-        <v>44864.733217592599</v>
+        <v>44864.7332175926</v>
       </c>
       <c r="T14" s="1">
-        <v>44864.733217592599</v>
-      </c>
+        <v>44864.7332175926</v>
+      </c>
+      <c r="U14"/>
       <c r="V14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" customFormat="1" spans="1:22">
       <c r="A15" t="s">
         <v>65</v>
       </c>
+      <c r="B15"/>
+      <c r="C15"/>
       <c r="D15" t="s">
         <v>66</v>
       </c>
@@ -2223,6 +2890,7 @@
       <c r="J15">
         <v>13</v>
       </c>
+      <c r="K15"/>
       <c r="L15">
         <v>0</v>
       </c>
@@ -2250,14 +2918,17 @@
       <c r="T15" s="1">
         <v>44862.9000578704</v>
       </c>
+      <c r="U15"/>
       <c r="V15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" customFormat="1" spans="1:22">
       <c r="A16" t="s">
         <v>68</v>
       </c>
+      <c r="B16"/>
+      <c r="C16"/>
       <c r="D16" t="s">
         <v>69</v>
       </c>
@@ -2279,6 +2950,7 @@
       <c r="J16">
         <v>13</v>
       </c>
+      <c r="K16"/>
       <c r="L16">
         <v>0</v>
       </c>
@@ -2301,19 +2973,24 @@
         <v>16</v>
       </c>
       <c r="S16" s="1">
-        <v>44862.925173611096</v>
+        <v>44862.9251736111</v>
       </c>
       <c r="T16" s="1">
-        <v>44863.569282407399</v>
-      </c>
+        <v>44863.5692824074</v>
+      </c>
+      <c r="U16"/>
       <c r="V16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" customFormat="1" spans="1:22">
       <c r="A17" t="s">
         <v>71</v>
       </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
       <c r="F17">
         <v>0</v>
       </c>
@@ -2354,19 +3031,24 @@
         <v>17</v>
       </c>
       <c r="S17" s="1">
-        <v>44883.598217592596</v>
+        <v>44883.5982175926</v>
       </c>
       <c r="T17" s="1">
-        <v>44883.604062500002</v>
-      </c>
+        <v>44883.6040625</v>
+      </c>
+      <c r="U17"/>
       <c r="V17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" customFormat="1" spans="1:22">
       <c r="A18" t="s">
         <v>74</v>
       </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
       <c r="F18">
         <v>0</v>
       </c>
@@ -2412,14 +3094,19 @@
       <c r="T18" s="1">
         <v>44883.6410300926</v>
       </c>
+      <c r="U18"/>
       <c r="V18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" customFormat="1" spans="1:22">
       <c r="A19" t="s">
         <v>76</v>
       </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
       <c r="F19">
         <v>0</v>
       </c>
@@ -2460,19 +3147,24 @@
         <v>19</v>
       </c>
       <c r="S19" s="1">
-        <v>44883.641284722202</v>
+        <v>44883.6412847222</v>
       </c>
       <c r="T19" s="1">
-        <v>44883.641284722202</v>
-      </c>
+        <v>44883.6412847222</v>
+      </c>
+      <c r="U19"/>
       <c r="V19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" customFormat="1" spans="1:22">
       <c r="A20" t="s">
         <v>78</v>
       </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
       <c r="F20">
         <v>0</v>
       </c>
@@ -2513,19 +3205,24 @@
         <v>20</v>
       </c>
       <c r="S20" s="1">
-        <v>44883.633275462998</v>
+        <v>44883.633275463</v>
       </c>
       <c r="T20" s="1">
-        <v>44883.633275462998</v>
-      </c>
+        <v>44883.633275463</v>
+      </c>
+      <c r="U20"/>
       <c r="V20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" customFormat="1" spans="1:22">
       <c r="A21" t="s">
         <v>80</v>
       </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
       <c r="F21">
         <v>0</v>
       </c>
@@ -2566,19 +3263,24 @@
         <v>21</v>
       </c>
       <c r="S21" s="1">
-        <v>44883.641620370399</v>
+        <v>44883.6416203704</v>
       </c>
       <c r="T21" s="1">
-        <v>44883.641620370399</v>
-      </c>
+        <v>44883.6416203704</v>
+      </c>
+      <c r="U21"/>
       <c r="V21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" customFormat="1" spans="1:22">
       <c r="A22" t="s">
         <v>82</v>
       </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
       <c r="F22">
         <v>0</v>
       </c>
@@ -2622,16 +3324,21 @@
         <v>44883.6417939815</v>
       </c>
       <c r="T22" s="1">
-        <v>45162.653738425899</v>
-      </c>
+        <v>45162.6537384259</v>
+      </c>
+      <c r="U22"/>
       <c r="V22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" customFormat="1" spans="1:22">
       <c r="A23" t="s">
         <v>84</v>
       </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
       <c r="F23">
         <v>0</v>
       </c>
@@ -2675,16 +3382,21 @@
         <v>44883.643275463</v>
       </c>
       <c r="T23" s="1">
-        <v>44883.646527777797</v>
-      </c>
+        <v>44883.6465277778</v>
+      </c>
+      <c r="U23"/>
       <c r="V23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" customFormat="1" spans="1:22">
       <c r="A24" t="s">
         <v>86</v>
       </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
       <c r="F24">
         <v>0</v>
       </c>
@@ -2725,19 +3437,24 @@
         <v>24</v>
       </c>
       <c r="S24" s="1">
-        <v>44883.643530092602</v>
+        <v>44883.6435300926</v>
       </c>
       <c r="T24" s="1">
-        <v>44883.643530092602</v>
-      </c>
+        <v>44883.6435300926</v>
+      </c>
+      <c r="U24"/>
       <c r="V24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" customFormat="1" spans="1:22">
       <c r="A25" t="s">
         <v>88</v>
       </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
       <c r="F25">
         <v>0</v>
       </c>
@@ -2778,19 +3495,24 @@
         <v>25</v>
       </c>
       <c r="S25" s="1">
-        <v>44883.643819444398</v>
+        <v>44883.6438194444</v>
       </c>
       <c r="T25" s="1">
-        <v>44883.643819444398</v>
-      </c>
+        <v>44883.6438194444</v>
+      </c>
+      <c r="U25"/>
       <c r="V25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" customFormat="1" spans="1:22">
       <c r="A26" t="s">
         <v>90</v>
       </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
       <c r="F26">
         <v>0</v>
       </c>
@@ -2831,19 +3553,24 @@
         <v>26</v>
       </c>
       <c r="S26" s="1">
-        <v>44883.644166666701</v>
+        <v>44883.6441666667</v>
       </c>
       <c r="T26" s="1">
-        <v>44883.644166666701</v>
-      </c>
+        <v>44883.6441666667</v>
+      </c>
+      <c r="U26"/>
       <c r="V26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" customFormat="1" spans="1:22">
       <c r="A27" t="s">
         <v>92</v>
       </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
       <c r="F27">
         <v>0</v>
       </c>
@@ -2884,19 +3611,24 @@
         <v>27</v>
       </c>
       <c r="S27" s="1">
-        <v>44883.644386574102</v>
+        <v>44883.6443865741</v>
       </c>
       <c r="T27" s="1">
-        <v>44883.644386574102</v>
-      </c>
+        <v>44883.6443865741</v>
+      </c>
+      <c r="U27"/>
       <c r="V27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" customFormat="1" spans="1:22">
       <c r="A28" t="s">
         <v>94</v>
       </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
       <c r="F28">
         <v>0</v>
       </c>
@@ -2937,22 +3669,24 @@
         <v>28</v>
       </c>
       <c r="S28" s="1">
-        <v>44883.644884259302</v>
+        <v>44883.6448842593</v>
       </c>
       <c r="T28" s="1">
-        <v>44883.644884259302</v>
-      </c>
+        <v>44883.6448842593</v>
+      </c>
+      <c r="U28"/>
       <c r="V28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" customFormat="1" spans="1:22">
       <c r="A29" t="s">
         <v>96</v>
       </c>
       <c r="B29" t="s">
         <v>97</v>
       </c>
+      <c r="C29"/>
       <c r="D29" t="s">
         <v>25</v>
       </c>
@@ -2971,6 +3705,8 @@
       <c r="I29" t="s">
         <v>27</v>
       </c>
+      <c r="J29"/>
+      <c r="K29"/>
       <c r="L29">
         <v>0</v>
       </c>
@@ -2996,16 +3732,19 @@
         <v>44973.6896180556</v>
       </c>
       <c r="T29" s="1">
-        <v>44973.690972222197</v>
-      </c>
+        <v>44973.6909722222</v>
+      </c>
+      <c r="U29"/>
       <c r="V29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" customFormat="1" spans="1:22">
       <c r="A30" t="s">
         <v>99</v>
       </c>
+      <c r="B30"/>
+      <c r="C30"/>
       <c r="D30" t="s">
         <v>100</v>
       </c>
@@ -3027,6 +3766,7 @@
       <c r="J30">
         <v>38</v>
       </c>
+      <c r="K30"/>
       <c r="L30">
         <v>0</v>
       </c>
@@ -3049,19 +3789,22 @@
         <v>39</v>
       </c>
       <c r="S30" s="1">
-        <v>44973.690277777801</v>
+        <v>44973.6902777778</v>
       </c>
       <c r="T30" s="1">
-        <v>44973.691400463002</v>
-      </c>
+        <v>44973.691400463</v>
+      </c>
+      <c r="U30"/>
       <c r="V30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" customFormat="1" spans="1:22">
       <c r="A31" t="s">
         <v>102</v>
       </c>
+      <c r="B31"/>
+      <c r="C31"/>
       <c r="D31" t="s">
         <v>103</v>
       </c>
@@ -3083,6 +3826,7 @@
       <c r="J31">
         <v>38</v>
       </c>
+      <c r="K31"/>
       <c r="L31">
         <v>0</v>
       </c>
@@ -3105,19 +3849,22 @@
         <v>40</v>
       </c>
       <c r="S31" s="1">
-        <v>44973.717280092598</v>
+        <v>44973.7172800926</v>
       </c>
       <c r="T31" s="1">
-        <v>44973.719930555599</v>
-      </c>
+        <v>44973.7199305556</v>
+      </c>
+      <c r="U31"/>
       <c r="V31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" customFormat="1" spans="1:22">
       <c r="A32" t="s">
         <v>105</v>
       </c>
+      <c r="B32"/>
+      <c r="C32"/>
       <c r="D32" t="s">
         <v>106</v>
       </c>
@@ -3139,6 +3886,7 @@
       <c r="J32">
         <v>38</v>
       </c>
+      <c r="K32"/>
       <c r="L32">
         <v>0</v>
       </c>
@@ -3161,16 +3909,17 @@
         <v>42</v>
       </c>
       <c r="S32" s="1">
-        <v>44978.987083333297</v>
+        <v>44978.9870833333</v>
       </c>
       <c r="T32" s="1">
-        <v>44978.987083333297</v>
-      </c>
+        <v>44978.9870833333</v>
+      </c>
+      <c r="U32"/>
       <c r="V32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" customFormat="1" spans="1:22">
       <c r="A33" t="s">
         <v>108</v>
       </c>
@@ -3180,6 +3929,7 @@
       <c r="C33" t="s">
         <v>110</v>
       </c>
+      <c r="D33"/>
       <c r="E33" t="s">
         <v>111</v>
       </c>
@@ -3195,6 +3945,8 @@
       <c r="I33" t="s">
         <v>27</v>
       </c>
+      <c r="J33"/>
+      <c r="K33"/>
       <c r="L33">
         <v>0</v>
       </c>
@@ -3217,19 +3969,22 @@
         <v>68</v>
       </c>
       <c r="S33" s="1">
-        <v>44889.630127314798</v>
+        <v>44889.6301273148</v>
       </c>
       <c r="T33" s="1">
-        <v>44889.641284722202</v>
-      </c>
+        <v>44889.6412847222</v>
+      </c>
+      <c r="U33"/>
       <c r="V33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" customFormat="1" spans="1:22">
       <c r="A34" t="s">
         <v>112</v>
       </c>
+      <c r="B34"/>
+      <c r="C34"/>
       <c r="D34" t="s">
         <v>113</v>
       </c>
@@ -3251,6 +4006,7 @@
       <c r="J34">
         <v>68</v>
       </c>
+      <c r="K34"/>
       <c r="L34">
         <v>0</v>
       </c>
@@ -3273,19 +4029,22 @@
         <v>69</v>
       </c>
       <c r="S34" s="1">
-        <v>44889.630659722199</v>
+        <v>44889.6306597222</v>
       </c>
       <c r="T34" s="1">
-        <v>44889.641111111101</v>
-      </c>
+        <v>44889.6411111111</v>
+      </c>
+      <c r="U34"/>
       <c r="V34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" customFormat="1" spans="1:22">
       <c r="A35" t="s">
         <v>115</v>
       </c>
+      <c r="B35"/>
+      <c r="C35"/>
       <c r="D35" t="s">
         <v>116</v>
       </c>
@@ -3307,6 +4066,7 @@
       <c r="J35">
         <v>3</v>
       </c>
+      <c r="K35"/>
       <c r="L35">
         <v>0</v>
       </c>
@@ -3329,19 +4089,22 @@
         <v>73</v>
       </c>
       <c r="S35" s="1">
-        <v>45102.614305555602</v>
+        <v>45102.6143055556</v>
       </c>
       <c r="T35" s="1">
-        <v>45102.614305555602</v>
-      </c>
+        <v>45102.6143055556</v>
+      </c>
+      <c r="U35"/>
       <c r="V35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" customFormat="1" spans="1:22">
       <c r="A36" t="s">
         <v>118</v>
       </c>
+      <c r="B36"/>
+      <c r="C36"/>
       <c r="D36" t="s">
         <v>119</v>
       </c>
@@ -3363,6 +4126,7 @@
       <c r="J36">
         <v>13</v>
       </c>
+      <c r="K36"/>
       <c r="L36">
         <v>0</v>
       </c>
@@ -3385,19 +4149,24 @@
         <v>74</v>
       </c>
       <c r="S36" s="1">
-        <v>45105.454143518502</v>
+        <v>45105.4541435185</v>
       </c>
       <c r="T36" s="1">
-        <v>45105.454143518502</v>
-      </c>
+        <v>45105.4541435185</v>
+      </c>
+      <c r="U36"/>
       <c r="V36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" customFormat="1" spans="1:22">
       <c r="A37" t="s">
         <v>120</v>
       </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
       <c r="F37">
         <v>0</v>
       </c>
@@ -3438,19 +4207,24 @@
         <v>76</v>
       </c>
       <c r="S37" s="1">
-        <v>45162.653043981503</v>
+        <v>45162.6530439815</v>
       </c>
       <c r="T37" s="1">
-        <v>45162.653043981503</v>
-      </c>
+        <v>45162.6530439815</v>
+      </c>
+      <c r="U37"/>
       <c r="V37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" customFormat="1" spans="1:22">
       <c r="A38" t="s">
         <v>122</v>
       </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
       <c r="F38">
         <v>0</v>
       </c>
@@ -3491,19 +4265,24 @@
         <v>77</v>
       </c>
       <c r="S38" s="1">
-        <v>45162.653321759302</v>
+        <v>45162.6533217593</v>
       </c>
       <c r="T38" s="1">
-        <v>45162.653321759302</v>
-      </c>
+        <v>45162.6533217593</v>
+      </c>
+      <c r="U38"/>
       <c r="V38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" customFormat="1" spans="1:22">
       <c r="A39" t="s">
         <v>124</v>
       </c>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
       <c r="F39">
         <v>0</v>
       </c>
@@ -3544,39 +4323,161 @@
         <v>78</v>
       </c>
       <c r="S39" s="1">
-        <v>45162.653657407398</v>
+        <v>45162.6536574074</v>
       </c>
       <c r="T39" s="1">
-        <v>45162.653657407398</v>
-      </c>
+        <v>45162.6536574074</v>
+      </c>
+      <c r="U39"/>
       <c r="V39">
         <v>0</v>
       </c>
     </row>
+    <row r="40" customFormat="1" spans="1:22">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>79</v>
+      </c>
+      <c r="S40" s="1">
+        <v>45163.5808449074</v>
+      </c>
+      <c r="T40" s="1">
+        <v>45163.5808449074</v>
+      </c>
+      <c r="U40"/>
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:22">
+      <c r="A41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41">
+        <v>79</v>
+      </c>
+      <c r="K41"/>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>80</v>
+      </c>
+      <c r="S41" s="1">
+        <v>45163.5814699074</v>
+      </c>
+      <c r="T41" s="1">
+        <v>45163.5814699074</v>
+      </c>
+      <c r="U41"/>
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="52.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
+    <col min="2" max="3" width="18.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="52.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="15.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="14.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="9.28571428571429" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3596,22 +4497,22 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="I1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3619,10 +4520,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>44984.657164351898</v>
+        <v>44984.6571643519</v>
       </c>
       <c r="C2" s="1">
-        <v>45142.737500000003</v>
+        <v>45142.7375</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3631,10 +4532,10 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3651,7 +4552,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>44984.657337962999</v>
+        <v>44984.657337963</v>
       </c>
       <c r="C3" s="1">
         <v>45142.7374305556</v>
@@ -3663,10 +4564,10 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H3" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3683,10 +4584,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>44984.657453703701</v>
+        <v>44984.6574537037</v>
       </c>
       <c r="C4" s="1">
-        <v>45142.737453703703</v>
+        <v>45142.7374537037</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3695,10 +4596,10 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3715,10 +4616,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>44984.657581018502</v>
+        <v>44984.6575810185</v>
       </c>
       <c r="C5" s="1">
-        <v>45142.737476851798</v>
+        <v>45142.7374768518</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3727,10 +4628,10 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H5" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3747,10 +4648,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>44984.657719907402</v>
+        <v>44984.6577199074</v>
       </c>
       <c r="C6" s="1">
-        <v>45141.021805555603</v>
+        <v>45141.0218055556</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3759,10 +4660,10 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H6" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3779,10 +4680,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>44984.657847222203</v>
+        <v>44984.6578472222</v>
       </c>
       <c r="C7" s="1">
-        <v>45129.748043981497</v>
+        <v>45129.7480439815</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3791,10 +4692,10 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3814,7 +4715,7 @@
         <v>44984.657962963</v>
       </c>
       <c r="C8" s="1">
-        <v>45142.737407407403</v>
+        <v>45142.7374074074</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3823,10 +4724,10 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="H8" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3839,25 +4740,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="9.28571428571429" customWidth="1"/>
+    <col min="10" max="10" width="17.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3871,16 +4773,16 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -3900,16 +4802,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44786.457152777803</v>
+        <v>44786.4571527778</v>
       </c>
       <c r="C2" s="1">
-        <v>44843.627476851798</v>
+        <v>44843.6274768518</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3925,31 +4827,32 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="7" max="7" width="72.28515625" customWidth="1"/>
+    <col min="7" max="7" width="72.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.42857142857143" customWidth="1"/>
+    <col min="11" max="11" width="19.1428571428571" customWidth="1"/>
+    <col min="12" max="12" width="9.42857142857143" customWidth="1"/>
+    <col min="13" max="13" width="20.1428571428571" customWidth="1"/>
+    <col min="14" max="14" width="17.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3963,34 +4866,34 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" t="s">
-        <v>126</v>
-      </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
@@ -3999,7 +4902,7 @@
         <v>21</v>
       </c>
       <c r="P1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4007,22 +4910,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44784.845185185201</v>
+        <v>44784.8451851852</v>
       </c>
       <c r="C2" s="1">
-        <v>44888.896111111098</v>
+        <v>44888.8961111111</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
         <v>38</v>
@@ -4034,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M2" s="1"/>
       <c r="O2">
@@ -4045,27 +4948,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4077,28 +4981,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.42857142857143" customWidth="1"/>
     <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="24.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="9.28571428571429" customWidth="1"/>
+    <col min="8" max="8" width="17.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4112,13 +5017,13 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -4135,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44839.919247685197</v>
+        <v>44839.9192476852</v>
       </c>
       <c r="C2" s="1">
-        <v>44842.581435185202</v>
+        <v>44842.5814351852</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4158,16 +5063,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44842.581620370402</v>
+        <v>44842.5816203704</v>
       </c>
       <c r="C3" s="1">
-        <v>44842.581620370402</v>
+        <v>44842.5816203704</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -4181,16 +5086,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44898.991770833301</v>
+        <v>44898.9917708333</v>
       </c>
       <c r="C4" s="1">
-        <v>44898.991770833301</v>
+        <v>44898.9917708333</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4204,16 +5109,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>44898.992488425902</v>
+        <v>44898.9924884259</v>
       </c>
       <c r="C5" s="1">
-        <v>44898.992488425902</v>
+        <v>44898.9924884259</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4227,19 +5132,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>45102.705092592601</v>
+        <v>45102.7050925926</v>
       </c>
       <c r="C6" s="1">
-        <v>45107.391307870399</v>
+        <v>45107.3913078704</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4249,13 +5154,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4264,11 +5170,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.42857142857143" customWidth="1"/>
     <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4282,13 +5188,13 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -4297,10 +5203,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
@@ -4314,10 +5220,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>44841.505358796298</v>
+        <v>44841.5053587963</v>
       </c>
       <c r="C2" s="1">
-        <v>44841.505578703698</v>
+        <v>44841.5055787037</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4332,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="J2" t="s">
         <v>27</v>
@@ -4346,10 +5252,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>44842.580231481501</v>
+        <v>44842.5802314815</v>
       </c>
       <c r="C3" s="1">
-        <v>44842.580231481501</v>
+        <v>44842.5802314815</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4364,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J3" t="s">
         <v>38</v>
@@ -4378,7 +5284,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>44842.586979166699</v>
+        <v>44842.5869791667</v>
       </c>
       <c r="C4" s="1">
         <v>44842.5872453704</v>
@@ -4396,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J4" t="s">
         <v>27</v>
@@ -4410,10 +5316,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>44842.587083333303</v>
+        <v>44842.5870833333</v>
       </c>
       <c r="C5" s="1">
-        <v>44842.587083333303</v>
+        <v>44842.5870833333</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4428,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="J5" t="s">
         <v>38</v>
@@ -4442,10 +5348,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>44842.587175925903</v>
+        <v>44842.5871759259</v>
       </c>
       <c r="C6" s="1">
-        <v>44842.587175925903</v>
+        <v>44842.5871759259</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4460,7 +5366,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J6" t="s">
         <v>72</v>
@@ -4492,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J7" t="s">
         <v>27</v>
@@ -4506,10 +5412,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>44898.992210648197</v>
+        <v>44898.9922106482</v>
       </c>
       <c r="C8" s="1">
-        <v>44898.992210648197</v>
+        <v>44898.9922106482</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4524,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J8" t="s">
         <v>38</v>
@@ -4556,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="J9" t="s">
         <v>27</v>
@@ -4570,10 +5476,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>44898.992835648198</v>
+        <v>44898.9928356482</v>
       </c>
       <c r="C10" s="1">
-        <v>44898.992835648198</v>
+        <v>44898.9928356482</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4588,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="J10" t="s">
         <v>38</v>
@@ -4602,10 +5508,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>44980.950659722199</v>
+        <v>44980.9506597222</v>
       </c>
       <c r="C11" s="1">
-        <v>44980.953773148103</v>
+        <v>44980.9537731481</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4620,7 +5526,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="J11" t="s">
         <v>72</v>
@@ -4634,10 +5540,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>45102.705671296302</v>
+        <v>45102.7056712963</v>
       </c>
       <c r="C12" s="1">
-        <v>45103.661284722199</v>
+        <v>45103.6612847222</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4652,10 +5558,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="J12" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4666,10 +5572,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>45102.706574074102</v>
+        <v>45102.7065740741</v>
       </c>
       <c r="C13" s="1">
-        <v>45102.706574074102</v>
+        <v>45102.7065740741</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4684,10 +5590,10 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="J13" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -4698,10 +5604,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>45102.706724536998</v>
+        <v>45102.706724537</v>
       </c>
       <c r="C14" s="1">
-        <v>45103.661400463003</v>
+        <v>45103.661400463</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4716,23 +5622,24 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J14" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4742,12 +5649,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="12.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="10.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="8.14285714285714" customWidth="1"/>
+    <col min="9" max="9" width="17.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4767,16 +5674,16 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="I1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -4790,25 +5697,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="C2" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4822,25 +5729,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="C3" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="E3" t="s">
         <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4854,25 +5761,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="C4" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="E4" t="s">
         <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -4886,25 +5793,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="C5" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="E5" t="s">
         <v>62</v>
       </c>
       <c r="F5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>192</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>186</v>
-      </c>
       <c r="I5" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4918,25 +5825,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="C6" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="E6" t="s">
         <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -4950,25 +5857,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44873.393229166701</v>
+        <v>44873.3932291667</v>
       </c>
       <c r="C7" s="1">
-        <v>44873.393229166701</v>
+        <v>44873.3932291667</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -4982,25 +5889,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44873.393449074101</v>
+        <v>44873.3934490741</v>
       </c>
       <c r="C8" s="1">
-        <v>44873.393449074101</v>
+        <v>44873.3934490741</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I8" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -5014,13 +5921,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44882.803460648101</v>
+        <v>44882.8034606481</v>
       </c>
       <c r="C9" s="1">
-        <v>44882.803460648101</v>
+        <v>44882.8034606481</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
         <v>42</v>
@@ -5032,7 +5939,7 @@
         <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -5046,25 +5953,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44971.953680555598</v>
+        <v>44971.9536805556</v>
       </c>
       <c r="C10" s="1">
-        <v>44971.953680555598</v>
+        <v>44971.9536805556</v>
       </c>
       <c r="E10" t="s">
         <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I10" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -5078,25 +5985,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>44971.953680555598</v>
+        <v>44971.9536805556</v>
       </c>
       <c r="C11" s="1">
-        <v>44971.953680555598</v>
-      </c>
-      <c r="E11" s="2" t="s">
+        <v>44971.9536805556</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>206</v>
+      <c r="F11" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I11" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5106,25 +6013,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="67.85546875" customWidth="1"/>
+    <col min="2" max="3" width="20.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="17.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="23.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="67.8571428571429" customWidth="1"/>
     <col min="8" max="8" width="98" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5142,19 +6050,19 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -5171,16 +6079,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C2" s="1">
-        <v>44984.400081018503</v>
+        <v>44984.4000810185</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5200,16 +6108,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C3" s="1">
-        <v>44984.400081018503</v>
+        <v>44984.4000810185</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5229,16 +6137,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C4" s="1">
-        <v>44984.400081018503</v>
+        <v>44984.4000810185</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5258,16 +6166,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C5" s="1">
-        <v>44942.757025462997</v>
+        <v>44942.757025463</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5287,16 +6195,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C6" s="1">
-        <v>44984.400081018503</v>
+        <v>44984.4000810185</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5316,16 +6224,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C7" s="1">
-        <v>44984.400081018503</v>
+        <v>44984.4000810185</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5342,19 +6250,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44865.868032407401</v>
+        <v>44865.8680324074</v>
       </c>
       <c r="C8" s="1">
-        <v>44887.691469907397</v>
+        <v>44887.6914699074</v>
       </c>
       <c r="E8" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F8" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H8" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -5371,19 +6279,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44869.576631944401</v>
+        <v>44869.5766319444</v>
       </c>
       <c r="C9" s="1">
-        <v>44965.452013888898</v>
+        <v>44965.4520138889</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F9" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -5400,19 +6308,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44869.577037037001</v>
+        <v>44869.577037037</v>
       </c>
       <c r="C10" s="1">
-        <v>44869.679618055503</v>
+        <v>44869.6796180555</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G10" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -5429,16 +6337,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>44873.394305555601</v>
+        <v>44873.3943055556</v>
       </c>
       <c r="C11" s="1">
-        <v>44873.394305555601</v>
+        <v>44873.3943055556</v>
       </c>
       <c r="E11" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F11" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -5455,16 +6363,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>44873.394861111097</v>
+        <v>44873.3948611111</v>
       </c>
       <c r="C12" s="1">
-        <v>44873.394861111097</v>
+        <v>44873.3948611111</v>
       </c>
       <c r="E12" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F12" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -5481,19 +6389,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>44873.397835648102</v>
+        <v>44873.3978356481</v>
       </c>
       <c r="C13" s="1">
-        <v>44873.397835648102</v>
+        <v>44873.3978356481</v>
       </c>
       <c r="E13" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F13" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H13" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -5510,19 +6418,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>44873.404872685198</v>
+        <v>44873.4048726852</v>
       </c>
       <c r="C14" s="1">
-        <v>44873.404872685198</v>
+        <v>44873.4048726852</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F14" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H14" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -5539,19 +6447,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>44873.948194444398</v>
+        <v>44873.9481944444</v>
       </c>
       <c r="C15" s="1">
-        <v>44873.948194444398</v>
+        <v>44873.9481944444</v>
       </c>
       <c r="E15" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F15" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G15" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I15">
         <v>6</v>
@@ -5568,19 +6476,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>44873.948611111096</v>
+        <v>44873.9486111111</v>
       </c>
       <c r="C16" s="1">
-        <v>44873.948611111096</v>
+        <v>44873.9486111111</v>
       </c>
       <c r="E16" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F16" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G16" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -5597,19 +6505,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>44880.940173611103</v>
+        <v>44880.9401736111</v>
       </c>
       <c r="C17" s="1">
-        <v>44880.940173611103</v>
+        <v>44880.9401736111</v>
       </c>
       <c r="E17" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F17" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H17" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -5626,19 +6534,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>44880.941412036998</v>
+        <v>44880.941412037</v>
       </c>
       <c r="C18" s="1">
-        <v>44880.941412036998</v>
+        <v>44880.941412037</v>
       </c>
       <c r="E18" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F18" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H18" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -5661,13 +6569,13 @@
         <v>44882.8044212963</v>
       </c>
       <c r="E19" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F19" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H19" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I19">
         <v>8</v>
@@ -5684,22 +6592,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>44882.805381944403</v>
+        <v>44882.8053819444</v>
       </c>
       <c r="C20" s="1">
-        <v>44882.805381944403</v>
+        <v>44882.8053819444</v>
       </c>
       <c r="E20" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F20" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G20" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H20" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -5716,22 +6624,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>44882.805740740703</v>
+        <v>44882.8057407407</v>
       </c>
       <c r="C21" s="1">
-        <v>44882.805740740703</v>
+        <v>44882.8057407407</v>
       </c>
       <c r="E21" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F21" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G21" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H21" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -5748,22 +6656,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>44882.814594907402</v>
+        <v>44882.8145949074</v>
       </c>
       <c r="C22" s="1">
-        <v>44882.814594907402</v>
+        <v>44882.8145949074</v>
       </c>
       <c r="E22" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F22" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G22" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H22" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="I22">
         <v>8</v>
@@ -5780,22 +6688,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>44882.815324074101</v>
+        <v>44882.8153240741</v>
       </c>
       <c r="C23" s="1">
-        <v>44882.815324074101</v>
+        <v>44882.8153240741</v>
       </c>
       <c r="E23" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F23" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G23" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H23" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="I23">
         <v>8</v>
@@ -5812,22 +6720,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>44882.816689814797</v>
+        <v>44882.8166898148</v>
       </c>
       <c r="C24" s="1">
-        <v>44882.816689814797</v>
+        <v>44882.8166898148</v>
       </c>
       <c r="E24" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F24" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G24" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H24" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="I24">
         <v>8</v>
@@ -5844,19 +6752,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>44971.954965277801</v>
+        <v>44971.9549652778</v>
       </c>
       <c r="C25" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E25" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F25" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G25" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="I25">
         <v>9</v>
@@ -5873,16 +6781,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>44971.955520833297</v>
+        <v>44971.9555208333</v>
       </c>
       <c r="C26" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E26" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F26" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="I26">
         <v>9</v>
@@ -5899,19 +6807,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>44971.956076388902</v>
+        <v>44971.9560763889</v>
       </c>
       <c r="C27" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E27" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F27" t="s">
-        <v>286</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>321</v>
+        <v>292</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="I27">
         <v>9</v>
@@ -5928,16 +6836,16 @@
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>44983.917581018497</v>
+        <v>44983.9175810185</v>
       </c>
       <c r="C28" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E28" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F28" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="I28">
         <v>9</v>
@@ -5954,16 +6862,16 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>44983.917893518497</v>
+        <v>44983.9178935185</v>
       </c>
       <c r="C29" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E29" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F29" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="I29">
         <v>9</v>
@@ -5980,18 +6888,18 @@
         <v>34</v>
       </c>
       <c r="B30" s="1">
-        <v>44983.917893518497</v>
+        <v>44983.9178935185</v>
       </c>
       <c r="C30" s="1">
-        <v>44984.409745370402</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>291</v>
+        <v>44984.4097453704</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="F30" t="s">
-        <v>292</v>
-      </c>
-      <c r="G30" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="G30" s="4"/>
       <c r="I30">
         <v>10</v>
       </c>
@@ -6007,18 +6915,18 @@
         <v>35</v>
       </c>
       <c r="B31" s="1">
-        <v>44983.917893518497</v>
+        <v>44983.9178935185</v>
       </c>
       <c r="C31" s="1">
-        <v>44984.409745370402</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>293</v>
+        <v>44984.4097453704</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="F31" t="s">
-        <v>294</v>
-      </c>
-      <c r="G31" s="4"/>
+        <v>301</v>
+      </c>
+      <c r="G31" s="5"/>
       <c r="I31">
         <v>10</v>
       </c>
@@ -6034,19 +6942,19 @@
         <v>36</v>
       </c>
       <c r="B32" s="1">
-        <v>44983.917893518497</v>
+        <v>44983.9178935185</v>
       </c>
       <c r="C32" s="1">
-        <v>44984.409745370402</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>295</v>
+        <v>44984.4097453704</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="F32" t="s">
-        <v>296</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>297</v>
+        <v>303</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="I32">
         <v>10</v>
@@ -6063,18 +6971,18 @@
         <v>37</v>
       </c>
       <c r="B33" s="1">
-        <v>44983.917893518497</v>
+        <v>44983.9178935185</v>
       </c>
       <c r="C33" s="1">
-        <v>44984.409745370402</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>298</v>
+        <v>44984.4097453704</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
-      </c>
-      <c r="G33" s="4">
+        <v>306</v>
+      </c>
+      <c r="G33" s="5">
         <v>25</v>
       </c>
       <c r="I33">
@@ -6088,31 +6996,32 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G27" r:id="rId1" xr:uid="{32144A9D-801E-4271-824B-21E568432309}"/>
+    <hyperlink ref="G27" r:id="rId1" display="https://kinit.ktianc.top"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="2" max="3" width="18.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="9.85714285714286" customWidth="1"/>
+    <col min="6" max="6" width="11.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="9.28571428571429" customWidth="1"/>
+    <col min="9" max="9" width="15.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -6132,16 +7041,16 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6149,16 +7058,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>44984.656585648103</v>
+        <v>44984.6565856481</v>
       </c>
       <c r="C2" s="1">
-        <v>44984.656585648103</v>
+        <v>44984.6565856481</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
@@ -6184,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -6197,7 +7106,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/kinit-api/scripts/initialize/data/init.xlsx
+++ b/kinit-api/scripts/initialize/data/init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\ktianc\project\kinit-pro\kinit-api\scripts\initialize\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\ktianc\project\kinit\kinit-api\scripts\initialize\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516709E3-E2CB-4C49-8464-543BD390FFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97553F9-27BE-416E-92B2-16BBF0FD5499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="3780" windowWidth="27180" windowHeight="14460" tabRatio="887" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="6480" windowWidth="32880" windowHeight="17460" tabRatio="887" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vadmin_auth_menu" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="326">
   <si>
     <t>title</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>日志管理</t>
-  </si>
-  <si>
-    <t>record</t>
   </si>
   <si>
     <t>系统配置</t>
@@ -1036,13 +1033,21 @@
   <si>
     <t>views/Vadmin/Resource/Image/Image</t>
   </si>
+  <si>
+    <t>tdesign:catalog</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/record</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1097,13 +1102,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1382,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1697,7 +1703,7 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
@@ -1809,7 +1815,7 @@
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -1865,7 +1871,7 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E9" t="s">
         <v>47</v>
@@ -1921,7 +1927,7 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E10" t="s">
         <v>49</v>
@@ -1977,7 +1983,7 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -2032,11 +2038,14 @@
       <c r="A12" t="s">
         <v>52</v>
       </c>
+      <c r="B12" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
-        <v>53</v>
+      <c r="E12" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2045,14 +2054,11 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
         <v>27</v>
       </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
       <c r="L12">
         <v>0</v>
       </c>
@@ -2086,13 +2092,13 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" t="s">
         <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>315</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2142,13 +2148,13 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" t="s">
         <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>316</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2198,13 +2204,13 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>316</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>317</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2254,25 +2260,25 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
         <v>60</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>61</v>
       </c>
       <c r="J16">
         <v>7</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2307,7 +2313,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2319,13 +2325,13 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J17">
         <v>7</v>
       </c>
       <c r="K17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2360,7 +2366,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2372,13 +2378,13 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J18">
         <v>7</v>
       </c>
       <c r="K18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2413,7 +2419,7 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2425,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J19">
         <v>8</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2466,7 +2472,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2478,13 +2484,13 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J20">
         <v>8</v>
       </c>
       <c r="K20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2519,7 +2525,7 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2531,13 +2537,13 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J21">
         <v>8</v>
       </c>
       <c r="K21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2572,7 +2578,7 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2584,13 +2590,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J22">
         <v>9</v>
       </c>
       <c r="K22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2625,7 +2631,7 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2637,13 +2643,13 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J23">
         <v>9</v>
       </c>
       <c r="K23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2678,7 +2684,7 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2690,13 +2696,13 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J24">
         <v>9</v>
       </c>
       <c r="K24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2731,7 +2737,7 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2743,13 +2749,13 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J25">
         <v>9</v>
       </c>
       <c r="K25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2784,7 +2790,7 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2796,13 +2802,13 @@
         <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J26">
         <v>9</v>
       </c>
       <c r="K26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2837,7 +2843,7 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2849,13 +2855,13 @@
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J27">
         <v>9</v>
       </c>
       <c r="K27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2890,16 +2896,16 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
         <v>85</v>
-      </c>
-      <c r="B28" t="s">
-        <v>86</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2946,13 +2952,13 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>317</v>
+      </c>
+      <c r="E29" t="s">
         <v>88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>318</v>
-      </c>
-      <c r="E29" t="s">
-        <v>89</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3002,13 +3008,13 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>318</v>
+      </c>
+      <c r="E30" t="s">
         <v>90</v>
-      </c>
-      <c r="D30" t="s">
-        <v>319</v>
-      </c>
-      <c r="E30" t="s">
-        <v>91</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3058,13 +3064,13 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>319</v>
+      </c>
+      <c r="E31" t="s">
         <v>92</v>
-      </c>
-      <c r="D31" t="s">
-        <v>320</v>
-      </c>
-      <c r="E31" t="s">
-        <v>93</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3114,16 +3120,16 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
         <v>94</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>95</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>96</v>
-      </c>
-      <c r="E32" t="s">
-        <v>97</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -3170,13 +3176,13 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>320</v>
+      </c>
+      <c r="E33" t="s">
         <v>98</v>
-      </c>
-      <c r="D33" t="s">
-        <v>321</v>
-      </c>
-      <c r="E33" t="s">
-        <v>99</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3226,13 +3232,13 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>321</v>
+      </c>
+      <c r="E34" t="s">
         <v>100</v>
-      </c>
-      <c r="D34" t="s">
-        <v>322</v>
-      </c>
-      <c r="E34" t="s">
-        <v>101</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3282,13 +3288,13 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3338,7 +3344,7 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3350,13 +3356,13 @@
         <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J36">
         <v>7</v>
       </c>
       <c r="K36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3391,7 +3397,7 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3403,13 +3409,13 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J37">
         <v>8</v>
       </c>
       <c r="K37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3444,7 +3450,7 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3456,13 +3462,13 @@
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J38">
         <v>9</v>
       </c>
       <c r="K38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3497,16 +3503,16 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
         <v>109</v>
-      </c>
-      <c r="B39" t="s">
-        <v>110</v>
       </c>
       <c r="D39" t="s">
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3553,13 +3559,13 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" t="s">
+        <v>323</v>
+      </c>
+      <c r="E40" t="s">
         <v>112</v>
-      </c>
-      <c r="D40" t="s">
-        <v>324</v>
-      </c>
-      <c r="E40" t="s">
-        <v>113</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -3617,7 +3623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -3650,22 +3656,22 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>293</v>
       </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>294</v>
       </c>
-      <c r="I1" t="s">
-        <v>295</v>
-      </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3685,10 +3691,10 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H2" t="s">
         <v>296</v>
-      </c>
-      <c r="H2" t="s">
-        <v>297</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3717,10 +3723,10 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3" t="s">
         <v>298</v>
-      </c>
-      <c r="H3" t="s">
-        <v>299</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3749,10 +3755,10 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H4" t="s">
         <v>300</v>
-      </c>
-      <c r="H4" t="s">
-        <v>301</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3781,10 +3787,10 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" t="s">
         <v>302</v>
-      </c>
-      <c r="H5" t="s">
-        <v>303</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3813,10 +3819,10 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H6" t="s">
         <v>304</v>
-      </c>
-      <c r="H6" t="s">
-        <v>305</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3845,10 +3851,10 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H7" t="s">
         <v>306</v>
-      </c>
-      <c r="H7" t="s">
-        <v>307</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3877,10 +3883,10 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
+        <v>307</v>
+      </c>
+      <c r="H8" t="s">
         <v>308</v>
-      </c>
-      <c r="H8" t="s">
-        <v>309</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3925,16 +3931,16 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
         <v>114</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>117</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -3960,10 +3966,10 @@
         <v>44843.627476851798</v>
       </c>
       <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
         <v>118</v>
-      </c>
-      <c r="E2" t="s">
-        <v>119</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4017,34 +4023,34 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>123</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>124</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>125</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>126</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>127</v>
-      </c>
-      <c r="M1" t="s">
-        <v>128</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
@@ -4053,7 +4059,7 @@
         <v>21</v>
       </c>
       <c r="P1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4067,16 +4073,16 @@
         <v>44888.896111111098</v>
       </c>
       <c r="D2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" t="s">
         <v>130</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" t="s">
         <v>131</v>
-      </c>
-      <c r="F2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" t="s">
-        <v>132</v>
       </c>
       <c r="I2" t="s">
         <v>38</v>
@@ -4088,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M2" s="1"/>
       <c r="O2">
@@ -4116,10 +4122,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
         <v>134</v>
-      </c>
-      <c r="B1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4166,13 +4172,13 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
         <v>136</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>137</v>
-      </c>
-      <c r="F1" t="s">
-        <v>138</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -4195,10 +4201,10 @@
         <v>44842.581435185202</v>
       </c>
       <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
         <v>139</v>
-      </c>
-      <c r="E2" t="s">
-        <v>140</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4218,10 +4224,10 @@
         <v>44842.581620370402</v>
       </c>
       <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
         <v>141</v>
-      </c>
-      <c r="E3" t="s">
-        <v>142</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -4241,10 +4247,10 @@
         <v>44898.991770833301</v>
       </c>
       <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" t="s">
         <v>143</v>
-      </c>
-      <c r="E4" t="s">
-        <v>144</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4264,10 +4270,10 @@
         <v>44898.992488425902</v>
       </c>
       <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
         <v>145</v>
-      </c>
-      <c r="E5" t="s">
-        <v>146</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4287,13 +4293,13 @@
         <v>45107.391307870399</v>
       </c>
       <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
         <v>147</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>148</v>
-      </c>
-      <c r="F6" t="s">
-        <v>149</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4313,7 +4319,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4336,13 +4342,13 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" t="s">
-        <v>151</v>
-      </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -4351,10 +4357,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" t="s">
         <v>152</v>
-      </c>
-      <c r="J1" t="s">
-        <v>153</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
@@ -4386,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J2" t="s">
         <v>27</v>
@@ -4418,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J3" t="s">
         <v>38</v>
@@ -4450,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J4" t="s">
         <v>27</v>
@@ -4482,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J5" t="s">
         <v>38</v>
@@ -4514,10 +4520,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -4546,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J7" t="s">
         <v>27</v>
@@ -4578,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J8" t="s">
         <v>38</v>
@@ -4610,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J9" t="s">
         <v>27</v>
@@ -4642,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
         <v>38</v>
@@ -4674,10 +4680,10 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4706,10 +4712,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" t="s">
         <v>164</v>
-      </c>
-      <c r="J12" t="s">
-        <v>165</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4738,10 +4744,10 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" t="s">
         <v>166</v>
-      </c>
-      <c r="J13" t="s">
-        <v>167</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -4770,10 +4776,10 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" t="s">
         <v>168</v>
-      </c>
-      <c r="J14" t="s">
-        <v>169</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -4790,7 +4796,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4821,16 +4827,16 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" t="s">
         <v>171</v>
-      </c>
-      <c r="I1" t="s">
-        <v>172</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -4850,19 +4856,19 @@
         <v>44865.828298611101</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>173</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>174</v>
-      </c>
-      <c r="I2" t="s">
-        <v>175</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4882,19 +4888,19 @@
         <v>44865.828298611101</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" t="s">
         <v>176</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" t="s">
-        <v>177</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -4914,19 +4920,19 @@
         <v>44865.828298611101</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" t="s">
         <v>178</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I4" t="s">
-        <v>179</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -4946,19 +4952,19 @@
         <v>44865.828298611101</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" t="s">
         <v>180</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I5" t="s">
-        <v>181</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4978,19 +4984,19 @@
         <v>44865.828298611101</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" t="s">
         <v>182</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I6" t="s">
-        <v>183</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5010,19 +5016,19 @@
         <v>44873.393229166701</v>
       </c>
       <c r="E7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" t="s">
         <v>184</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>185</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>186</v>
-      </c>
-      <c r="I7" t="s">
-        <v>187</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -5042,19 +5048,19 @@
         <v>44873.393449074101</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" t="s">
         <v>188</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>186</v>
-      </c>
-      <c r="I8" t="s">
-        <v>189</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -5074,7 +5080,7 @@
         <v>44882.803460648101</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F9" t="s">
         <v>41</v>
@@ -5086,7 +5092,7 @@
         <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -5106,19 +5112,19 @@
         <v>44971.953680555598</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" t="s">
         <v>192</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>174</v>
-      </c>
-      <c r="I10" t="s">
-        <v>193</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -5138,19 +5144,19 @@
         <v>44971.953680555598</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" t="s">
         <v>194</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>174</v>
-      </c>
-      <c r="I11" t="s">
-        <v>195</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5196,19 +5202,19 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" t="s">
         <v>196</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>197</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
         <v>198</v>
-      </c>
-      <c r="H1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" t="s">
-        <v>199</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -5228,13 +5234,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" t="s">
         <v>200</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>201</v>
-      </c>
-      <c r="G2" t="s">
-        <v>202</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5257,13 +5263,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" t="s">
         <v>203</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>204</v>
-      </c>
-      <c r="G3" t="s">
-        <v>205</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5286,13 +5292,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" t="s">
         <v>206</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>207</v>
-      </c>
-      <c r="G4" t="s">
-        <v>208</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5315,13 +5321,13 @@
         <v>44942.757025462997</v>
       </c>
       <c r="E5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" t="s">
         <v>209</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>210</v>
-      </c>
-      <c r="G5" t="s">
-        <v>211</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5344,13 +5350,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" t="s">
         <v>212</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>213</v>
-      </c>
-      <c r="G6" t="s">
-        <v>214</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5373,13 +5379,13 @@
         <v>44984.400081018503</v>
       </c>
       <c r="E7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" t="s">
         <v>215</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>216</v>
-      </c>
-      <c r="G7" t="s">
-        <v>217</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5402,13 +5408,13 @@
         <v>44887.691469907397</v>
       </c>
       <c r="E8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" t="s">
         <v>218</v>
-      </c>
-      <c r="F8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H8" t="s">
-        <v>219</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -5431,13 +5437,13 @@
         <v>44965.452013888898</v>
       </c>
       <c r="E9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" t="s">
         <v>220</v>
-      </c>
-      <c r="F9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" t="s">
-        <v>221</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -5460,13 +5466,13 @@
         <v>44869.679618055503</v>
       </c>
       <c r="E10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" t="s">
         <v>182</v>
       </c>
-      <c r="F10" t="s">
-        <v>183</v>
-      </c>
       <c r="G10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -5489,10 +5495,10 @@
         <v>44873.394305555601</v>
       </c>
       <c r="E11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" t="s">
         <v>223</v>
-      </c>
-      <c r="F11" t="s">
-        <v>224</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -5515,10 +5521,10 @@
         <v>44873.394861111097</v>
       </c>
       <c r="E12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" t="s">
         <v>225</v>
-      </c>
-      <c r="F12" t="s">
-        <v>226</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -5541,13 +5547,13 @@
         <v>44873.397835648102</v>
       </c>
       <c r="E13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" t="s">
         <v>227</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>228</v>
-      </c>
-      <c r="H13" t="s">
-        <v>229</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -5570,13 +5576,13 @@
         <v>44873.404872685198</v>
       </c>
       <c r="E14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" t="s">
         <v>230</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>231</v>
-      </c>
-      <c r="H14" t="s">
-        <v>232</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -5599,13 +5605,13 @@
         <v>44873.948194444398</v>
       </c>
       <c r="E15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" t="s">
         <v>233</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>234</v>
-      </c>
-      <c r="G15" t="s">
-        <v>235</v>
       </c>
       <c r="I15">
         <v>6</v>
@@ -5628,13 +5634,13 @@
         <v>44873.948611111096</v>
       </c>
       <c r="E16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" t="s">
         <v>236</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>237</v>
-      </c>
-      <c r="G16" t="s">
-        <v>238</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -5657,13 +5663,13 @@
         <v>44880.940173611103</v>
       </c>
       <c r="E17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" t="s">
         <v>239</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>240</v>
-      </c>
-      <c r="H17" t="s">
-        <v>241</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -5686,13 +5692,13 @@
         <v>44880.941412036998</v>
       </c>
       <c r="E18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" t="s">
         <v>242</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>243</v>
-      </c>
-      <c r="H18" t="s">
-        <v>244</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -5715,13 +5721,13 @@
         <v>44882.8044212963</v>
       </c>
       <c r="E19" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" t="s">
         <v>245</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>246</v>
-      </c>
-      <c r="H19" t="s">
-        <v>247</v>
       </c>
       <c r="I19">
         <v>8</v>
@@ -5744,16 +5750,16 @@
         <v>44882.805381944403</v>
       </c>
       <c r="E20" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" t="s">
         <v>248</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>249</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>250</v>
-      </c>
-      <c r="H20" t="s">
-        <v>251</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -5776,16 +5782,16 @@
         <v>44882.805740740703</v>
       </c>
       <c r="E21" t="s">
+        <v>251</v>
+      </c>
+      <c r="F21" t="s">
         <v>252</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>253</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>254</v>
-      </c>
-      <c r="H21" t="s">
-        <v>255</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -5808,16 +5814,16 @@
         <v>44882.814594907402</v>
       </c>
       <c r="E22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" t="s">
         <v>256</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>257</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>258</v>
-      </c>
-      <c r="H22" t="s">
-        <v>259</v>
       </c>
       <c r="I22">
         <v>8</v>
@@ -5840,16 +5846,16 @@
         <v>44882.815324074101</v>
       </c>
       <c r="E23" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" t="s">
         <v>260</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>261</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>262</v>
-      </c>
-      <c r="H23" t="s">
-        <v>263</v>
       </c>
       <c r="I23">
         <v>8</v>
@@ -5872,16 +5878,16 @@
         <v>44882.816689814797</v>
       </c>
       <c r="E24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F24" t="s">
         <v>264</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>265</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>266</v>
-      </c>
-      <c r="H24" t="s">
-        <v>267</v>
       </c>
       <c r="I24">
         <v>8</v>
@@ -5904,13 +5910,13 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E25" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" t="s">
         <v>268</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>269</v>
-      </c>
-      <c r="G25" t="s">
-        <v>270</v>
       </c>
       <c r="I25">
         <v>9</v>
@@ -5933,10 +5939,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" t="s">
         <v>271</v>
-      </c>
-      <c r="F26" t="s">
-        <v>272</v>
       </c>
       <c r="I26">
         <v>9</v>
@@ -5959,13 +5965,13 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E27" t="s">
+        <v>272</v>
+      </c>
+      <c r="F27" t="s">
         <v>273</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="I27">
         <v>9</v>
@@ -5988,10 +5994,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E28" t="s">
+        <v>275</v>
+      </c>
+      <c r="F28" t="s">
         <v>276</v>
-      </c>
-      <c r="F28" t="s">
-        <v>277</v>
       </c>
       <c r="I28">
         <v>9</v>
@@ -6014,10 +6020,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F29" t="s">
         <v>278</v>
-      </c>
-      <c r="F29" t="s">
-        <v>279</v>
       </c>
       <c r="I29">
         <v>9</v>
@@ -6040,10 +6046,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F30" t="s">
         <v>280</v>
-      </c>
-      <c r="F30" t="s">
-        <v>281</v>
       </c>
       <c r="G30" s="4"/>
       <c r="I30">
@@ -6067,10 +6073,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F31" t="s">
         <v>282</v>
-      </c>
-      <c r="F31" t="s">
-        <v>283</v>
       </c>
       <c r="G31" s="5"/>
       <c r="I31">
@@ -6094,13 +6100,13 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F32" t="s">
         <v>284</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="I32">
         <v>10</v>
@@ -6123,10 +6129,10 @@
         <v>44984.409745370402</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F33" t="s">
         <v>287</v>
-      </c>
-      <c r="F33" t="s">
-        <v>288</v>
       </c>
       <c r="G33" s="5">
         <v>25</v>
@@ -6186,16 +6192,16 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
         <v>289</v>
-      </c>
-      <c r="H1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6212,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
@@ -6238,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
